--- a/attendance_reports/Y5_B2526_General_&_Special_Internal_2_B2_attendance.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Internal_2_B2_attendance.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Attendance" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BO$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BQ$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO316"/>
+  <dimension ref="A1:BQ316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -568,17 +568,19 @@
     <col width="12" customWidth="1" min="54" max="54"/>
     <col width="12" customWidth="1" min="55" max="55"/>
     <col width="12" customWidth="1" min="56" max="56"/>
-    <col width="17" customWidth="1" min="57" max="57"/>
-    <col width="17" customWidth="1" min="58" max="58"/>
-    <col width="13.5" customWidth="1" min="59" max="59"/>
-    <col width="13.5" customWidth="1" min="60" max="60"/>
-    <col width="14.5" customWidth="1" min="61" max="61"/>
-    <col width="14.5" customWidth="1" min="62" max="62"/>
-    <col width="13" customWidth="1" min="63" max="63"/>
-    <col width="13" customWidth="1" min="64" max="64"/>
+    <col width="12" customWidth="1" min="57" max="57"/>
+    <col width="12" customWidth="1" min="58" max="58"/>
+    <col width="17" customWidth="1" min="59" max="59"/>
+    <col width="17" customWidth="1" min="60" max="60"/>
+    <col width="13.5" customWidth="1" min="61" max="61"/>
+    <col width="13.5" customWidth="1" min="62" max="62"/>
+    <col width="14.5" customWidth="1" min="63" max="63"/>
+    <col width="14.5" customWidth="1" min="64" max="64"/>
     <col width="13" customWidth="1" min="65" max="65"/>
     <col width="13" customWidth="1" min="66" max="66"/>
     <col width="13" customWidth="1" min="67" max="67"/>
+    <col width="13" customWidth="1" min="68" max="68"/>
+    <col width="13" customWidth="1" min="69" max="69"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="1">
@@ -862,57 +864,67 @@
           <t>NEUROLOGY Session 8</t>
         </is>
       </c>
-      <c r="BE1" s="2" t="inlineStr">
+      <c r="BE1" s="4" t="inlineStr">
+        <is>
+          <t>NEUROLOGY Session 9</t>
+        </is>
+      </c>
+      <c r="BF1" s="4" t="inlineStr">
+        <is>
+          <t>NEUROLOGY Session 10</t>
+        </is>
+      </c>
+      <c r="BG1" s="2" t="inlineStr">
         <is>
           <t>Required PHYSICAL MEDICINE (Total)</t>
         </is>
       </c>
-      <c r="BF1" s="2" t="inlineStr">
+      <c r="BH1" s="2" t="inlineStr">
         <is>
           <t>Attended PHYSICAL MEDICINE (Total)</t>
         </is>
       </c>
-      <c r="BG1" s="2" t="inlineStr">
+      <c r="BI1" s="2" t="inlineStr">
         <is>
           <t>PHYSICAL MEDICINE Session 1</t>
         </is>
       </c>
-      <c r="BH1" s="2" t="inlineStr">
+      <c r="BJ1" s="2" t="inlineStr">
         <is>
           <t>PHYSICAL MEDICINE Session 2</t>
         </is>
       </c>
-      <c r="BI1" s="2" t="inlineStr">
+      <c r="BK1" s="2" t="inlineStr">
         <is>
           <t>Required RHEUMATOLOGY (Total)</t>
         </is>
       </c>
-      <c r="BJ1" s="2" t="inlineStr">
+      <c r="BL1" s="2" t="inlineStr">
         <is>
           <t>Attended RHEUMATOLOGY (Total)</t>
         </is>
       </c>
-      <c r="BK1" s="2" t="inlineStr">
+      <c r="BM1" s="2" t="inlineStr">
         <is>
           <t>RHEUMATOLOGY Session 1</t>
         </is>
       </c>
-      <c r="BL1" s="2" t="inlineStr">
+      <c r="BN1" s="2" t="inlineStr">
         <is>
           <t>RHEUMATOLOGY Session 2</t>
         </is>
       </c>
-      <c r="BM1" s="2" t="inlineStr">
+      <c r="BO1" s="2" t="inlineStr">
         <is>
           <t>RHEUMATOLOGY Session 3</t>
         </is>
       </c>
-      <c r="BN1" s="2" t="inlineStr">
+      <c r="BP1" s="2" t="inlineStr">
         <is>
           <t>RHEUMATOLOGY Session 4</t>
         </is>
       </c>
-      <c r="BO1" s="2" t="inlineStr">
+      <c r="BQ1" s="2" t="inlineStr">
         <is>
           <t>RHEUMATOLOGY Session 5</t>
         </is>
@@ -1099,10 +1111,10 @@
       <c r="BD2" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE2" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="9" t="n">
+      <c r="BE2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG2" s="9" t="n">
@@ -1130,6 +1142,12 @@
         <v>0</v>
       </c>
       <c r="BO2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,10 +1336,10 @@
       <c r="BD3" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="9" t="n">
+      <c r="BE3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG3" s="9" t="n">
@@ -1349,6 +1367,12 @@
         <v>0</v>
       </c>
       <c r="BO3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1537,10 +1561,10 @@
       <c r="BD4" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="9" t="n">
+      <c r="BE4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG4" s="9" t="n">
@@ -1568,6 +1592,12 @@
         <v>0</v>
       </c>
       <c r="BO4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1756,10 +1786,10 @@
       <c r="BD5" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="9" t="n">
+      <c r="BE5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG5" s="9" t="n">
@@ -1787,6 +1817,12 @@
         <v>0</v>
       </c>
       <c r="BO5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1975,10 +2011,10 @@
       <c r="BD6" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="9" t="n">
+      <c r="BE6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG6" s="9" t="n">
@@ -2006,6 +2042,12 @@
         <v>0</v>
       </c>
       <c r="BO6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2194,10 +2236,10 @@
       <c r="BD7" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="9" t="n">
+      <c r="BE7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG7" s="9" t="n">
@@ -2225,6 +2267,12 @@
         <v>0</v>
       </c>
       <c r="BO7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2413,10 +2461,10 @@
       <c r="BD8" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="9" t="n">
+      <c r="BE8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG8" s="9" t="n">
@@ -2444,6 +2492,12 @@
         <v>0</v>
       </c>
       <c r="BO8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2632,10 +2686,10 @@
       <c r="BD9" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="9" t="n">
+      <c r="BE9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG9" s="9" t="n">
@@ -2663,6 +2717,12 @@
         <v>0</v>
       </c>
       <c r="BO9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2851,10 +2911,10 @@
       <c r="BD10" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" s="9" t="n">
+      <c r="BE10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG10" s="9" t="n">
@@ -2882,6 +2942,12 @@
         <v>0</v>
       </c>
       <c r="BO10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3070,10 +3136,10 @@
       <c r="BD11" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF11" s="9" t="n">
+      <c r="BE11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG11" s="9" t="n">
@@ -3101,6 +3167,12 @@
         <v>0</v>
       </c>
       <c r="BO11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3289,10 +3361,10 @@
       <c r="BD12" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="9" t="n">
+      <c r="BE12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG12" s="9" t="n">
@@ -3320,6 +3392,12 @@
         <v>0</v>
       </c>
       <c r="BO12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3508,10 +3586,10 @@
       <c r="BD13" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF13" s="9" t="n">
+      <c r="BE13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG13" s="9" t="n">
@@ -3539,6 +3617,12 @@
         <v>0</v>
       </c>
       <c r="BO13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3727,10 +3811,10 @@
       <c r="BD14" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF14" s="9" t="n">
+      <c r="BE14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG14" s="9" t="n">
@@ -3758,6 +3842,12 @@
         <v>0</v>
       </c>
       <c r="BO14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3946,10 +4036,10 @@
       <c r="BD15" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF15" s="9" t="n">
+      <c r="BE15" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG15" s="9" t="n">
@@ -3977,6 +4067,12 @@
         <v>0</v>
       </c>
       <c r="BO15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4165,10 +4261,10 @@
       <c r="BD16" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF16" s="9" t="n">
+      <c r="BE16" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG16" s="9" t="n">
@@ -4196,6 +4292,12 @@
         <v>0</v>
       </c>
       <c r="BO16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4384,10 +4486,10 @@
       <c r="BD17" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF17" s="9" t="n">
+      <c r="BE17" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG17" s="9" t="n">
@@ -4415,6 +4517,12 @@
         <v>0</v>
       </c>
       <c r="BO17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4603,10 +4711,10 @@
       <c r="BD18" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF18" s="9" t="n">
+      <c r="BE18" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG18" s="9" t="n">
@@ -4634,6 +4742,12 @@
         <v>0</v>
       </c>
       <c r="BO18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4822,10 +4936,10 @@
       <c r="BD19" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF19" s="9" t="n">
+      <c r="BE19" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG19" s="9" t="n">
@@ -4853,6 +4967,12 @@
         <v>0</v>
       </c>
       <c r="BO19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5041,10 +5161,10 @@
       <c r="BD20" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF20" s="9" t="n">
+      <c r="BE20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG20" s="9" t="n">
@@ -5072,6 +5192,12 @@
         <v>0</v>
       </c>
       <c r="BO20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5260,10 +5386,10 @@
       <c r="BD21" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF21" s="9" t="n">
+      <c r="BE21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG21" s="9" t="n">
@@ -5291,6 +5417,12 @@
         <v>0</v>
       </c>
       <c r="BO21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5479,10 +5611,10 @@
       <c r="BD22" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE22" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF22" s="9" t="n">
+      <c r="BE22" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG22" s="9" t="n">
@@ -5510,6 +5642,12 @@
         <v>0</v>
       </c>
       <c r="BO22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5698,10 +5836,10 @@
       <c r="BD23" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE23" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF23" s="9" t="n">
+      <c r="BE23" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG23" s="9" t="n">
@@ -5729,6 +5867,12 @@
         <v>0</v>
       </c>
       <c r="BO23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5917,10 +6061,10 @@
       <c r="BD24" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE24" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF24" s="9" t="n">
+      <c r="BE24" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG24" s="9" t="n">
@@ -5948,6 +6092,12 @@
         <v>0</v>
       </c>
       <c r="BO24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6136,10 +6286,10 @@
       <c r="BD25" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF25" s="9" t="n">
+      <c r="BE25" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG25" s="9" t="n">
@@ -6167,6 +6317,12 @@
         <v>0</v>
       </c>
       <c r="BO25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6355,10 +6511,10 @@
       <c r="BD26" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE26" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF26" s="9" t="n">
+      <c r="BE26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG26" s="9" t="n">
@@ -6386,6 +6542,12 @@
         <v>0</v>
       </c>
       <c r="BO26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6574,10 +6736,10 @@
       <c r="BD27" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE27" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF27" s="9" t="n">
+      <c r="BE27" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG27" s="9" t="n">
@@ -6605,6 +6767,12 @@
         <v>0</v>
       </c>
       <c r="BO27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6793,10 +6961,10 @@
       <c r="BD28" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE28" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF28" s="9" t="n">
+      <c r="BE28" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG28" s="9" t="n">
@@ -6824,6 +6992,12 @@
         <v>0</v>
       </c>
       <c r="BO28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ28" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7012,10 +7186,10 @@
       <c r="BD29" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE29" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF29" s="9" t="n">
+      <c r="BE29" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG29" s="9" t="n">
@@ -7043,6 +7217,12 @@
         <v>0</v>
       </c>
       <c r="BO29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ29" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7231,10 +7411,10 @@
       <c r="BD30" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE30" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF30" s="9" t="n">
+      <c r="BE30" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF30" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG30" s="9" t="n">
@@ -7262,6 +7442,12 @@
         <v>0</v>
       </c>
       <c r="BO30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ30" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7450,10 +7636,10 @@
       <c r="BD31" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE31" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF31" s="9" t="n">
+      <c r="BE31" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG31" s="9" t="n">
@@ -7481,6 +7667,12 @@
         <v>0</v>
       </c>
       <c r="BO31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ31" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7669,10 +7861,10 @@
       <c r="BD32" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF32" s="9" t="n">
+      <c r="BE32" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG32" s="9" t="n">
@@ -7700,6 +7892,12 @@
         <v>0</v>
       </c>
       <c r="BO32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ32" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7888,10 +8086,10 @@
       <c r="BD33" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF33" s="9" t="n">
+      <c r="BE33" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG33" s="9" t="n">
@@ -7919,6 +8117,12 @@
         <v>0</v>
       </c>
       <c r="BO33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ33" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8107,10 +8311,10 @@
       <c r="BD34" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF34" s="9" t="n">
+      <c r="BE34" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF34" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG34" s="9" t="n">
@@ -8138,6 +8342,12 @@
         <v>0</v>
       </c>
       <c r="BO34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ34" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8326,10 +8536,10 @@
       <c r="BD35" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF35" s="9" t="n">
+      <c r="BE35" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG35" s="9" t="n">
@@ -8357,6 +8567,12 @@
         <v>0</v>
       </c>
       <c r="BO35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ35" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8545,10 +8761,10 @@
       <c r="BD36" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF36" s="9" t="n">
+      <c r="BE36" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG36" s="9" t="n">
@@ -8576,6 +8792,12 @@
         <v>0</v>
       </c>
       <c r="BO36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ36" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8764,10 +8986,10 @@
       <c r="BD37" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF37" s="9" t="n">
+      <c r="BE37" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF37" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG37" s="9" t="n">
@@ -8795,6 +9017,12 @@
         <v>0</v>
       </c>
       <c r="BO37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ37" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8983,10 +9211,10 @@
       <c r="BD38" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF38" s="9" t="n">
+      <c r="BE38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF38" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG38" s="9" t="n">
@@ -9014,6 +9242,12 @@
         <v>0</v>
       </c>
       <c r="BO38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ38" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9202,10 +9436,10 @@
       <c r="BD39" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF39" s="9" t="n">
+      <c r="BE39" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF39" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG39" s="9" t="n">
@@ -9233,6 +9467,12 @@
         <v>0</v>
       </c>
       <c r="BO39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ39" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9421,10 +9661,10 @@
       <c r="BD40" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF40" s="9" t="n">
+      <c r="BE40" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF40" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG40" s="9" t="n">
@@ -9452,6 +9692,12 @@
         <v>0</v>
       </c>
       <c r="BO40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ40" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9640,10 +9886,10 @@
       <c r="BD41" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF41" s="9" t="n">
+      <c r="BE41" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF41" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG41" s="9" t="n">
@@ -9671,6 +9917,12 @@
         <v>0</v>
       </c>
       <c r="BO41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ41" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9859,10 +10111,10 @@
       <c r="BD42" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF42" s="9" t="n">
+      <c r="BE42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF42" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG42" s="9" t="n">
@@ -9890,6 +10142,12 @@
         <v>0</v>
       </c>
       <c r="BO42" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP42" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ42" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10078,10 +10336,10 @@
       <c r="BD43" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF43" s="9" t="n">
+      <c r="BE43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF43" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG43" s="9" t="n">
@@ -10109,6 +10367,12 @@
         <v>0</v>
       </c>
       <c r="BO43" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP43" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ43" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10297,10 +10561,10 @@
       <c r="BD44" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF44" s="9" t="n">
+      <c r="BE44" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF44" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG44" s="9" t="n">
@@ -10328,6 +10592,12 @@
         <v>0</v>
       </c>
       <c r="BO44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ44" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10516,10 +10786,10 @@
       <c r="BD45" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF45" s="9" t="n">
+      <c r="BE45" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF45" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG45" s="9" t="n">
@@ -10547,6 +10817,12 @@
         <v>0</v>
       </c>
       <c r="BO45" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP45" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ45" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10735,10 +11011,10 @@
       <c r="BD46" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF46" s="9" t="n">
+      <c r="BE46" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF46" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG46" s="9" t="n">
@@ -10766,6 +11042,12 @@
         <v>0</v>
       </c>
       <c r="BO46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ46" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10954,10 +11236,10 @@
       <c r="BD47" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF47" s="9" t="n">
+      <c r="BE47" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF47" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG47" s="9" t="n">
@@ -10985,6 +11267,12 @@
         <v>0</v>
       </c>
       <c r="BO47" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP47" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ47" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11173,10 +11461,10 @@
       <c r="BD48" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF48" s="9" t="n">
+      <c r="BE48" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF48" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG48" s="9" t="n">
@@ -11204,6 +11492,12 @@
         <v>0</v>
       </c>
       <c r="BO48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ48" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11392,10 +11686,10 @@
       <c r="BD49" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF49" s="9" t="n">
+      <c r="BE49" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF49" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG49" s="9" t="n">
@@ -11423,6 +11717,12 @@
         <v>0</v>
       </c>
       <c r="BO49" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP49" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ49" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11611,10 +11911,10 @@
       <c r="BD50" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF50" s="9" t="n">
+      <c r="BE50" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF50" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG50" s="9" t="n">
@@ -11642,6 +11942,12 @@
         <v>0</v>
       </c>
       <c r="BO50" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP50" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ50" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11830,10 +12136,10 @@
       <c r="BD51" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF51" s="9" t="n">
+      <c r="BE51" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF51" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG51" s="9" t="n">
@@ -11861,6 +12167,12 @@
         <v>0</v>
       </c>
       <c r="BO51" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP51" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ51" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12049,10 +12361,10 @@
       <c r="BD52" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE52" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF52" s="9" t="n">
+      <c r="BE52" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF52" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG52" s="9" t="n">
@@ -12080,6 +12392,12 @@
         <v>0</v>
       </c>
       <c r="BO52" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP52" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ52" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12268,10 +12586,10 @@
       <c r="BD53" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE53" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF53" s="9" t="n">
+      <c r="BE53" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF53" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG53" s="9" t="n">
@@ -12299,6 +12617,12 @@
         <v>0</v>
       </c>
       <c r="BO53" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP53" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ53" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12487,10 +12811,10 @@
       <c r="BD54" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE54" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF54" s="9" t="n">
+      <c r="BE54" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF54" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG54" s="9" t="n">
@@ -12518,6 +12842,12 @@
         <v>0</v>
       </c>
       <c r="BO54" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP54" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ54" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12706,10 +13036,10 @@
       <c r="BD55" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE55" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF55" s="9" t="n">
+      <c r="BE55" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF55" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG55" s="9" t="n">
@@ -12737,6 +13067,12 @@
         <v>0</v>
       </c>
       <c r="BO55" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP55" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ55" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12925,10 +13261,10 @@
       <c r="BD56" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE56" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF56" s="9" t="n">
+      <c r="BE56" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF56" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG56" s="9" t="n">
@@ -12956,6 +13292,12 @@
         <v>0</v>
       </c>
       <c r="BO56" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP56" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ56" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13144,10 +13486,10 @@
       <c r="BD57" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE57" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF57" s="9" t="n">
+      <c r="BE57" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF57" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG57" s="9" t="n">
@@ -13175,6 +13517,12 @@
         <v>0</v>
       </c>
       <c r="BO57" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP57" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ57" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13363,10 +13711,10 @@
       <c r="BD58" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE58" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF58" s="9" t="n">
+      <c r="BE58" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF58" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG58" s="9" t="n">
@@ -13394,6 +13742,12 @@
         <v>0</v>
       </c>
       <c r="BO58" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP58" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ58" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13582,10 +13936,10 @@
       <c r="BD59" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE59" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF59" s="9" t="n">
+      <c r="BE59" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF59" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG59" s="9" t="n">
@@ -13613,6 +13967,12 @@
         <v>0</v>
       </c>
       <c r="BO59" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP59" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ59" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13801,10 +14161,10 @@
       <c r="BD60" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE60" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF60" s="9" t="n">
+      <c r="BE60" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF60" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG60" s="9" t="n">
@@ -13832,6 +14192,12 @@
         <v>0</v>
       </c>
       <c r="BO60" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP60" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ60" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14020,10 +14386,10 @@
       <c r="BD61" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE61" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF61" s="9" t="n">
+      <c r="BE61" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF61" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG61" s="9" t="n">
@@ -14051,6 +14417,12 @@
         <v>0</v>
       </c>
       <c r="BO61" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP61" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ61" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14239,10 +14611,10 @@
       <c r="BD62" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE62" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF62" s="9" t="n">
+      <c r="BE62" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF62" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG62" s="9" t="n">
@@ -14270,6 +14642,12 @@
         <v>0</v>
       </c>
       <c r="BO62" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP62" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ62" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14458,10 +14836,10 @@
       <c r="BD63" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE63" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF63" s="9" t="n">
+      <c r="BE63" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF63" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG63" s="9" t="n">
@@ -14489,6 +14867,12 @@
         <v>0</v>
       </c>
       <c r="BO63" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP63" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ63" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14677,10 +15061,10 @@
       <c r="BD64" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE64" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF64" s="9" t="n">
+      <c r="BE64" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF64" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG64" s="9" t="n">
@@ -14708,6 +15092,12 @@
         <v>0</v>
       </c>
       <c r="BO64" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP64" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ64" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14896,10 +15286,10 @@
       <c r="BD65" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE65" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF65" s="9" t="n">
+      <c r="BE65" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF65" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG65" s="9" t="n">
@@ -14927,6 +15317,12 @@
         <v>0</v>
       </c>
       <c r="BO65" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP65" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ65" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15115,10 +15511,10 @@
       <c r="BD66" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE66" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF66" s="9" t="n">
+      <c r="BE66" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF66" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG66" s="9" t="n">
@@ -15146,6 +15542,12 @@
         <v>0</v>
       </c>
       <c r="BO66" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP66" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ66" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15334,10 +15736,10 @@
       <c r="BD67" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE67" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF67" s="9" t="n">
+      <c r="BE67" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF67" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG67" s="9" t="n">
@@ -15365,6 +15767,12 @@
         <v>0</v>
       </c>
       <c r="BO67" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP67" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ67" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15553,10 +15961,10 @@
       <c r="BD68" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE68" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF68" s="9" t="n">
+      <c r="BE68" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF68" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG68" s="9" t="n">
@@ -15584,6 +15992,12 @@
         <v>0</v>
       </c>
       <c r="BO68" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP68" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ68" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15772,10 +16186,10 @@
       <c r="BD69" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE69" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF69" s="9" t="n">
+      <c r="BE69" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF69" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG69" s="9" t="n">
@@ -15803,6 +16217,12 @@
         <v>0</v>
       </c>
       <c r="BO69" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP69" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ69" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15991,10 +16411,10 @@
       <c r="BD70" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE70" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF70" s="9" t="n">
+      <c r="BE70" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF70" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG70" s="9" t="n">
@@ -16022,6 +16442,12 @@
         <v>0</v>
       </c>
       <c r="BO70" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP70" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ70" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16210,10 +16636,10 @@
       <c r="BD71" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE71" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF71" s="9" t="n">
+      <c r="BE71" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF71" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG71" s="9" t="n">
@@ -16241,6 +16667,12 @@
         <v>0</v>
       </c>
       <c r="BO71" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP71" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ71" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16429,10 +16861,10 @@
       <c r="BD72" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE72" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF72" s="9" t="n">
+      <c r="BE72" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF72" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG72" s="9" t="n">
@@ -16460,6 +16892,12 @@
         <v>0</v>
       </c>
       <c r="BO72" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP72" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ72" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16648,10 +17086,10 @@
       <c r="BD73" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE73" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF73" s="9" t="n">
+      <c r="BE73" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF73" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG73" s="9" t="n">
@@ -16679,6 +17117,12 @@
         <v>0</v>
       </c>
       <c r="BO73" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP73" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ73" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16867,10 +17311,10 @@
       <c r="BD74" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE74" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF74" s="9" t="n">
+      <c r="BE74" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF74" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG74" s="9" t="n">
@@ -16898,6 +17342,12 @@
         <v>0</v>
       </c>
       <c r="BO74" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP74" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ74" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17086,10 +17536,10 @@
       <c r="BD75" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE75" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF75" s="9" t="n">
+      <c r="BE75" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF75" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG75" s="9" t="n">
@@ -17117,6 +17567,12 @@
         <v>0</v>
       </c>
       <c r="BO75" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP75" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ75" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17305,10 +17761,10 @@
       <c r="BD76" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE76" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF76" s="9" t="n">
+      <c r="BE76" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF76" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG76" s="9" t="n">
@@ -17336,6 +17792,12 @@
         <v>0</v>
       </c>
       <c r="BO76" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP76" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ76" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17524,10 +17986,10 @@
       <c r="BD77" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE77" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF77" s="9" t="n">
+      <c r="BE77" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF77" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG77" s="9" t="n">
@@ -17555,6 +18017,12 @@
         <v>0</v>
       </c>
       <c r="BO77" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP77" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ77" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17743,10 +18211,10 @@
       <c r="BD78" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE78" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF78" s="9" t="n">
+      <c r="BE78" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF78" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG78" s="9" t="n">
@@ -17774,6 +18242,12 @@
         <v>0</v>
       </c>
       <c r="BO78" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP78" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ78" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17962,10 +18436,10 @@
       <c r="BD79" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE79" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF79" s="9" t="n">
+      <c r="BE79" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF79" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG79" s="9" t="n">
@@ -17993,6 +18467,12 @@
         <v>0</v>
       </c>
       <c r="BO79" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP79" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ79" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18181,10 +18661,10 @@
       <c r="BD80" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE80" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF80" s="9" t="n">
+      <c r="BE80" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF80" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG80" s="9" t="n">
@@ -18212,6 +18692,12 @@
         <v>0</v>
       </c>
       <c r="BO80" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP80" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ80" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18400,10 +18886,10 @@
       <c r="BD81" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE81" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF81" s="9" t="n">
+      <c r="BE81" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF81" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG81" s="9" t="n">
@@ -18431,6 +18917,12 @@
         <v>0</v>
       </c>
       <c r="BO81" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP81" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ81" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18619,10 +19111,10 @@
       <c r="BD82" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE82" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF82" s="9" t="n">
+      <c r="BE82" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF82" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG82" s="9" t="n">
@@ -18650,6 +19142,12 @@
         <v>0</v>
       </c>
       <c r="BO82" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP82" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ82" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18838,10 +19336,10 @@
       <c r="BD83" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE83" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF83" s="9" t="n">
+      <c r="BE83" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF83" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG83" s="9" t="n">
@@ -18869,6 +19367,12 @@
         <v>0</v>
       </c>
       <c r="BO83" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP83" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ83" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19057,10 +19561,10 @@
       <c r="BD84" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE84" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF84" s="9" t="n">
+      <c r="BE84" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF84" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG84" s="9" t="n">
@@ -19088,6 +19592,12 @@
         <v>0</v>
       </c>
       <c r="BO84" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP84" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ84" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19276,10 +19786,10 @@
       <c r="BD85" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE85" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF85" s="9" t="n">
+      <c r="BE85" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF85" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG85" s="9" t="n">
@@ -19307,6 +19817,12 @@
         <v>0</v>
       </c>
       <c r="BO85" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP85" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ85" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19495,10 +20011,10 @@
       <c r="BD86" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE86" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF86" s="9" t="n">
+      <c r="BE86" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF86" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG86" s="9" t="n">
@@ -19526,6 +20042,12 @@
         <v>0</v>
       </c>
       <c r="BO86" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP86" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ86" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19714,10 +20236,10 @@
       <c r="BD87" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE87" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF87" s="9" t="n">
+      <c r="BE87" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF87" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG87" s="9" t="n">
@@ -19745,6 +20267,12 @@
         <v>0</v>
       </c>
       <c r="BO87" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP87" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ87" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19933,10 +20461,10 @@
       <c r="BD88" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE88" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF88" s="9" t="n">
+      <c r="BE88" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF88" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG88" s="9" t="n">
@@ -19964,6 +20492,12 @@
         <v>0</v>
       </c>
       <c r="BO88" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP88" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ88" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20152,10 +20686,10 @@
       <c r="BD89" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE89" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF89" s="9" t="n">
+      <c r="BE89" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF89" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG89" s="9" t="n">
@@ -20183,6 +20717,12 @@
         <v>0</v>
       </c>
       <c r="BO89" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP89" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ89" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20371,10 +20911,10 @@
       <c r="BD90" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE90" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF90" s="9" t="n">
+      <c r="BE90" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF90" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG90" s="9" t="n">
@@ -20402,6 +20942,12 @@
         <v>0</v>
       </c>
       <c r="BO90" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP90" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ90" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20590,10 +21136,10 @@
       <c r="BD91" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE91" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF91" s="9" t="n">
+      <c r="BE91" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF91" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG91" s="9" t="n">
@@ -20621,6 +21167,12 @@
         <v>0</v>
       </c>
       <c r="BO91" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP91" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ91" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20809,10 +21361,10 @@
       <c r="BD92" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE92" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF92" s="9" t="n">
+      <c r="BE92" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF92" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG92" s="9" t="n">
@@ -20840,6 +21392,12 @@
         <v>0</v>
       </c>
       <c r="BO92" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP92" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ92" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21028,10 +21586,10 @@
       <c r="BD93" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE93" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF93" s="9" t="n">
+      <c r="BE93" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF93" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG93" s="9" t="n">
@@ -21059,6 +21617,12 @@
         <v>0</v>
       </c>
       <c r="BO93" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP93" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ93" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21247,10 +21811,10 @@
       <c r="BD94" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE94" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF94" s="9" t="n">
+      <c r="BE94" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF94" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG94" s="9" t="n">
@@ -21278,6 +21842,12 @@
         <v>0</v>
       </c>
       <c r="BO94" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP94" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ94" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21466,10 +22036,10 @@
       <c r="BD95" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE95" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF95" s="9" t="n">
+      <c r="BE95" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF95" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG95" s="9" t="n">
@@ -21497,6 +22067,12 @@
         <v>0</v>
       </c>
       <c r="BO95" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP95" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ95" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21685,10 +22261,10 @@
       <c r="BD96" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE96" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF96" s="9" t="n">
+      <c r="BE96" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF96" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG96" s="9" t="n">
@@ -21716,6 +22292,12 @@
         <v>0</v>
       </c>
       <c r="BO96" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP96" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ96" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21904,10 +22486,10 @@
       <c r="BD97" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE97" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF97" s="9" t="n">
+      <c r="BE97" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF97" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG97" s="9" t="n">
@@ -21935,6 +22517,12 @@
         <v>0</v>
       </c>
       <c r="BO97" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP97" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ97" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22123,10 +22711,10 @@
       <c r="BD98" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE98" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF98" s="9" t="n">
+      <c r="BE98" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF98" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG98" s="9" t="n">
@@ -22154,6 +22742,12 @@
         <v>0</v>
       </c>
       <c r="BO98" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP98" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ98" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22342,10 +22936,10 @@
       <c r="BD99" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE99" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF99" s="9" t="n">
+      <c r="BE99" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF99" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG99" s="9" t="n">
@@ -22373,6 +22967,12 @@
         <v>0</v>
       </c>
       <c r="BO99" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP99" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ99" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22561,10 +23161,10 @@
       <c r="BD100" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE100" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF100" s="9" t="n">
+      <c r="BE100" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF100" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG100" s="9" t="n">
@@ -22592,6 +23192,12 @@
         <v>0</v>
       </c>
       <c r="BO100" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP100" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ100" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22780,10 +23386,10 @@
       <c r="BD101" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE101" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF101" s="9" t="n">
+      <c r="BE101" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF101" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG101" s="9" t="n">
@@ -22811,6 +23417,12 @@
         <v>0</v>
       </c>
       <c r="BO101" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP101" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ101" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22999,10 +23611,10 @@
       <c r="BD102" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE102" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF102" s="9" t="n">
+      <c r="BE102" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF102" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG102" s="9" t="n">
@@ -23030,6 +23642,12 @@
         <v>0</v>
       </c>
       <c r="BO102" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP102" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ102" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23218,10 +23836,10 @@
       <c r="BD103" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE103" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF103" s="9" t="n">
+      <c r="BE103" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF103" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG103" s="9" t="n">
@@ -23249,6 +23867,12 @@
         <v>0</v>
       </c>
       <c r="BO103" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP103" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ103" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23437,10 +24061,10 @@
       <c r="BD104" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE104" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF104" s="9" t="n">
+      <c r="BE104" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF104" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG104" s="9" t="n">
@@ -23468,6 +24092,12 @@
         <v>0</v>
       </c>
       <c r="BO104" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP104" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ104" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23656,10 +24286,10 @@
       <c r="BD105" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE105" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF105" s="9" t="n">
+      <c r="BE105" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF105" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG105" s="9" t="n">
@@ -23687,6 +24317,12 @@
         <v>0</v>
       </c>
       <c r="BO105" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP105" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ105" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23875,10 +24511,10 @@
       <c r="BD106" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE106" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF106" s="9" t="n">
+      <c r="BE106" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF106" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG106" s="9" t="n">
@@ -23906,6 +24542,12 @@
         <v>0</v>
       </c>
       <c r="BO106" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP106" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ106" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24094,10 +24736,10 @@
       <c r="BD107" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE107" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF107" s="9" t="n">
+      <c r="BE107" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF107" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG107" s="9" t="n">
@@ -24125,6 +24767,12 @@
         <v>0</v>
       </c>
       <c r="BO107" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP107" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ107" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24313,10 +24961,10 @@
       <c r="BD108" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE108" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF108" s="9" t="n">
+      <c r="BE108" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF108" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG108" s="9" t="n">
@@ -24344,6 +24992,12 @@
         <v>0</v>
       </c>
       <c r="BO108" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP108" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ108" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24532,10 +25186,10 @@
       <c r="BD109" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE109" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF109" s="9" t="n">
+      <c r="BE109" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF109" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG109" s="9" t="n">
@@ -24563,6 +25217,12 @@
         <v>0</v>
       </c>
       <c r="BO109" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP109" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ109" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24751,10 +25411,10 @@
       <c r="BD110" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE110" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF110" s="9" t="n">
+      <c r="BE110" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF110" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG110" s="9" t="n">
@@ -24782,6 +25442,12 @@
         <v>0</v>
       </c>
       <c r="BO110" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP110" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ110" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24970,10 +25636,10 @@
       <c r="BD111" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE111" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF111" s="9" t="n">
+      <c r="BE111" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF111" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG111" s="9" t="n">
@@ -25001,6 +25667,12 @@
         <v>0</v>
       </c>
       <c r="BO111" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP111" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ111" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25189,10 +25861,10 @@
       <c r="BD112" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE112" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF112" s="9" t="n">
+      <c r="BE112" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF112" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG112" s="9" t="n">
@@ -25220,6 +25892,12 @@
         <v>0</v>
       </c>
       <c r="BO112" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP112" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ112" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25408,10 +26086,10 @@
       <c r="BD113" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE113" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF113" s="9" t="n">
+      <c r="BE113" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF113" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG113" s="9" t="n">
@@ -25439,6 +26117,12 @@
         <v>0</v>
       </c>
       <c r="BO113" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP113" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ113" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25627,10 +26311,10 @@
       <c r="BD114" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE114" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF114" s="9" t="n">
+      <c r="BE114" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF114" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG114" s="9" t="n">
@@ -25658,6 +26342,12 @@
         <v>0</v>
       </c>
       <c r="BO114" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP114" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ114" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25846,10 +26536,10 @@
       <c r="BD115" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE115" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF115" s="9" t="n">
+      <c r="BE115" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF115" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG115" s="9" t="n">
@@ -25877,6 +26567,12 @@
         <v>0</v>
       </c>
       <c r="BO115" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP115" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ115" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26065,10 +26761,10 @@
       <c r="BD116" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE116" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF116" s="9" t="n">
+      <c r="BE116" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF116" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG116" s="9" t="n">
@@ -26096,6 +26792,12 @@
         <v>0</v>
       </c>
       <c r="BO116" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP116" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ116" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26284,10 +26986,10 @@
       <c r="BD117" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE117" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF117" s="9" t="n">
+      <c r="BE117" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF117" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG117" s="9" t="n">
@@ -26315,6 +27017,12 @@
         <v>0</v>
       </c>
       <c r="BO117" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP117" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ117" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26503,10 +27211,10 @@
       <c r="BD118" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE118" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF118" s="9" t="n">
+      <c r="BE118" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF118" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG118" s="9" t="n">
@@ -26534,6 +27242,12 @@
         <v>0</v>
       </c>
       <c r="BO118" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP118" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ118" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26722,10 +27436,10 @@
       <c r="BD119" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE119" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF119" s="9" t="n">
+      <c r="BE119" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF119" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG119" s="9" t="n">
@@ -26753,6 +27467,12 @@
         <v>0</v>
       </c>
       <c r="BO119" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP119" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ119" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26941,10 +27661,10 @@
       <c r="BD120" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE120" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF120" s="9" t="n">
+      <c r="BE120" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF120" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG120" s="9" t="n">
@@ -26972,6 +27692,12 @@
         <v>0</v>
       </c>
       <c r="BO120" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP120" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ120" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27160,10 +27886,10 @@
       <c r="BD121" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE121" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF121" s="9" t="n">
+      <c r="BE121" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF121" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG121" s="9" t="n">
@@ -27191,6 +27917,12 @@
         <v>0</v>
       </c>
       <c r="BO121" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP121" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ121" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27379,10 +28111,10 @@
       <c r="BD122" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE122" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF122" s="9" t="n">
+      <c r="BE122" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF122" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG122" s="9" t="n">
@@ -27410,6 +28142,12 @@
         <v>0</v>
       </c>
       <c r="BO122" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP122" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ122" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27598,10 +28336,10 @@
       <c r="BD123" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE123" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF123" s="9" t="n">
+      <c r="BE123" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF123" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG123" s="9" t="n">
@@ -27629,6 +28367,12 @@
         <v>0</v>
       </c>
       <c r="BO123" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP123" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ123" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27817,10 +28561,10 @@
       <c r="BD124" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE124" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF124" s="9" t="n">
+      <c r="BE124" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF124" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG124" s="9" t="n">
@@ -27848,6 +28592,12 @@
         <v>0</v>
       </c>
       <c r="BO124" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP124" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ124" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28036,10 +28786,10 @@
       <c r="BD125" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE125" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF125" s="9" t="n">
+      <c r="BE125" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF125" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG125" s="9" t="n">
@@ -28067,6 +28817,12 @@
         <v>0</v>
       </c>
       <c r="BO125" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP125" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ125" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28255,10 +29011,10 @@
       <c r="BD126" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE126" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF126" s="9" t="n">
+      <c r="BE126" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF126" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG126" s="9" t="n">
@@ -28286,6 +29042,12 @@
         <v>0</v>
       </c>
       <c r="BO126" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP126" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ126" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28474,10 +29236,10 @@
       <c r="BD127" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE127" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF127" s="9" t="n">
+      <c r="BE127" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF127" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG127" s="9" t="n">
@@ -28505,6 +29267,12 @@
         <v>0</v>
       </c>
       <c r="BO127" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP127" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ127" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28693,10 +29461,10 @@
       <c r="BD128" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE128" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF128" s="9" t="n">
+      <c r="BE128" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF128" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG128" s="9" t="n">
@@ -28724,6 +29492,12 @@
         <v>0</v>
       </c>
       <c r="BO128" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP128" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ128" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28912,10 +29686,10 @@
       <c r="BD129" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE129" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF129" s="9" t="n">
+      <c r="BE129" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF129" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG129" s="9" t="n">
@@ -28943,6 +29717,12 @@
         <v>0</v>
       </c>
       <c r="BO129" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP129" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ129" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29131,10 +29911,10 @@
       <c r="BD130" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE130" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF130" s="9" t="n">
+      <c r="BE130" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF130" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG130" s="9" t="n">
@@ -29162,6 +29942,12 @@
         <v>0</v>
       </c>
       <c r="BO130" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP130" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ130" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29350,10 +30136,10 @@
       <c r="BD131" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE131" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF131" s="9" t="n">
+      <c r="BE131" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF131" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG131" s="9" t="n">
@@ -29381,6 +30167,12 @@
         <v>0</v>
       </c>
       <c r="BO131" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP131" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ131" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29569,10 +30361,10 @@
       <c r="BD132" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE132" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF132" s="9" t="n">
+      <c r="BE132" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF132" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG132" s="9" t="n">
@@ -29600,6 +30392,12 @@
         <v>0</v>
       </c>
       <c r="BO132" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP132" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ132" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29788,10 +30586,10 @@
       <c r="BD133" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE133" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF133" s="9" t="n">
+      <c r="BE133" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF133" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG133" s="9" t="n">
@@ -29819,6 +30617,12 @@
         <v>0</v>
       </c>
       <c r="BO133" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP133" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ133" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30007,10 +30811,10 @@
       <c r="BD134" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE134" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF134" s="9" t="n">
+      <c r="BE134" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF134" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG134" s="9" t="n">
@@ -30038,6 +30842,12 @@
         <v>0</v>
       </c>
       <c r="BO134" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP134" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ134" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30226,10 +31036,10 @@
       <c r="BD135" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE135" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF135" s="9" t="n">
+      <c r="BE135" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF135" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG135" s="9" t="n">
@@ -30257,6 +31067,12 @@
         <v>0</v>
       </c>
       <c r="BO135" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP135" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ135" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30445,10 +31261,10 @@
       <c r="BD136" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE136" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF136" s="9" t="n">
+      <c r="BE136" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF136" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG136" s="9" t="n">
@@ -30476,6 +31292,12 @@
         <v>0</v>
       </c>
       <c r="BO136" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP136" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ136" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30664,10 +31486,10 @@
       <c r="BD137" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE137" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF137" s="9" t="n">
+      <c r="BE137" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF137" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG137" s="9" t="n">
@@ -30695,6 +31517,12 @@
         <v>0</v>
       </c>
       <c r="BO137" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP137" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ137" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30883,10 +31711,10 @@
       <c r="BD138" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE138" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF138" s="9" t="n">
+      <c r="BE138" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF138" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG138" s="9" t="n">
@@ -30914,6 +31742,12 @@
         <v>0</v>
       </c>
       <c r="BO138" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP138" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ138" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31102,10 +31936,10 @@
       <c r="BD139" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE139" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF139" s="9" t="n">
+      <c r="BE139" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF139" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG139" s="9" t="n">
@@ -31133,6 +31967,12 @@
         <v>0</v>
       </c>
       <c r="BO139" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP139" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ139" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31321,10 +32161,10 @@
       <c r="BD140" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE140" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF140" s="9" t="n">
+      <c r="BE140" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF140" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG140" s="9" t="n">
@@ -31352,6 +32192,12 @@
         <v>0</v>
       </c>
       <c r="BO140" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP140" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ140" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31540,10 +32386,10 @@
       <c r="BD141" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE141" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF141" s="9" t="n">
+      <c r="BE141" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF141" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG141" s="9" t="n">
@@ -31571,6 +32417,12 @@
         <v>0</v>
       </c>
       <c r="BO141" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP141" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ141" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31759,10 +32611,10 @@
       <c r="BD142" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE142" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF142" s="9" t="n">
+      <c r="BE142" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF142" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG142" s="9" t="n">
@@ -31790,6 +32642,12 @@
         <v>0</v>
       </c>
       <c r="BO142" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP142" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ142" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31978,10 +32836,10 @@
       <c r="BD143" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE143" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF143" s="9" t="n">
+      <c r="BE143" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF143" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG143" s="9" t="n">
@@ -32009,6 +32867,12 @@
         <v>0</v>
       </c>
       <c r="BO143" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP143" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ143" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32197,10 +33061,10 @@
       <c r="BD144" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE144" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF144" s="9" t="n">
+      <c r="BE144" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF144" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG144" s="9" t="n">
@@ -32228,6 +33092,12 @@
         <v>0</v>
       </c>
       <c r="BO144" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP144" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ144" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32416,10 +33286,10 @@
       <c r="BD145" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE145" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF145" s="9" t="n">
+      <c r="BE145" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF145" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG145" s="9" t="n">
@@ -32447,6 +33317,12 @@
         <v>0</v>
       </c>
       <c r="BO145" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP145" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ145" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32635,10 +33511,10 @@
       <c r="BD146" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE146" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF146" s="9" t="n">
+      <c r="BE146" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF146" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG146" s="9" t="n">
@@ -32666,6 +33542,12 @@
         <v>0</v>
       </c>
       <c r="BO146" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP146" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ146" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32854,10 +33736,10 @@
       <c r="BD147" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE147" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF147" s="9" t="n">
+      <c r="BE147" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF147" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG147" s="9" t="n">
@@ -32885,6 +33767,12 @@
         <v>0</v>
       </c>
       <c r="BO147" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP147" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ147" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33073,10 +33961,10 @@
       <c r="BD148" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE148" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF148" s="9" t="n">
+      <c r="BE148" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF148" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG148" s="9" t="n">
@@ -33104,6 +33992,12 @@
         <v>0</v>
       </c>
       <c r="BO148" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP148" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ148" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33292,10 +34186,10 @@
       <c r="BD149" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE149" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF149" s="9" t="n">
+      <c r="BE149" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF149" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG149" s="9" t="n">
@@ -33323,6 +34217,12 @@
         <v>0</v>
       </c>
       <c r="BO149" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP149" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ149" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33511,10 +34411,10 @@
       <c r="BD150" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE150" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF150" s="9" t="n">
+      <c r="BE150" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF150" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG150" s="9" t="n">
@@ -33542,6 +34442,12 @@
         <v>0</v>
       </c>
       <c r="BO150" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP150" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ150" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33730,10 +34636,10 @@
       <c r="BD151" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE151" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF151" s="9" t="n">
+      <c r="BE151" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF151" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG151" s="9" t="n">
@@ -33761,6 +34667,12 @@
         <v>0</v>
       </c>
       <c r="BO151" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP151" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ151" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33949,10 +34861,10 @@
       <c r="BD152" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE152" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF152" s="9" t="n">
+      <c r="BE152" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF152" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG152" s="9" t="n">
@@ -33980,6 +34892,12 @@
         <v>0</v>
       </c>
       <c r="BO152" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP152" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ152" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34168,10 +35086,10 @@
       <c r="BD153" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE153" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF153" s="9" t="n">
+      <c r="BE153" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF153" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG153" s="9" t="n">
@@ -34199,6 +35117,12 @@
         <v>0</v>
       </c>
       <c r="BO153" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP153" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ153" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34387,10 +35311,10 @@
       <c r="BD154" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE154" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF154" s="9" t="n">
+      <c r="BE154" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF154" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG154" s="9" t="n">
@@ -34418,6 +35342,12 @@
         <v>0</v>
       </c>
       <c r="BO154" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP154" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ154" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34606,10 +35536,10 @@
       <c r="BD155" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE155" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF155" s="9" t="n">
+      <c r="BE155" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF155" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG155" s="9" t="n">
@@ -34637,6 +35567,12 @@
         <v>0</v>
       </c>
       <c r="BO155" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP155" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ155" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34825,10 +35761,10 @@
       <c r="BD156" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE156" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF156" s="9" t="n">
+      <c r="BE156" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF156" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG156" s="9" t="n">
@@ -34856,6 +35792,12 @@
         <v>0</v>
       </c>
       <c r="BO156" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP156" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ156" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35044,10 +35986,10 @@
       <c r="BD157" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE157" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF157" s="9" t="n">
+      <c r="BE157" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF157" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG157" s="9" t="n">
@@ -35075,6 +36017,12 @@
         <v>0</v>
       </c>
       <c r="BO157" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP157" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ157" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35263,10 +36211,10 @@
       <c r="BD158" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE158" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF158" s="9" t="n">
+      <c r="BE158" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF158" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG158" s="9" t="n">
@@ -35294,6 +36242,12 @@
         <v>0</v>
       </c>
       <c r="BO158" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP158" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ158" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35482,10 +36436,10 @@
       <c r="BD159" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE159" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF159" s="9" t="n">
+      <c r="BE159" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF159" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG159" s="9" t="n">
@@ -35513,6 +36467,12 @@
         <v>0</v>
       </c>
       <c r="BO159" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP159" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ159" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35701,10 +36661,10 @@
       <c r="BD160" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE160" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF160" s="9" t="n">
+      <c r="BE160" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF160" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG160" s="9" t="n">
@@ -35732,6 +36692,12 @@
         <v>0</v>
       </c>
       <c r="BO160" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP160" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ160" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35920,10 +36886,10 @@
       <c r="BD161" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE161" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF161" s="9" t="n">
+      <c r="BE161" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF161" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG161" s="9" t="n">
@@ -35951,6 +36917,12 @@
         <v>0</v>
       </c>
       <c r="BO161" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP161" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ161" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36139,10 +37111,10 @@
       <c r="BD162" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE162" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF162" s="9" t="n">
+      <c r="BE162" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF162" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG162" s="9" t="n">
@@ -36170,6 +37142,12 @@
         <v>0</v>
       </c>
       <c r="BO162" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP162" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ162" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36358,10 +37336,10 @@
       <c r="BD163" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE163" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF163" s="9" t="n">
+      <c r="BE163" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF163" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG163" s="9" t="n">
@@ -36389,6 +37367,12 @@
         <v>0</v>
       </c>
       <c r="BO163" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP163" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ163" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36577,10 +37561,10 @@
       <c r="BD164" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE164" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF164" s="9" t="n">
+      <c r="BE164" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF164" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG164" s="9" t="n">
@@ -36608,6 +37592,12 @@
         <v>0</v>
       </c>
       <c r="BO164" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP164" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ164" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36796,10 +37786,10 @@
       <c r="BD165" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE165" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF165" s="9" t="n">
+      <c r="BE165" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF165" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG165" s="9" t="n">
@@ -36827,6 +37817,12 @@
         <v>0</v>
       </c>
       <c r="BO165" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP165" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ165" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37015,10 +38011,10 @@
       <c r="BD166" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE166" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF166" s="9" t="n">
+      <c r="BE166" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF166" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG166" s="9" t="n">
@@ -37046,6 +38042,12 @@
         <v>0</v>
       </c>
       <c r="BO166" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP166" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ166" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37234,10 +38236,10 @@
       <c r="BD167" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE167" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF167" s="9" t="n">
+      <c r="BE167" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF167" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG167" s="9" t="n">
@@ -37265,6 +38267,12 @@
         <v>0</v>
       </c>
       <c r="BO167" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP167" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ167" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37453,10 +38461,10 @@
       <c r="BD168" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE168" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF168" s="9" t="n">
+      <c r="BE168" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF168" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG168" s="9" t="n">
@@ -37484,6 +38492,12 @@
         <v>0</v>
       </c>
       <c r="BO168" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP168" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ168" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37672,10 +38686,10 @@
       <c r="BD169" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE169" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF169" s="9" t="n">
+      <c r="BE169" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF169" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG169" s="9" t="n">
@@ -37703,6 +38717,12 @@
         <v>0</v>
       </c>
       <c r="BO169" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP169" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ169" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37891,10 +38911,10 @@
       <c r="BD170" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE170" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF170" s="9" t="n">
+      <c r="BE170" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF170" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG170" s="9" t="n">
@@ -37922,6 +38942,12 @@
         <v>0</v>
       </c>
       <c r="BO170" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP170" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ170" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38110,10 +39136,10 @@
       <c r="BD171" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE171" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF171" s="9" t="n">
+      <c r="BE171" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF171" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG171" s="9" t="n">
@@ -38141,6 +39167,12 @@
         <v>0</v>
       </c>
       <c r="BO171" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP171" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ171" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38329,10 +39361,10 @@
       <c r="BD172" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE172" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF172" s="9" t="n">
+      <c r="BE172" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF172" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG172" s="9" t="n">
@@ -38360,6 +39392,12 @@
         <v>0</v>
       </c>
       <c r="BO172" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP172" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ172" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38548,10 +39586,10 @@
       <c r="BD173" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE173" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF173" s="9" t="n">
+      <c r="BE173" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF173" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG173" s="9" t="n">
@@ -38579,6 +39617,12 @@
         <v>0</v>
       </c>
       <c r="BO173" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP173" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ173" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38767,10 +39811,10 @@
       <c r="BD174" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE174" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF174" s="9" t="n">
+      <c r="BE174" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF174" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG174" s="9" t="n">
@@ -38798,6 +39842,12 @@
         <v>0</v>
       </c>
       <c r="BO174" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP174" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ174" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38986,10 +40036,10 @@
       <c r="BD175" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE175" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF175" s="9" t="n">
+      <c r="BE175" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF175" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG175" s="9" t="n">
@@ -39017,6 +40067,12 @@
         <v>0</v>
       </c>
       <c r="BO175" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP175" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ175" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39205,10 +40261,10 @@
       <c r="BD176" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE176" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF176" s="9" t="n">
+      <c r="BE176" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF176" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG176" s="9" t="n">
@@ -39236,6 +40292,12 @@
         <v>0</v>
       </c>
       <c r="BO176" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP176" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ176" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39424,10 +40486,10 @@
       <c r="BD177" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE177" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF177" s="9" t="n">
+      <c r="BE177" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF177" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG177" s="9" t="n">
@@ -39455,6 +40517,12 @@
         <v>0</v>
       </c>
       <c r="BO177" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP177" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ177" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39643,10 +40711,10 @@
       <c r="BD178" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE178" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF178" s="9" t="n">
+      <c r="BE178" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF178" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG178" s="9" t="n">
@@ -39674,6 +40742,12 @@
         <v>0</v>
       </c>
       <c r="BO178" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP178" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ178" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39862,10 +40936,10 @@
       <c r="BD179" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE179" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF179" s="9" t="n">
+      <c r="BE179" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF179" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG179" s="9" t="n">
@@ -39893,6 +40967,12 @@
         <v>0</v>
       </c>
       <c r="BO179" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP179" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ179" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40081,10 +41161,10 @@
       <c r="BD180" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE180" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF180" s="9" t="n">
+      <c r="BE180" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF180" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG180" s="9" t="n">
@@ -40112,6 +41192,12 @@
         <v>0</v>
       </c>
       <c r="BO180" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP180" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ180" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40300,10 +41386,10 @@
       <c r="BD181" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE181" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF181" s="9" t="n">
+      <c r="BE181" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF181" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG181" s="9" t="n">
@@ -40331,6 +41417,12 @@
         <v>0</v>
       </c>
       <c r="BO181" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP181" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ181" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40519,10 +41611,10 @@
       <c r="BD182" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE182" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF182" s="9" t="n">
+      <c r="BE182" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF182" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG182" s="9" t="n">
@@ -40550,6 +41642,12 @@
         <v>0</v>
       </c>
       <c r="BO182" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP182" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ182" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40738,10 +41836,10 @@
       <c r="BD183" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE183" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF183" s="9" t="n">
+      <c r="BE183" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF183" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG183" s="9" t="n">
@@ -40769,6 +41867,12 @@
         <v>0</v>
       </c>
       <c r="BO183" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP183" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ183" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40957,10 +42061,10 @@
       <c r="BD184" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE184" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF184" s="9" t="n">
+      <c r="BE184" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF184" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG184" s="9" t="n">
@@ -40988,6 +42092,12 @@
         <v>0</v>
       </c>
       <c r="BO184" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP184" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ184" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41176,10 +42286,10 @@
       <c r="BD185" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE185" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF185" s="9" t="n">
+      <c r="BE185" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF185" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG185" s="9" t="n">
@@ -41207,6 +42317,12 @@
         <v>0</v>
       </c>
       <c r="BO185" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP185" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ185" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41395,10 +42511,10 @@
       <c r="BD186" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE186" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF186" s="9" t="n">
+      <c r="BE186" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF186" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG186" s="9" t="n">
@@ -41426,6 +42542,12 @@
         <v>0</v>
       </c>
       <c r="BO186" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP186" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ186" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41614,10 +42736,10 @@
       <c r="BD187" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE187" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF187" s="9" t="n">
+      <c r="BE187" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF187" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG187" s="9" t="n">
@@ -41645,6 +42767,12 @@
         <v>0</v>
       </c>
       <c r="BO187" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP187" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ187" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41833,10 +42961,10 @@
       <c r="BD188" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE188" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF188" s="9" t="n">
+      <c r="BE188" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF188" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG188" s="9" t="n">
@@ -41864,6 +42992,12 @@
         <v>0</v>
       </c>
       <c r="BO188" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP188" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ188" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42052,10 +43186,10 @@
       <c r="BD189" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE189" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF189" s="9" t="n">
+      <c r="BE189" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF189" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG189" s="9" t="n">
@@ -42083,6 +43217,12 @@
         <v>0</v>
       </c>
       <c r="BO189" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP189" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ189" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42271,10 +43411,10 @@
       <c r="BD190" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE190" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF190" s="9" t="n">
+      <c r="BE190" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF190" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG190" s="9" t="n">
@@ -42302,6 +43442,12 @@
         <v>0</v>
       </c>
       <c r="BO190" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP190" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ190" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42490,10 +43636,10 @@
       <c r="BD191" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE191" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF191" s="9" t="n">
+      <c r="BE191" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF191" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG191" s="9" t="n">
@@ -42521,6 +43667,12 @@
         <v>0</v>
       </c>
       <c r="BO191" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP191" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ191" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42709,10 +43861,10 @@
       <c r="BD192" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE192" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF192" s="9" t="n">
+      <c r="BE192" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF192" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG192" s="9" t="n">
@@ -42740,6 +43892,12 @@
         <v>0</v>
       </c>
       <c r="BO192" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP192" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ192" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42928,10 +44086,10 @@
       <c r="BD193" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE193" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF193" s="9" t="n">
+      <c r="BE193" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF193" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG193" s="9" t="n">
@@ -42959,6 +44117,12 @@
         <v>0</v>
       </c>
       <c r="BO193" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP193" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ193" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43147,10 +44311,10 @@
       <c r="BD194" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE194" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF194" s="9" t="n">
+      <c r="BE194" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF194" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG194" s="9" t="n">
@@ -43178,6 +44342,12 @@
         <v>0</v>
       </c>
       <c r="BO194" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP194" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ194" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43366,10 +44536,10 @@
       <c r="BD195" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE195" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF195" s="9" t="n">
+      <c r="BE195" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF195" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG195" s="9" t="n">
@@ -43397,6 +44567,12 @@
         <v>0</v>
       </c>
       <c r="BO195" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP195" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ195" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43585,10 +44761,10 @@
       <c r="BD196" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE196" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF196" s="9" t="n">
+      <c r="BE196" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF196" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG196" s="9" t="n">
@@ -43616,6 +44792,12 @@
         <v>0</v>
       </c>
       <c r="BO196" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP196" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ196" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43804,10 +44986,10 @@
       <c r="BD197" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE197" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF197" s="9" t="n">
+      <c r="BE197" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF197" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG197" s="9" t="n">
@@ -43835,6 +45017,12 @@
         <v>0</v>
       </c>
       <c r="BO197" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP197" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ197" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44023,10 +45211,10 @@
       <c r="BD198" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE198" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF198" s="9" t="n">
+      <c r="BE198" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF198" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG198" s="9" t="n">
@@ -44054,6 +45242,12 @@
         <v>0</v>
       </c>
       <c r="BO198" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP198" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ198" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44242,10 +45436,10 @@
       <c r="BD199" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE199" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF199" s="9" t="n">
+      <c r="BE199" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF199" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG199" s="9" t="n">
@@ -44273,6 +45467,12 @@
         <v>0</v>
       </c>
       <c r="BO199" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP199" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ199" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44461,10 +45661,10 @@
       <c r="BD200" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE200" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF200" s="9" t="n">
+      <c r="BE200" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF200" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG200" s="9" t="n">
@@ -44492,6 +45692,12 @@
         <v>0</v>
       </c>
       <c r="BO200" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP200" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ200" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44680,10 +45886,10 @@
       <c r="BD201" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE201" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF201" s="9" t="n">
+      <c r="BE201" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF201" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG201" s="9" t="n">
@@ -44711,6 +45917,12 @@
         <v>0</v>
       </c>
       <c r="BO201" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP201" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ201" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44899,10 +46111,10 @@
       <c r="BD202" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE202" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF202" s="9" t="n">
+      <c r="BE202" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF202" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG202" s="9" t="n">
@@ -44930,6 +46142,12 @@
         <v>0</v>
       </c>
       <c r="BO202" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP202" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ202" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45118,10 +46336,10 @@
       <c r="BD203" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE203" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF203" s="9" t="n">
+      <c r="BE203" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF203" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG203" s="9" t="n">
@@ -45149,6 +46367,12 @@
         <v>0</v>
       </c>
       <c r="BO203" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP203" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ203" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45337,10 +46561,10 @@
       <c r="BD204" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE204" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF204" s="9" t="n">
+      <c r="BE204" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF204" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG204" s="9" t="n">
@@ -45368,6 +46592,12 @@
         <v>0</v>
       </c>
       <c r="BO204" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP204" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ204" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45556,10 +46786,10 @@
       <c r="BD205" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE205" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF205" s="9" t="n">
+      <c r="BE205" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF205" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG205" s="9" t="n">
@@ -45587,6 +46817,12 @@
         <v>0</v>
       </c>
       <c r="BO205" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP205" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ205" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45775,10 +47011,10 @@
       <c r="BD206" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE206" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF206" s="9" t="n">
+      <c r="BE206" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF206" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG206" s="9" t="n">
@@ -45806,6 +47042,12 @@
         <v>0</v>
       </c>
       <c r="BO206" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP206" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ206" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45994,10 +47236,10 @@
       <c r="BD207" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE207" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF207" s="9" t="n">
+      <c r="BE207" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF207" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG207" s="9" t="n">
@@ -46025,6 +47267,12 @@
         <v>0</v>
       </c>
       <c r="BO207" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP207" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ207" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46213,10 +47461,10 @@
       <c r="BD208" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE208" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF208" s="9" t="n">
+      <c r="BE208" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF208" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG208" s="9" t="n">
@@ -46244,6 +47492,12 @@
         <v>0</v>
       </c>
       <c r="BO208" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP208" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ208" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46432,10 +47686,10 @@
       <c r="BD209" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE209" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF209" s="9" t="n">
+      <c r="BE209" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF209" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG209" s="9" t="n">
@@ -46463,6 +47717,12 @@
         <v>0</v>
       </c>
       <c r="BO209" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP209" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ209" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46651,10 +47911,10 @@
       <c r="BD210" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE210" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF210" s="9" t="n">
+      <c r="BE210" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF210" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG210" s="9" t="n">
@@ -46682,6 +47942,12 @@
         <v>0</v>
       </c>
       <c r="BO210" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP210" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ210" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46870,10 +48136,10 @@
       <c r="BD211" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE211" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF211" s="9" t="n">
+      <c r="BE211" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF211" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG211" s="9" t="n">
@@ -46901,6 +48167,12 @@
         <v>0</v>
       </c>
       <c r="BO211" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP211" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ211" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47089,10 +48361,10 @@
       <c r="BD212" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE212" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF212" s="9" t="n">
+      <c r="BE212" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF212" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG212" s="9" t="n">
@@ -47120,6 +48392,12 @@
         <v>0</v>
       </c>
       <c r="BO212" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP212" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ212" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47308,10 +48586,10 @@
       <c r="BD213" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE213" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF213" s="9" t="n">
+      <c r="BE213" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF213" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG213" s="9" t="n">
@@ -47339,6 +48617,12 @@
         <v>0</v>
       </c>
       <c r="BO213" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP213" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ213" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47527,10 +48811,10 @@
       <c r="BD214" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE214" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF214" s="9" t="n">
+      <c r="BE214" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF214" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG214" s="9" t="n">
@@ -47558,6 +48842,12 @@
         <v>0</v>
       </c>
       <c r="BO214" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP214" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ214" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47746,10 +49036,10 @@
       <c r="BD215" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE215" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF215" s="9" t="n">
+      <c r="BE215" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF215" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG215" s="9" t="n">
@@ -47777,6 +49067,12 @@
         <v>0</v>
       </c>
       <c r="BO215" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP215" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ215" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47965,10 +49261,10 @@
       <c r="BD216" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE216" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF216" s="9" t="n">
+      <c r="BE216" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF216" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG216" s="9" t="n">
@@ -47996,6 +49292,12 @@
         <v>0</v>
       </c>
       <c r="BO216" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP216" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ216" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48184,10 +49486,10 @@
       <c r="BD217" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE217" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF217" s="9" t="n">
+      <c r="BE217" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF217" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG217" s="9" t="n">
@@ -48215,6 +49517,12 @@
         <v>0</v>
       </c>
       <c r="BO217" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP217" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ217" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48403,10 +49711,10 @@
       <c r="BD218" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE218" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF218" s="9" t="n">
+      <c r="BE218" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF218" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG218" s="9" t="n">
@@ -48434,6 +49742,12 @@
         <v>0</v>
       </c>
       <c r="BO218" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP218" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ218" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48622,10 +49936,10 @@
       <c r="BD219" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE219" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF219" s="9" t="n">
+      <c r="BE219" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF219" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG219" s="9" t="n">
@@ -48653,6 +49967,12 @@
         <v>0</v>
       </c>
       <c r="BO219" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP219" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ219" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48841,10 +50161,10 @@
       <c r="BD220" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE220" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF220" s="9" t="n">
+      <c r="BE220" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF220" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG220" s="9" t="n">
@@ -48872,6 +50192,12 @@
         <v>0</v>
       </c>
       <c r="BO220" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP220" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ220" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49060,10 +50386,10 @@
       <c r="BD221" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE221" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF221" s="9" t="n">
+      <c r="BE221" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF221" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG221" s="9" t="n">
@@ -49091,6 +50417,12 @@
         <v>0</v>
       </c>
       <c r="BO221" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP221" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ221" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49279,10 +50611,10 @@
       <c r="BD222" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE222" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF222" s="9" t="n">
+      <c r="BE222" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF222" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG222" s="9" t="n">
@@ -49310,6 +50642,12 @@
         <v>0</v>
       </c>
       <c r="BO222" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP222" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ222" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49498,10 +50836,10 @@
       <c r="BD223" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE223" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF223" s="9" t="n">
+      <c r="BE223" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF223" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG223" s="9" t="n">
@@ -49529,6 +50867,12 @@
         <v>0</v>
       </c>
       <c r="BO223" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP223" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ223" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49717,10 +51061,10 @@
       <c r="BD224" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE224" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF224" s="9" t="n">
+      <c r="BE224" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF224" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG224" s="9" t="n">
@@ -49748,6 +51092,12 @@
         <v>0</v>
       </c>
       <c r="BO224" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP224" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ224" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49936,10 +51286,10 @@
       <c r="BD225" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE225" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF225" s="9" t="n">
+      <c r="BE225" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF225" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG225" s="9" t="n">
@@ -49967,6 +51317,12 @@
         <v>0</v>
       </c>
       <c r="BO225" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP225" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ225" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50155,10 +51511,10 @@
       <c r="BD226" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE226" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF226" s="9" t="n">
+      <c r="BE226" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF226" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG226" s="9" t="n">
@@ -50186,6 +51542,12 @@
         <v>0</v>
       </c>
       <c r="BO226" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP226" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ226" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50374,10 +51736,10 @@
       <c r="BD227" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE227" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF227" s="9" t="n">
+      <c r="BE227" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF227" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG227" s="9" t="n">
@@ -50405,6 +51767,12 @@
         <v>0</v>
       </c>
       <c r="BO227" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP227" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ227" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50593,10 +51961,10 @@
       <c r="BD228" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE228" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF228" s="9" t="n">
+      <c r="BE228" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF228" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG228" s="9" t="n">
@@ -50624,6 +51992,12 @@
         <v>0</v>
       </c>
       <c r="BO228" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP228" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ228" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50812,10 +52186,10 @@
       <c r="BD229" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE229" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF229" s="9" t="n">
+      <c r="BE229" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF229" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG229" s="9" t="n">
@@ -50843,6 +52217,12 @@
         <v>0</v>
       </c>
       <c r="BO229" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP229" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ229" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51031,10 +52411,10 @@
       <c r="BD230" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE230" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF230" s="9" t="n">
+      <c r="BE230" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF230" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG230" s="9" t="n">
@@ -51062,6 +52442,12 @@
         <v>0</v>
       </c>
       <c r="BO230" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP230" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ230" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51250,10 +52636,10 @@
       <c r="BD231" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE231" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF231" s="9" t="n">
+      <c r="BE231" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF231" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG231" s="9" t="n">
@@ -51281,6 +52667,12 @@
         <v>0</v>
       </c>
       <c r="BO231" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP231" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ231" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51469,10 +52861,10 @@
       <c r="BD232" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE232" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF232" s="9" t="n">
+      <c r="BE232" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF232" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG232" s="9" t="n">
@@ -51500,6 +52892,12 @@
         <v>0</v>
       </c>
       <c r="BO232" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP232" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ232" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51688,10 +53086,10 @@
       <c r="BD233" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE233" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF233" s="9" t="n">
+      <c r="BE233" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF233" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG233" s="9" t="n">
@@ -51719,6 +53117,12 @@
         <v>0</v>
       </c>
       <c r="BO233" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP233" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ233" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51907,10 +53311,10 @@
       <c r="BD234" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE234" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF234" s="9" t="n">
+      <c r="BE234" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF234" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG234" s="9" t="n">
@@ -51938,6 +53342,12 @@
         <v>0</v>
       </c>
       <c r="BO234" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP234" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ234" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52126,10 +53536,10 @@
       <c r="BD235" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE235" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF235" s="9" t="n">
+      <c r="BE235" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF235" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG235" s="9" t="n">
@@ -52157,6 +53567,12 @@
         <v>0</v>
       </c>
       <c r="BO235" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP235" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ235" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52345,10 +53761,10 @@
       <c r="BD236" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE236" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF236" s="9" t="n">
+      <c r="BE236" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF236" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG236" s="9" t="n">
@@ -52376,6 +53792,12 @@
         <v>0</v>
       </c>
       <c r="BO236" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP236" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ236" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52564,10 +53986,10 @@
       <c r="BD237" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE237" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF237" s="9" t="n">
+      <c r="BE237" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF237" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG237" s="9" t="n">
@@ -52595,6 +54017,12 @@
         <v>0</v>
       </c>
       <c r="BO237" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP237" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ237" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52783,10 +54211,10 @@
       <c r="BD238" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE238" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF238" s="9" t="n">
+      <c r="BE238" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF238" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG238" s="9" t="n">
@@ -52814,6 +54242,12 @@
         <v>0</v>
       </c>
       <c r="BO238" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP238" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ238" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53002,10 +54436,10 @@
       <c r="BD239" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE239" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF239" s="9" t="n">
+      <c r="BE239" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF239" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG239" s="9" t="n">
@@ -53033,6 +54467,12 @@
         <v>0</v>
       </c>
       <c r="BO239" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP239" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ239" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53221,10 +54661,10 @@
       <c r="BD240" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE240" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF240" s="9" t="n">
+      <c r="BE240" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF240" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG240" s="9" t="n">
@@ -53252,6 +54692,12 @@
         <v>0</v>
       </c>
       <c r="BO240" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP240" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ240" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53440,10 +54886,10 @@
       <c r="BD241" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE241" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF241" s="9" t="n">
+      <c r="BE241" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF241" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG241" s="9" t="n">
@@ -53471,6 +54917,12 @@
         <v>0</v>
       </c>
       <c r="BO241" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP241" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ241" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53659,10 +55111,10 @@
       <c r="BD242" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE242" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF242" s="9" t="n">
+      <c r="BE242" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF242" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG242" s="9" t="n">
@@ -53690,6 +55142,12 @@
         <v>0</v>
       </c>
       <c r="BO242" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP242" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ242" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53878,10 +55336,10 @@
       <c r="BD243" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE243" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF243" s="9" t="n">
+      <c r="BE243" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF243" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG243" s="9" t="n">
@@ -53909,6 +55367,12 @@
         <v>0</v>
       </c>
       <c r="BO243" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP243" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ243" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54097,10 +55561,10 @@
       <c r="BD244" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE244" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF244" s="9" t="n">
+      <c r="BE244" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF244" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG244" s="9" t="n">
@@ -54128,6 +55592,12 @@
         <v>0</v>
       </c>
       <c r="BO244" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP244" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ244" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54316,10 +55786,10 @@
       <c r="BD245" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE245" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF245" s="9" t="n">
+      <c r="BE245" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF245" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG245" s="9" t="n">
@@ -54347,6 +55817,12 @@
         <v>0</v>
       </c>
       <c r="BO245" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP245" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ245" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54535,10 +56011,10 @@
       <c r="BD246" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE246" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF246" s="9" t="n">
+      <c r="BE246" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF246" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG246" s="9" t="n">
@@ -54566,6 +56042,12 @@
         <v>0</v>
       </c>
       <c r="BO246" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP246" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ246" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54754,10 +56236,10 @@
       <c r="BD247" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE247" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF247" s="9" t="n">
+      <c r="BE247" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF247" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG247" s="9" t="n">
@@ -54785,6 +56267,12 @@
         <v>0</v>
       </c>
       <c r="BO247" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP247" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ247" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -54973,10 +56461,10 @@
       <c r="BD248" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE248" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF248" s="9" t="n">
+      <c r="BE248" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF248" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG248" s="9" t="n">
@@ -55004,6 +56492,12 @@
         <v>0</v>
       </c>
       <c r="BO248" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP248" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ248" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55192,10 +56686,10 @@
       <c r="BD249" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE249" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF249" s="9" t="n">
+      <c r="BE249" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF249" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG249" s="9" t="n">
@@ -55223,6 +56717,12 @@
         <v>0</v>
       </c>
       <c r="BO249" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP249" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ249" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55411,10 +56911,10 @@
       <c r="BD250" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE250" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF250" s="9" t="n">
+      <c r="BE250" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF250" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG250" s="9" t="n">
@@ -55442,6 +56942,12 @@
         <v>0</v>
       </c>
       <c r="BO250" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP250" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ250" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55630,10 +57136,10 @@
       <c r="BD251" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE251" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF251" s="9" t="n">
+      <c r="BE251" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF251" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG251" s="9" t="n">
@@ -55661,6 +57167,12 @@
         <v>0</v>
       </c>
       <c r="BO251" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP251" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ251" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55849,10 +57361,10 @@
       <c r="BD252" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE252" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF252" s="9" t="n">
+      <c r="BE252" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF252" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG252" s="9" t="n">
@@ -55880,6 +57392,12 @@
         <v>0</v>
       </c>
       <c r="BO252" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP252" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ252" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56068,10 +57586,10 @@
       <c r="BD253" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE253" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF253" s="9" t="n">
+      <c r="BE253" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF253" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG253" s="9" t="n">
@@ -56099,6 +57617,12 @@
         <v>0</v>
       </c>
       <c r="BO253" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP253" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ253" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56287,10 +57811,10 @@
       <c r="BD254" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE254" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF254" s="9" t="n">
+      <c r="BE254" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF254" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG254" s="9" t="n">
@@ -56318,6 +57842,12 @@
         <v>0</v>
       </c>
       <c r="BO254" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP254" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ254" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56506,10 +58036,10 @@
       <c r="BD255" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE255" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF255" s="9" t="n">
+      <c r="BE255" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF255" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG255" s="9" t="n">
@@ -56537,6 +58067,12 @@
         <v>0</v>
       </c>
       <c r="BO255" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP255" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ255" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56725,10 +58261,10 @@
       <c r="BD256" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE256" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF256" s="9" t="n">
+      <c r="BE256" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF256" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG256" s="9" t="n">
@@ -56756,6 +58292,12 @@
         <v>0</v>
       </c>
       <c r="BO256" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP256" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ256" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56944,10 +58486,10 @@
       <c r="BD257" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE257" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF257" s="9" t="n">
+      <c r="BE257" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF257" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG257" s="9" t="n">
@@ -56975,6 +58517,12 @@
         <v>0</v>
       </c>
       <c r="BO257" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP257" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ257" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -57163,10 +58711,10 @@
       <c r="BD258" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE258" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF258" s="9" t="n">
+      <c r="BE258" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF258" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG258" s="9" t="n">
@@ -57194,6 +58742,12 @@
         <v>0</v>
       </c>
       <c r="BO258" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP258" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ258" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -57382,10 +58936,10 @@
       <c r="BD259" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE259" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF259" s="9" t="n">
+      <c r="BE259" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF259" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG259" s="9" t="n">
@@ -57413,6 +58967,12 @@
         <v>0</v>
       </c>
       <c r="BO259" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP259" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ259" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -57601,10 +59161,10 @@
       <c r="BD260" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE260" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF260" s="9" t="n">
+      <c r="BE260" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF260" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG260" s="9" t="n">
@@ -57632,6 +59192,12 @@
         <v>0</v>
       </c>
       <c r="BO260" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP260" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ260" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -57820,10 +59386,10 @@
       <c r="BD261" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE261" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF261" s="9" t="n">
+      <c r="BE261" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF261" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG261" s="9" t="n">
@@ -57851,6 +59417,12 @@
         <v>0</v>
       </c>
       <c r="BO261" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP261" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ261" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58039,10 +59611,10 @@
       <c r="BD262" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE262" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF262" s="9" t="n">
+      <c r="BE262" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF262" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG262" s="9" t="n">
@@ -58070,6 +59642,12 @@
         <v>0</v>
       </c>
       <c r="BO262" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP262" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ262" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58258,10 +59836,10 @@
       <c r="BD263" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE263" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF263" s="9" t="n">
+      <c r="BE263" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF263" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG263" s="9" t="n">
@@ -58289,6 +59867,12 @@
         <v>0</v>
       </c>
       <c r="BO263" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP263" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ263" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58477,10 +60061,10 @@
       <c r="BD264" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE264" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF264" s="9" t="n">
+      <c r="BE264" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF264" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG264" s="9" t="n">
@@ -58508,6 +60092,12 @@
         <v>0</v>
       </c>
       <c r="BO264" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP264" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ264" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58696,10 +60286,10 @@
       <c r="BD265" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE265" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF265" s="9" t="n">
+      <c r="BE265" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF265" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG265" s="9" t="n">
@@ -58727,6 +60317,12 @@
         <v>0</v>
       </c>
       <c r="BO265" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP265" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ265" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -58915,10 +60511,10 @@
       <c r="BD266" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE266" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF266" s="9" t="n">
+      <c r="BE266" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF266" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG266" s="9" t="n">
@@ -58946,6 +60542,12 @@
         <v>0</v>
       </c>
       <c r="BO266" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP266" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ266" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -59134,10 +60736,10 @@
       <c r="BD267" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE267" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF267" s="9" t="n">
+      <c r="BE267" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF267" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG267" s="9" t="n">
@@ -59165,6 +60767,12 @@
         <v>0</v>
       </c>
       <c r="BO267" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP267" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ267" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -59353,10 +60961,10 @@
       <c r="BD268" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE268" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF268" s="9" t="n">
+      <c r="BE268" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF268" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG268" s="9" t="n">
@@ -59384,6 +60992,12 @@
         <v>0</v>
       </c>
       <c r="BO268" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP268" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ268" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -59572,10 +61186,10 @@
       <c r="BD269" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE269" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF269" s="9" t="n">
+      <c r="BE269" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF269" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG269" s="9" t="n">
@@ -59603,6 +61217,12 @@
         <v>0</v>
       </c>
       <c r="BO269" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP269" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ269" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -59791,10 +61411,10 @@
       <c r="BD270" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE270" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF270" s="9" t="n">
+      <c r="BE270" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF270" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG270" s="9" t="n">
@@ -59822,6 +61442,12 @@
         <v>0</v>
       </c>
       <c r="BO270" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP270" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ270" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -60010,10 +61636,10 @@
       <c r="BD271" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE271" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF271" s="9" t="n">
+      <c r="BE271" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF271" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG271" s="9" t="n">
@@ -60041,6 +61667,12 @@
         <v>0</v>
       </c>
       <c r="BO271" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP271" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ271" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -60229,10 +61861,10 @@
       <c r="BD272" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE272" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF272" s="9" t="n">
+      <c r="BE272" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF272" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG272" s="9" t="n">
@@ -60260,6 +61892,12 @@
         <v>0</v>
       </c>
       <c r="BO272" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP272" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ272" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -60448,10 +62086,10 @@
       <c r="BD273" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE273" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF273" s="9" t="n">
+      <c r="BE273" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF273" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG273" s="9" t="n">
@@ -60479,6 +62117,12 @@
         <v>0</v>
       </c>
       <c r="BO273" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP273" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ273" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -60667,10 +62311,10 @@
       <c r="BD274" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE274" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF274" s="9" t="n">
+      <c r="BE274" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF274" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG274" s="9" t="n">
@@ -60698,6 +62342,12 @@
         <v>0</v>
       </c>
       <c r="BO274" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP274" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ274" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -60886,10 +62536,10 @@
       <c r="BD275" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE275" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF275" s="9" t="n">
+      <c r="BE275" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF275" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG275" s="9" t="n">
@@ -60917,6 +62567,12 @@
         <v>0</v>
       </c>
       <c r="BO275" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP275" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ275" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61105,10 +62761,10 @@
       <c r="BD276" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE276" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF276" s="9" t="n">
+      <c r="BE276" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF276" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG276" s="9" t="n">
@@ -61136,6 +62792,12 @@
         <v>0</v>
       </c>
       <c r="BO276" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP276" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ276" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61324,10 +62986,10 @@
       <c r="BD277" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE277" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF277" s="9" t="n">
+      <c r="BE277" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF277" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG277" s="9" t="n">
@@ -61355,6 +63017,12 @@
         <v>0</v>
       </c>
       <c r="BO277" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP277" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ277" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61543,10 +63211,10 @@
       <c r="BD278" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE278" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF278" s="9" t="n">
+      <c r="BE278" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF278" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG278" s="9" t="n">
@@ -61574,6 +63242,12 @@
         <v>0</v>
       </c>
       <c r="BO278" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP278" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ278" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61762,10 +63436,10 @@
       <c r="BD279" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE279" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF279" s="9" t="n">
+      <c r="BE279" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF279" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG279" s="9" t="n">
@@ -61793,6 +63467,12 @@
         <v>0</v>
       </c>
       <c r="BO279" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP279" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ279" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61981,10 +63661,10 @@
       <c r="BD280" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE280" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF280" s="9" t="n">
+      <c r="BE280" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF280" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG280" s="9" t="n">
@@ -62012,6 +63692,12 @@
         <v>0</v>
       </c>
       <c r="BO280" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP280" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ280" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62200,10 +63886,10 @@
       <c r="BD281" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE281" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF281" s="9" t="n">
+      <c r="BE281" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF281" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG281" s="9" t="n">
@@ -62231,6 +63917,12 @@
         <v>0</v>
       </c>
       <c r="BO281" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP281" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ281" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62419,10 +64111,10 @@
       <c r="BD282" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE282" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF282" s="9" t="n">
+      <c r="BE282" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF282" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG282" s="9" t="n">
@@ -62450,6 +64142,12 @@
         <v>0</v>
       </c>
       <c r="BO282" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP282" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ282" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62638,10 +64336,10 @@
       <c r="BD283" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE283" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF283" s="9" t="n">
+      <c r="BE283" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF283" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG283" s="9" t="n">
@@ -62669,6 +64367,12 @@
         <v>0</v>
       </c>
       <c r="BO283" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP283" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ283" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62857,10 +64561,10 @@
       <c r="BD284" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE284" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF284" s="9" t="n">
+      <c r="BE284" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF284" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG284" s="9" t="n">
@@ -62888,6 +64592,12 @@
         <v>0</v>
       </c>
       <c r="BO284" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP284" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ284" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63076,10 +64786,10 @@
       <c r="BD285" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE285" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF285" s="9" t="n">
+      <c r="BE285" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF285" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG285" s="9" t="n">
@@ -63107,6 +64817,12 @@
         <v>0</v>
       </c>
       <c r="BO285" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP285" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ285" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63295,10 +65011,10 @@
       <c r="BD286" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE286" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF286" s="9" t="n">
+      <c r="BE286" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF286" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG286" s="9" t="n">
@@ -63326,6 +65042,12 @@
         <v>0</v>
       </c>
       <c r="BO286" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP286" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ286" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63514,10 +65236,10 @@
       <c r="BD287" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE287" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF287" s="9" t="n">
+      <c r="BE287" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF287" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG287" s="9" t="n">
@@ -63545,6 +65267,12 @@
         <v>0</v>
       </c>
       <c r="BO287" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP287" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ287" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63733,10 +65461,10 @@
       <c r="BD288" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE288" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF288" s="9" t="n">
+      <c r="BE288" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF288" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG288" s="9" t="n">
@@ -63764,6 +65492,12 @@
         <v>0</v>
       </c>
       <c r="BO288" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP288" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ288" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63952,10 +65686,10 @@
       <c r="BD289" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE289" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF289" s="9" t="n">
+      <c r="BE289" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF289" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG289" s="9" t="n">
@@ -63983,6 +65717,12 @@
         <v>0</v>
       </c>
       <c r="BO289" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP289" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ289" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -64171,10 +65911,10 @@
       <c r="BD290" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE290" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF290" s="9" t="n">
+      <c r="BE290" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF290" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG290" s="9" t="n">
@@ -64202,6 +65942,12 @@
         <v>0</v>
       </c>
       <c r="BO290" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP290" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ290" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -64390,10 +66136,10 @@
       <c r="BD291" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE291" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF291" s="9" t="n">
+      <c r="BE291" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF291" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG291" s="9" t="n">
@@ -64421,6 +66167,12 @@
         <v>0</v>
       </c>
       <c r="BO291" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP291" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ291" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -64609,10 +66361,10 @@
       <c r="BD292" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE292" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF292" s="9" t="n">
+      <c r="BE292" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF292" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG292" s="9" t="n">
@@ -64640,6 +66392,12 @@
         <v>0</v>
       </c>
       <c r="BO292" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP292" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ292" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -64828,10 +66586,10 @@
       <c r="BD293" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE293" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF293" s="9" t="n">
+      <c r="BE293" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF293" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG293" s="9" t="n">
@@ -64859,6 +66617,12 @@
         <v>0</v>
       </c>
       <c r="BO293" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP293" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ293" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -65047,10 +66811,10 @@
       <c r="BD294" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE294" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF294" s="9" t="n">
+      <c r="BE294" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF294" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG294" s="9" t="n">
@@ -65078,6 +66842,12 @@
         <v>0</v>
       </c>
       <c r="BO294" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP294" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ294" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -65266,10 +67036,10 @@
       <c r="BD295" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE295" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF295" s="9" t="n">
+      <c r="BE295" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF295" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG295" s="9" t="n">
@@ -65297,6 +67067,12 @@
         <v>0</v>
       </c>
       <c r="BO295" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP295" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ295" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -65485,10 +67261,10 @@
       <c r="BD296" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE296" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF296" s="9" t="n">
+      <c r="BE296" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF296" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG296" s="9" t="n">
@@ -65516,6 +67292,12 @@
         <v>0</v>
       </c>
       <c r="BO296" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP296" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ296" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -65704,10 +67486,10 @@
       <c r="BD297" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE297" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF297" s="9" t="n">
+      <c r="BE297" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF297" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG297" s="9" t="n">
@@ -65735,6 +67517,12 @@
         <v>0</v>
       </c>
       <c r="BO297" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP297" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ297" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -65923,10 +67711,10 @@
       <c r="BD298" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE298" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF298" s="9" t="n">
+      <c r="BE298" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF298" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG298" s="9" t="n">
@@ -65954,6 +67742,12 @@
         <v>0</v>
       </c>
       <c r="BO298" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP298" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ298" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -66142,10 +67936,10 @@
       <c r="BD299" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE299" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF299" s="9" t="n">
+      <c r="BE299" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF299" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG299" s="9" t="n">
@@ -66173,6 +67967,12 @@
         <v>0</v>
       </c>
       <c r="BO299" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP299" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ299" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -66361,10 +68161,10 @@
       <c r="BD300" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE300" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF300" s="9" t="n">
+      <c r="BE300" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF300" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG300" s="9" t="n">
@@ -66392,6 +68192,12 @@
         <v>0</v>
       </c>
       <c r="BO300" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP300" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ300" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -66580,10 +68386,10 @@
       <c r="BD301" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE301" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF301" s="9" t="n">
+      <c r="BE301" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF301" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG301" s="9" t="n">
@@ -66611,6 +68417,12 @@
         <v>0</v>
       </c>
       <c r="BO301" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP301" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ301" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -66799,10 +68611,10 @@
       <c r="BD302" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE302" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF302" s="9" t="n">
+      <c r="BE302" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF302" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG302" s="9" t="n">
@@ -66830,6 +68642,12 @@
         <v>0</v>
       </c>
       <c r="BO302" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP302" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ302" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -67018,10 +68836,10 @@
       <c r="BD303" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE303" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF303" s="9" t="n">
+      <c r="BE303" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF303" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG303" s="9" t="n">
@@ -67049,6 +68867,12 @@
         <v>0</v>
       </c>
       <c r="BO303" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP303" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ303" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -67237,10 +69061,10 @@
       <c r="BD304" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE304" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF304" s="9" t="n">
+      <c r="BE304" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF304" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG304" s="9" t="n">
@@ -67268,6 +69092,12 @@
         <v>0</v>
       </c>
       <c r="BO304" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP304" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ304" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -67456,10 +69286,10 @@
       <c r="BD305" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE305" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF305" s="9" t="n">
+      <c r="BE305" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF305" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG305" s="9" t="n">
@@ -67487,6 +69317,12 @@
         <v>0</v>
       </c>
       <c r="BO305" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP305" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ305" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -67675,10 +69511,10 @@
       <c r="BD306" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE306" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF306" s="9" t="n">
+      <c r="BE306" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF306" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG306" s="9" t="n">
@@ -67706,6 +69542,12 @@
         <v>0</v>
       </c>
       <c r="BO306" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP306" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ306" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -67894,10 +69736,10 @@
       <c r="BD307" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE307" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF307" s="9" t="n">
+      <c r="BE307" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF307" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG307" s="9" t="n">
@@ -67925,6 +69767,12 @@
         <v>0</v>
       </c>
       <c r="BO307" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP307" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ307" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -68113,10 +69961,10 @@
       <c r="BD308" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE308" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF308" s="9" t="n">
+      <c r="BE308" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF308" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG308" s="9" t="n">
@@ -68144,6 +69992,12 @@
         <v>0</v>
       </c>
       <c r="BO308" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP308" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ308" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -68332,10 +70186,10 @@
       <c r="BD309" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE309" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF309" s="9" t="n">
+      <c r="BE309" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF309" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG309" s="9" t="n">
@@ -68363,6 +70217,12 @@
         <v>0</v>
       </c>
       <c r="BO309" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP309" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ309" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -68551,10 +70411,10 @@
       <c r="BD310" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE310" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF310" s="9" t="n">
+      <c r="BE310" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF310" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG310" s="9" t="n">
@@ -68582,6 +70442,12 @@
         <v>0</v>
       </c>
       <c r="BO310" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP310" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ310" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -68770,10 +70636,10 @@
       <c r="BD311" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE311" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF311" s="9" t="n">
+      <c r="BE311" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF311" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG311" s="9" t="n">
@@ -68801,6 +70667,12 @@
         <v>0</v>
       </c>
       <c r="BO311" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP311" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ311" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -68989,10 +70861,10 @@
       <c r="BD312" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE312" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF312" s="9" t="n">
+      <c r="BE312" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF312" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG312" s="9" t="n">
@@ -69020,6 +70892,12 @@
         <v>0</v>
       </c>
       <c r="BO312" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP312" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ312" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -69208,10 +71086,10 @@
       <c r="BD313" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE313" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF313" s="9" t="n">
+      <c r="BE313" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF313" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG313" s="9" t="n">
@@ -69239,6 +71117,12 @@
         <v>0</v>
       </c>
       <c r="BO313" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP313" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ313" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -69427,10 +71311,10 @@
       <c r="BD314" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE314" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF314" s="9" t="n">
+      <c r="BE314" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF314" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG314" s="9" t="n">
@@ -69458,6 +71342,12 @@
         <v>0</v>
       </c>
       <c r="BO314" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP314" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ314" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -69646,10 +71536,10 @@
       <c r="BD315" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE315" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF315" s="9" t="n">
+      <c r="BE315" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF315" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG315" s="9" t="n">
@@ -69677,6 +71567,12 @@
         <v>0</v>
       </c>
       <c r="BO315" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP315" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ315" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -69865,10 +71761,10 @@
       <c r="BD316" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="BE316" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF316" s="9" t="n">
+      <c r="BE316" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF316" s="11" t="n">
         <v>0</v>
       </c>
       <c r="BG316" s="9" t="n">
@@ -69896,11 +71792,17 @@
         <v>0</v>
       </c>
       <c r="BO316" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP316" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ316" s="9" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BO1"/>
+  <autoFilter ref="A1:BQ1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/attendance_reports/Y5_B2526_General_&_Special_Internal_2_B2_attendance.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Internal_2_B2_attendance.xlsx
@@ -9,10 +9,12 @@
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Attendance" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transfers" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$BQ$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Transfers'!$A$1:$G$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -933,10 +935,14 @@
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>200913</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr"/>
+          <t>212102</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>الاء احمد حسين عثمان</t>
+        </is>
+      </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Year 5</t>
@@ -944,12 +950,12 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>B2A1</t>
         </is>
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>200913@med.asu.edu.eg</t>
+          <t>212102@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
@@ -1154,12 +1160,12 @@
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>212102</t>
+          <t>212104</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>الاء احمد حسين عثمان</t>
+          <t>Tourad El Hadi</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
@@ -1174,7 +1180,7 @@
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>212102@med.asu.edu.eg</t>
+          <t>212104@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F3" s="6" t="inlineStr">
@@ -1379,12 +1385,12 @@
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>212104</t>
+          <t>212117</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>Tourad El Hadi</t>
+          <t>رفقه عبد الخالق محمد محمد احمد</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -1399,7 +1405,7 @@
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>212104@med.asu.edu.eg</t>
+          <t>212117@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F4" s="6" t="inlineStr">
@@ -1604,12 +1610,12 @@
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>212117</t>
+          <t>212122</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>رفقه عبد الخالق محمد محمد احمد</t>
+          <t>احمد عثمان محمد عبد الله</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
@@ -1624,7 +1630,7 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>212117@med.asu.edu.eg</t>
+          <t>212122@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F5" s="6" t="inlineStr">
@@ -1829,12 +1835,12 @@
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>212122</t>
+          <t>212139</t>
         </is>
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>احمد عثمان محمد عبد الله</t>
+          <t>فاطمه صلاح احمد عثمان</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
@@ -1849,7 +1855,7 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>212122@med.asu.edu.eg</t>
+          <t>212139@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F6" s="6" t="inlineStr">
@@ -2054,12 +2060,12 @@
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>212139</t>
+          <t>212146</t>
         </is>
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>فاطمه صلاح احمد عثمان</t>
+          <t>ايهاب اسماعيل يوسف ادعيس</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -2074,7 +2080,7 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>212139@med.asu.edu.eg</t>
+          <t>212146@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F7" s="6" t="inlineStr">
@@ -2279,12 +2285,12 @@
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>212146</t>
+          <t>212147</t>
         </is>
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>ايهاب اسماعيل يوسف ادعيس</t>
+          <t>رامى حسين داود دبوبش</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -2299,7 +2305,7 @@
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>212146@med.asu.edu.eg</t>
+          <t>212147@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F8" s="6" t="inlineStr">
@@ -2504,12 +2510,12 @@
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>212147</t>
+          <t>212151</t>
         </is>
       </c>
       <c r="B9" s="5" t="inlineStr">
         <is>
-          <t>رامى حسين داود دبوبش</t>
+          <t>ماهر صالح جابر عثمان</t>
         </is>
       </c>
       <c r="C9" s="5" t="inlineStr">
@@ -2524,7 +2530,7 @@
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>212147@med.asu.edu.eg</t>
+          <t>212151@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F9" s="6" t="inlineStr">
@@ -2729,12 +2735,12 @@
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>212151</t>
+          <t>212162</t>
         </is>
       </c>
       <c r="B10" s="5" t="inlineStr">
         <is>
-          <t>ماهر صالح جابر عثمان</t>
+          <t>صلاح الدين بابكر الامين السنى</t>
         </is>
       </c>
       <c r="C10" s="5" t="inlineStr">
@@ -2749,7 +2755,7 @@
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>212151@med.asu.edu.eg</t>
+          <t>212162@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F10" s="6" t="inlineStr">
@@ -2954,12 +2960,12 @@
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>212162</t>
+          <t>212185</t>
         </is>
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>صلاح الدين بابكر الامين السنى</t>
+          <t>عبد الرحمن عمر على ادريس</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
@@ -2974,7 +2980,7 @@
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>212162@med.asu.edu.eg</t>
+          <t>212185@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F11" s="6" t="inlineStr">
@@ -3179,12 +3185,12 @@
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>212185</t>
+          <t>212202</t>
         </is>
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>عبد الرحمن عمر على ادريس</t>
+          <t>شجن خالد محمود احمد</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
@@ -3199,7 +3205,7 @@
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>212185@med.asu.edu.eg</t>
+          <t>212202@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F12" s="6" t="inlineStr">
@@ -3404,12 +3410,12 @@
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>212202</t>
+          <t>212204</t>
         </is>
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
-          <t>شجن خالد محمود احمد</t>
+          <t>رزان يعقوب محمد فقير نصر الله</t>
         </is>
       </c>
       <c r="C13" s="5" t="inlineStr">
@@ -3424,7 +3430,7 @@
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>212202@med.asu.edu.eg</t>
+          <t>212204@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F13" s="6" t="inlineStr">
@@ -3629,12 +3635,12 @@
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>212204</t>
+          <t>212208</t>
         </is>
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>رزان يعقوب محمد فقير نصر الله</t>
+          <t>ساره منوره عثمان عباس</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
@@ -3649,7 +3655,7 @@
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>212204@med.asu.edu.eg</t>
+          <t>212208@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F14" s="6" t="inlineStr">
@@ -3854,12 +3860,12 @@
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>212208</t>
+          <t>212249</t>
         </is>
       </c>
       <c r="B15" s="5" t="inlineStr">
         <is>
-          <t>ساره منوره عثمان عباس</t>
+          <t>كنانه عبد العظيم عقله</t>
         </is>
       </c>
       <c r="C15" s="5" t="inlineStr">
@@ -3874,7 +3880,7 @@
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>212208@med.asu.edu.eg</t>
+          <t>212249@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F15" s="6" t="inlineStr">
@@ -4079,12 +4085,12 @@
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>212249</t>
+          <t>212251</t>
         </is>
       </c>
       <c r="B16" s="5" t="inlineStr">
         <is>
-          <t>كنانه عبد العظيم عقله</t>
+          <t>احمد عبد المنعم احمد طه</t>
         </is>
       </c>
       <c r="C16" s="5" t="inlineStr">
@@ -4099,7 +4105,7 @@
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>212249@med.asu.edu.eg</t>
+          <t>212251@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F16" s="6" t="inlineStr">
@@ -4304,12 +4310,12 @@
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>212251</t>
+          <t>212253</t>
         </is>
       </c>
       <c r="B17" s="5" t="inlineStr">
         <is>
-          <t>احمد عبد المنعم احمد طه</t>
+          <t>لجين عبد الله إبراهيم عبد الله</t>
         </is>
       </c>
       <c r="C17" s="5" t="inlineStr">
@@ -4324,7 +4330,7 @@
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>212251@med.asu.edu.eg</t>
+          <t>212253@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F17" s="6" t="inlineStr">
@@ -4529,12 +4535,12 @@
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>212253</t>
+          <t>212256</t>
         </is>
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>لجين عبد الله إبراهيم عبد الله</t>
+          <t>ماريا محمد الكمشه</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
@@ -4549,7 +4555,7 @@
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>212253@med.asu.edu.eg</t>
+          <t>212256@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F18" s="6" t="inlineStr">
@@ -4754,12 +4760,12 @@
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>212256</t>
+          <t>212263</t>
         </is>
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>ماريا محمد الكمشه</t>
+          <t>Mohamed Babiker Musa</t>
         </is>
       </c>
       <c r="C19" s="5" t="inlineStr">
@@ -4774,7 +4780,7 @@
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>212256@med.asu.edu.eg</t>
+          <t>212263@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F19" s="6" t="inlineStr">
@@ -4979,12 +4985,12 @@
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>212263</t>
+          <t>212280</t>
         </is>
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>Mohamed Babiker Musa</t>
+          <t>هبه مهدى علم الهدى احمد</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
@@ -4999,7 +5005,7 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>212263@med.asu.edu.eg</t>
+          <t>212280@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F20" s="6" t="inlineStr">
@@ -5204,12 +5210,12 @@
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>212280</t>
+          <t>212286</t>
         </is>
       </c>
       <c r="B21" s="5" t="inlineStr">
         <is>
-          <t>هبه مهدى علم الهدى احمد</t>
+          <t>لينا السر العوض أبو شمه</t>
         </is>
       </c>
       <c r="C21" s="5" t="inlineStr">
@@ -5224,7 +5230,7 @@
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>212280@med.asu.edu.eg</t>
+          <t>212286@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F21" s="6" t="inlineStr">
@@ -5429,12 +5435,12 @@
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>212286</t>
+          <t>212287</t>
         </is>
       </c>
       <c r="B22" s="5" t="inlineStr">
         <is>
-          <t>لينا السر العوض أبو شمه</t>
+          <t>لميس محمد عبد المنعم شعراوى</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
@@ -5449,7 +5455,7 @@
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>212286@med.asu.edu.eg</t>
+          <t>212287@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F22" s="6" t="inlineStr">
@@ -5654,12 +5660,12 @@
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>212287</t>
+          <t>212288</t>
         </is>
       </c>
       <c r="B23" s="5" t="inlineStr">
         <is>
-          <t>لميس محمد عبد المنعم شعراوى</t>
+          <t>عماد احمد صالح باسهل</t>
         </is>
       </c>
       <c r="C23" s="5" t="inlineStr">
@@ -5674,7 +5680,7 @@
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>212287@med.asu.edu.eg</t>
+          <t>212288@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F23" s="6" t="inlineStr">
@@ -5879,12 +5885,12 @@
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>212288</t>
+          <t>212296</t>
         </is>
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>عماد احمد صالح باسهل</t>
+          <t>محمد عثمان سليمان إبراهيم</t>
         </is>
       </c>
       <c r="C24" s="5" t="inlineStr">
@@ -5899,7 +5905,7 @@
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>212288@med.asu.edu.eg</t>
+          <t>212296@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F24" s="6" t="inlineStr">
@@ -6104,12 +6110,12 @@
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="5" t="inlineStr">
         <is>
-          <t>212296</t>
+          <t>212297</t>
         </is>
       </c>
       <c r="B25" s="5" t="inlineStr">
         <is>
-          <t>محمد عثمان سليمان إبراهيم</t>
+          <t>عبد الوهاب نوراى سليمان ابو موسى</t>
         </is>
       </c>
       <c r="C25" s="5" t="inlineStr">
@@ -6124,7 +6130,7 @@
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>212296@med.asu.edu.eg</t>
+          <t>212297@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F25" s="6" t="inlineStr">
@@ -6329,12 +6335,12 @@
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="5" t="inlineStr">
         <is>
-          <t>212297</t>
+          <t>212304</t>
         </is>
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>عبد الوهاب نوراى سليمان ابو موسى</t>
+          <t>احمد نبيل سيد احمد محمد</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
@@ -6349,7 +6355,7 @@
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>212297@med.asu.edu.eg</t>
+          <t>212304@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F26" s="6" t="inlineStr">
@@ -6554,12 +6560,12 @@
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="5" t="inlineStr">
         <is>
-          <t>212304</t>
+          <t>212313</t>
         </is>
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>احمد نبيل سيد احمد محمد</t>
+          <t>لينا ماهر محمود العربي</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
@@ -6569,12 +6575,12 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>B2A1</t>
+          <t>B2A2</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>212304@med.asu.edu.eg</t>
+          <t>212313@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F27" s="6" t="inlineStr">
@@ -6779,12 +6785,12 @@
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="5" t="inlineStr">
         <is>
-          <t>212313</t>
+          <t>212327</t>
         </is>
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>لينا ماهر محمود العربي</t>
+          <t>المعز بالله محمد عبد المنعم محمد</t>
         </is>
       </c>
       <c r="C28" s="5" t="inlineStr">
@@ -6799,7 +6805,7 @@
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>212313@med.asu.edu.eg</t>
+          <t>212327@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F28" s="6" t="inlineStr">
@@ -7004,12 +7010,12 @@
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="5" t="inlineStr">
         <is>
-          <t>212327</t>
+          <t>212329</t>
         </is>
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>المعز بالله محمد عبد المنعم محمد</t>
+          <t>نورا اسامه عثمان محمد</t>
         </is>
       </c>
       <c r="C29" s="5" t="inlineStr">
@@ -7024,7 +7030,7 @@
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>212327@med.asu.edu.eg</t>
+          <t>212329@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F29" s="6" t="inlineStr">
@@ -7229,12 +7235,12 @@
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="5" t="inlineStr">
         <is>
-          <t>212329</t>
+          <t>212334</t>
         </is>
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>نورا اسامه عثمان محمد</t>
+          <t>عدنان سليمان يحى حامد</t>
         </is>
       </c>
       <c r="C30" s="5" t="inlineStr">
@@ -7249,7 +7255,7 @@
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>212329@med.asu.edu.eg</t>
+          <t>212334@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F30" s="6" t="inlineStr">
@@ -7454,12 +7460,12 @@
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="5" t="inlineStr">
         <is>
-          <t>212334</t>
+          <t>212338</t>
         </is>
       </c>
       <c r="B31" s="5" t="inlineStr">
         <is>
-          <t>عدنان سليمان يحى حامد</t>
+          <t>رؤى محمد عيد عبد الرحيم</t>
         </is>
       </c>
       <c r="C31" s="5" t="inlineStr">
@@ -7474,7 +7480,7 @@
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>212334@med.asu.edu.eg</t>
+          <t>212338@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F31" s="6" t="inlineStr">
@@ -7679,12 +7685,12 @@
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="5" t="inlineStr">
         <is>
-          <t>212338</t>
+          <t>212340</t>
         </is>
       </c>
       <c r="B32" s="5" t="inlineStr">
         <is>
-          <t>رؤى محمد عيد عبد الرحيم</t>
+          <t>محمد مختار البشير فضل الله</t>
         </is>
       </c>
       <c r="C32" s="5" t="inlineStr">
@@ -7699,7 +7705,7 @@
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>212338@med.asu.edu.eg</t>
+          <t>212340@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F32" s="6" t="inlineStr">
@@ -7904,12 +7910,12 @@
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="5" t="inlineStr">
         <is>
-          <t>212340</t>
+          <t>212360</t>
         </is>
       </c>
       <c r="B33" s="5" t="inlineStr">
         <is>
-          <t>محمد مختار البشير فضل الله</t>
+          <t>احمد المصطفى محمد السمانى عبد الله</t>
         </is>
       </c>
       <c r="C33" s="5" t="inlineStr">
@@ -7924,7 +7930,7 @@
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>212340@med.asu.edu.eg</t>
+          <t>212360@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F33" s="6" t="inlineStr">
@@ -8129,12 +8135,12 @@
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="5" t="inlineStr">
         <is>
-          <t>212360</t>
+          <t>212361</t>
         </is>
       </c>
       <c r="B34" s="5" t="inlineStr">
         <is>
-          <t>احمد المصطفى محمد السمانى عبد الله</t>
+          <t>Fatima Mohamed Barakat</t>
         </is>
       </c>
       <c r="C34" s="5" t="inlineStr">
@@ -8149,7 +8155,7 @@
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>212360@med.asu.edu.eg</t>
+          <t>212361@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F34" s="6" t="inlineStr">
@@ -8354,12 +8360,12 @@
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="5" t="inlineStr">
         <is>
-          <t>212361</t>
+          <t>212363</t>
         </is>
       </c>
       <c r="B35" s="5" t="inlineStr">
         <is>
-          <t>Fatima Mohamed Barakat</t>
+          <t>صلاح الدين حسام خطيب</t>
         </is>
       </c>
       <c r="C35" s="5" t="inlineStr">
@@ -8374,7 +8380,7 @@
       </c>
       <c r="E35" s="5" t="inlineStr">
         <is>
-          <t>212361@med.asu.edu.eg</t>
+          <t>212363@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F35" s="6" t="inlineStr">
@@ -8579,12 +8585,12 @@
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="5" t="inlineStr">
         <is>
-          <t>212363</t>
+          <t>212365</t>
         </is>
       </c>
       <c r="B36" s="5" t="inlineStr">
         <is>
-          <t>صلاح الدين حسام خطيب</t>
+          <t>يسار عبد الحافظ عفنان التخاينه</t>
         </is>
       </c>
       <c r="C36" s="5" t="inlineStr">
@@ -8599,7 +8605,7 @@
       </c>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t>212363@med.asu.edu.eg</t>
+          <t>212365@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F36" s="6" t="inlineStr">
@@ -8804,12 +8810,12 @@
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="5" t="inlineStr">
         <is>
-          <t>212365</t>
+          <t>212389</t>
         </is>
       </c>
       <c r="B37" s="5" t="inlineStr">
         <is>
-          <t>يسار عبد الحافظ عفنان التخاينه</t>
+          <t>الحارث حمدنا الله الفكى محمد احمد</t>
         </is>
       </c>
       <c r="C37" s="5" t="inlineStr">
@@ -8824,7 +8830,7 @@
       </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>212365@med.asu.edu.eg</t>
+          <t>212389@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F37" s="6" t="inlineStr">
@@ -9029,12 +9035,12 @@
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="5" t="inlineStr">
         <is>
-          <t>212389</t>
+          <t>212399</t>
         </is>
       </c>
       <c r="B38" s="5" t="inlineStr">
         <is>
-          <t>الحارث حمدنا الله الفكى محمد احمد</t>
+          <t>احمد حيدر عبد الله الطيب</t>
         </is>
       </c>
       <c r="C38" s="5" t="inlineStr">
@@ -9049,7 +9055,7 @@
       </c>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>212389@med.asu.edu.eg</t>
+          <t>212399@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F38" s="6" t="inlineStr">
@@ -9254,12 +9260,12 @@
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="5" t="inlineStr">
         <is>
-          <t>212399</t>
+          <t>212436</t>
         </is>
       </c>
       <c r="B39" s="5" t="inlineStr">
         <is>
-          <t>احمد حيدر عبد الله الطيب</t>
+          <t>ديمه احمد على القاسم</t>
         </is>
       </c>
       <c r="C39" s="5" t="inlineStr">
@@ -9274,7 +9280,7 @@
       </c>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t>212399@med.asu.edu.eg</t>
+          <t>212436@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F39" s="6" t="inlineStr">
@@ -9479,12 +9485,12 @@
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="5" t="inlineStr">
         <is>
-          <t>212436</t>
+          <t>212452</t>
         </is>
       </c>
       <c r="B40" s="5" t="inlineStr">
         <is>
-          <t>ديمه احمد على القاسم</t>
+          <t>شيماء سعد الدين يوسف احمد</t>
         </is>
       </c>
       <c r="C40" s="5" t="inlineStr">
@@ -9499,7 +9505,7 @@
       </c>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t>212436@med.asu.edu.eg</t>
+          <t>212452@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F40" s="6" t="inlineStr">
@@ -9704,12 +9710,12 @@
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="5" t="inlineStr">
         <is>
-          <t>212452</t>
+          <t>212478</t>
         </is>
       </c>
       <c r="B41" s="5" t="inlineStr">
         <is>
-          <t>شيماء سعد الدين يوسف احمد</t>
+          <t>رفقه زاهر محمد عمر</t>
         </is>
       </c>
       <c r="C41" s="5" t="inlineStr">
@@ -9724,7 +9730,7 @@
       </c>
       <c r="E41" s="5" t="inlineStr">
         <is>
-          <t>212452@med.asu.edu.eg</t>
+          <t>212478@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F41" s="6" t="inlineStr">
@@ -9929,12 +9935,12 @@
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="5" t="inlineStr">
         <is>
-          <t>212478</t>
+          <t>212480</t>
         </is>
       </c>
       <c r="B42" s="5" t="inlineStr">
         <is>
-          <t>رفقه زاهر محمد عمر</t>
+          <t>لين احمد محمد سعيد</t>
         </is>
       </c>
       <c r="C42" s="5" t="inlineStr">
@@ -9949,7 +9955,7 @@
       </c>
       <c r="E42" s="5" t="inlineStr">
         <is>
-          <t>212478@med.asu.edu.eg</t>
+          <t>212480@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F42" s="6" t="inlineStr">
@@ -10154,12 +10160,12 @@
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="5" t="inlineStr">
         <is>
-          <t>212480</t>
+          <t>212502</t>
         </is>
       </c>
       <c r="B43" s="5" t="inlineStr">
         <is>
-          <t>لين احمد محمد سعيد</t>
+          <t>وعد الجزولى عمر موسى</t>
         </is>
       </c>
       <c r="C43" s="5" t="inlineStr">
@@ -10174,7 +10180,7 @@
       </c>
       <c r="E43" s="5" t="inlineStr">
         <is>
-          <t>212480@med.asu.edu.eg</t>
+          <t>212502@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F43" s="6" t="inlineStr">
@@ -10379,12 +10385,12 @@
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="5" t="inlineStr">
         <is>
-          <t>212502</t>
+          <t>212503</t>
         </is>
       </c>
       <c r="B44" s="5" t="inlineStr">
         <is>
-          <t>وعد الجزولى عمر موسى</t>
+          <t>ملاذ شمباتي محمد البشير</t>
         </is>
       </c>
       <c r="C44" s="5" t="inlineStr">
@@ -10399,7 +10405,7 @@
       </c>
       <c r="E44" s="5" t="inlineStr">
         <is>
-          <t>212502@med.asu.edu.eg</t>
+          <t>212503@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F44" s="6" t="inlineStr">
@@ -10604,12 +10610,12 @@
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="5" t="inlineStr">
         <is>
-          <t>212503</t>
+          <t>212504</t>
         </is>
       </c>
       <c r="B45" s="5" t="inlineStr">
         <is>
-          <t>ملاذ شمباتي محمد البشير</t>
+          <t>ملاذ معتصم مصطفى الصادق</t>
         </is>
       </c>
       <c r="C45" s="5" t="inlineStr">
@@ -10624,7 +10630,7 @@
       </c>
       <c r="E45" s="5" t="inlineStr">
         <is>
-          <t>212503@med.asu.edu.eg</t>
+          <t>212504@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F45" s="6" t="inlineStr">
@@ -10829,12 +10835,12 @@
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="5" t="inlineStr">
         <is>
-          <t>212504</t>
+          <t>212572</t>
         </is>
       </c>
       <c r="B46" s="5" t="inlineStr">
         <is>
-          <t>ملاذ معتصم مصطفى الصادق</t>
+          <t>فريده الشربينى</t>
         </is>
       </c>
       <c r="C46" s="5" t="inlineStr">
@@ -10849,7 +10855,7 @@
       </c>
       <c r="E46" s="5" t="inlineStr">
         <is>
-          <t>212504@med.asu.edu.eg</t>
+          <t>212572@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F46" s="6" t="inlineStr">
@@ -11054,12 +11060,12 @@
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="5" t="inlineStr">
         <is>
-          <t>212572</t>
+          <t>213005</t>
         </is>
       </c>
       <c r="B47" s="5" t="inlineStr">
         <is>
-          <t>فريده الشربينى</t>
+          <t>اسراء محمد ابراهيم خليل محمد</t>
         </is>
       </c>
       <c r="C47" s="5" t="inlineStr">
@@ -11074,7 +11080,7 @@
       </c>
       <c r="E47" s="5" t="inlineStr">
         <is>
-          <t>212572@med.asu.edu.eg</t>
+          <t>213005@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F47" s="6" t="inlineStr">
@@ -11279,12 +11285,12 @@
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="5" t="inlineStr">
         <is>
-          <t>213005</t>
+          <t>213006</t>
         </is>
       </c>
       <c r="B48" s="5" t="inlineStr">
         <is>
-          <t>اسراء محمد ابراهيم خليل محمد</t>
+          <t>رنا علاء ابراهيم جمعه</t>
         </is>
       </c>
       <c r="C48" s="5" t="inlineStr">
@@ -11299,7 +11305,7 @@
       </c>
       <c r="E48" s="5" t="inlineStr">
         <is>
-          <t>213005@med.asu.edu.eg</t>
+          <t>213006@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F48" s="6" t="inlineStr">
@@ -11504,12 +11510,12 @@
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="5" t="inlineStr">
         <is>
-          <t>213006</t>
+          <t>213007</t>
         </is>
       </c>
       <c r="B49" s="5" t="inlineStr">
         <is>
-          <t>رنا علاء ابراهيم جمعه</t>
+          <t>نورهان حمدى محمود محمد</t>
         </is>
       </c>
       <c r="C49" s="5" t="inlineStr">
@@ -11524,7 +11530,7 @@
       </c>
       <c r="E49" s="5" t="inlineStr">
         <is>
-          <t>213006@med.asu.edu.eg</t>
+          <t>213007@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F49" s="6" t="inlineStr">
@@ -11729,12 +11735,12 @@
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="5" t="inlineStr">
         <is>
-          <t>213007</t>
+          <t>200018</t>
         </is>
       </c>
       <c r="B50" s="5" t="inlineStr">
         <is>
-          <t>نورهان حمدى محمود محمد</t>
+          <t>احمد حسن محمد اسماعيل</t>
         </is>
       </c>
       <c r="C50" s="5" t="inlineStr">
@@ -11744,12 +11750,12 @@
       </c>
       <c r="D50" s="5" t="inlineStr">
         <is>
-          <t>B2A2</t>
+          <t>B2B1</t>
         </is>
       </c>
       <c r="E50" s="5" t="inlineStr">
         <is>
-          <t>213007@med.asu.edu.eg</t>
+          <t>200018@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F50" s="6" t="inlineStr">
@@ -11954,12 +11960,12 @@
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="5" t="inlineStr">
         <is>
-          <t>200018</t>
+          <t>200019</t>
         </is>
       </c>
       <c r="B51" s="5" t="inlineStr">
         <is>
-          <t>احمد حسن محمد اسماعيل</t>
+          <t>احمد حماد راشد سليمان</t>
         </is>
       </c>
       <c r="C51" s="5" t="inlineStr">
@@ -11974,7 +11980,7 @@
       </c>
       <c r="E51" s="5" t="inlineStr">
         <is>
-          <t>200018@med.asu.edu.eg</t>
+          <t>200019@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F51" s="6" t="inlineStr">
@@ -12179,12 +12185,12 @@
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="5" t="inlineStr">
         <is>
-          <t>200019</t>
+          <t>200020</t>
         </is>
       </c>
       <c r="B52" s="5" t="inlineStr">
         <is>
-          <t>احمد حماد راشد سليمان</t>
+          <t>احمد خالد بن الوليد عبد الرحيم حسن حسنين</t>
         </is>
       </c>
       <c r="C52" s="5" t="inlineStr">
@@ -12199,7 +12205,7 @@
       </c>
       <c r="E52" s="5" t="inlineStr">
         <is>
-          <t>200019@med.asu.edu.eg</t>
+          <t>200020@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F52" s="6" t="inlineStr">
@@ -12404,12 +12410,12 @@
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="5" t="inlineStr">
         <is>
-          <t>200020</t>
+          <t>200025</t>
         </is>
       </c>
       <c r="B53" s="5" t="inlineStr">
         <is>
-          <t>احمد خالد بن الوليد عبد الرحيم حسن حسنين</t>
+          <t>أحمد سعد أحمد أبو العز أبو الخير</t>
         </is>
       </c>
       <c r="C53" s="5" t="inlineStr">
@@ -12424,7 +12430,7 @@
       </c>
       <c r="E53" s="5" t="inlineStr">
         <is>
-          <t>200020@med.asu.edu.eg</t>
+          <t>200025@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F53" s="6" t="inlineStr">
@@ -12629,12 +12635,12 @@
     <row r="54" ht="20" customHeight="1">
       <c r="A54" s="5" t="inlineStr">
         <is>
-          <t>200025</t>
+          <t>200036</t>
         </is>
       </c>
       <c r="B54" s="5" t="inlineStr">
         <is>
-          <t>أحمد سعد أحمد أبو العز أبو الخير</t>
+          <t>احمد عبدالمطلب ابراهيم محمد</t>
         </is>
       </c>
       <c r="C54" s="5" t="inlineStr">
@@ -12649,7 +12655,7 @@
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t>200025@med.asu.edu.eg</t>
+          <t>200036@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F54" s="6" t="inlineStr">
@@ -12854,12 +12860,12 @@
     <row r="55" ht="20" customHeight="1">
       <c r="A55" s="5" t="inlineStr">
         <is>
-          <t>200036</t>
+          <t>200055</t>
         </is>
       </c>
       <c r="B55" s="5" t="inlineStr">
         <is>
-          <t>احمد عبدالمطلب ابراهيم محمد</t>
+          <t>احمد محمد موسى نجيب البرهمتوشى</t>
         </is>
       </c>
       <c r="C55" s="5" t="inlineStr">
@@ -12874,7 +12880,7 @@
       </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t>200036@med.asu.edu.eg</t>
+          <t>200055@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F55" s="6" t="inlineStr">
@@ -13079,12 +13085,12 @@
     <row r="56" ht="20" customHeight="1">
       <c r="A56" s="5" t="inlineStr">
         <is>
-          <t>200055</t>
+          <t>200056</t>
         </is>
       </c>
       <c r="B56" s="5" t="inlineStr">
         <is>
-          <t>احمد محمد موسى نجيب البرهمتوشى</t>
+          <t>احمد محمد وفا ابراهيم سليمان</t>
         </is>
       </c>
       <c r="C56" s="5" t="inlineStr">
@@ -13099,7 +13105,7 @@
       </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t>200055@med.asu.edu.eg</t>
+          <t>200056@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F56" s="6" t="inlineStr">
@@ -13304,12 +13310,12 @@
     <row r="57" ht="20" customHeight="1">
       <c r="A57" s="5" t="inlineStr">
         <is>
-          <t>200056</t>
+          <t>200078</t>
         </is>
       </c>
       <c r="B57" s="5" t="inlineStr">
         <is>
-          <t>احمد محمد وفا ابراهيم سليمان</t>
+          <t>اسراء عيد عشرى سيد</t>
         </is>
       </c>
       <c r="C57" s="5" t="inlineStr">
@@ -13324,7 +13330,7 @@
       </c>
       <c r="E57" s="5" t="inlineStr">
         <is>
-          <t>200056@med.asu.edu.eg</t>
+          <t>200078@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F57" s="6" t="inlineStr">
@@ -13529,12 +13535,12 @@
     <row r="58" ht="20" customHeight="1">
       <c r="A58" s="5" t="inlineStr">
         <is>
-          <t>200078</t>
+          <t>200090</t>
         </is>
       </c>
       <c r="B58" s="5" t="inlineStr">
         <is>
-          <t>اسراء عيد عشرى سيد</t>
+          <t>اسماء فرج الله محمد مختار فرج الله</t>
         </is>
       </c>
       <c r="C58" s="5" t="inlineStr">
@@ -13549,7 +13555,7 @@
       </c>
       <c r="E58" s="5" t="inlineStr">
         <is>
-          <t>200078@med.asu.edu.eg</t>
+          <t>200090@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F58" s="6" t="inlineStr">
@@ -13754,12 +13760,12 @@
     <row r="59" ht="20" customHeight="1">
       <c r="A59" s="5" t="inlineStr">
         <is>
-          <t>200090</t>
+          <t>200095</t>
         </is>
       </c>
       <c r="B59" s="5" t="inlineStr">
         <is>
-          <t>اسماء فرج الله محمد مختار فرج الله</t>
+          <t>اكرام سلامه عبدالرحمن دسوقى</t>
         </is>
       </c>
       <c r="C59" s="5" t="inlineStr">
@@ -13774,7 +13780,7 @@
       </c>
       <c r="E59" s="5" t="inlineStr">
         <is>
-          <t>200090@med.asu.edu.eg</t>
+          <t>200095@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F59" s="6" t="inlineStr">
@@ -13979,12 +13985,12 @@
     <row r="60" ht="20" customHeight="1">
       <c r="A60" s="5" t="inlineStr">
         <is>
-          <t>200095</t>
+          <t>200104</t>
         </is>
       </c>
       <c r="B60" s="5" t="inlineStr">
         <is>
-          <t>اكرام سلامه عبدالرحمن دسوقى</t>
+          <t>البراء احمد السيد محمد غيطاس</t>
         </is>
       </c>
       <c r="C60" s="5" t="inlineStr">
@@ -13999,7 +14005,7 @@
       </c>
       <c r="E60" s="5" t="inlineStr">
         <is>
-          <t>200095@med.asu.edu.eg</t>
+          <t>200104@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F60" s="6" t="inlineStr">
@@ -14204,12 +14210,12 @@
     <row r="61" ht="20" customHeight="1">
       <c r="A61" s="5" t="inlineStr">
         <is>
-          <t>200104</t>
+          <t>200106</t>
         </is>
       </c>
       <c r="B61" s="5" t="inlineStr">
         <is>
-          <t>البراء احمد السيد محمد غيطاس</t>
+          <t>السيد حسان المتولى عوض</t>
         </is>
       </c>
       <c r="C61" s="5" t="inlineStr">
@@ -14224,7 +14230,7 @@
       </c>
       <c r="E61" s="5" t="inlineStr">
         <is>
-          <t>200104@med.asu.edu.eg</t>
+          <t>200106@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F61" s="6" t="inlineStr">
@@ -14429,12 +14435,12 @@
     <row r="62" ht="20" customHeight="1">
       <c r="A62" s="5" t="inlineStr">
         <is>
-          <t>200106</t>
+          <t>200108</t>
         </is>
       </c>
       <c r="B62" s="5" t="inlineStr">
         <is>
-          <t>السيد حسان المتولى عوض</t>
+          <t>السيد محمود عبد العظيم السيد محمد</t>
         </is>
       </c>
       <c r="C62" s="5" t="inlineStr">
@@ -14449,7 +14455,7 @@
       </c>
       <c r="E62" s="5" t="inlineStr">
         <is>
-          <t>200106@med.asu.edu.eg</t>
+          <t>200108@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F62" s="6" t="inlineStr">
@@ -14654,12 +14660,12 @@
     <row r="63" ht="20" customHeight="1">
       <c r="A63" s="5" t="inlineStr">
         <is>
-          <t>200108</t>
+          <t>200110</t>
         </is>
       </c>
       <c r="B63" s="5" t="inlineStr">
         <is>
-          <t>السيد محمود عبد العظيم السيد محمد</t>
+          <t>المعتز محمد حسن عبد السميع</t>
         </is>
       </c>
       <c r="C63" s="5" t="inlineStr">
@@ -14674,7 +14680,7 @@
       </c>
       <c r="E63" s="5" t="inlineStr">
         <is>
-          <t>200108@med.asu.edu.eg</t>
+          <t>200110@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F63" s="6" t="inlineStr">
@@ -14879,12 +14885,12 @@
     <row r="64" ht="20" customHeight="1">
       <c r="A64" s="5" t="inlineStr">
         <is>
-          <t>200110</t>
+          <t>200122</t>
         </is>
       </c>
       <c r="B64" s="5" t="inlineStr">
         <is>
-          <t>المعتز محمد حسن عبد السميع</t>
+          <t>انجى عبد الرءوف على عبد الرؤف علام</t>
         </is>
       </c>
       <c r="C64" s="5" t="inlineStr">
@@ -14899,7 +14905,7 @@
       </c>
       <c r="E64" s="5" t="inlineStr">
         <is>
-          <t>200110@med.asu.edu.eg</t>
+          <t>200122@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F64" s="6" t="inlineStr">
@@ -15104,12 +15110,12 @@
     <row r="65" ht="20" customHeight="1">
       <c r="A65" s="5" t="inlineStr">
         <is>
-          <t>200122</t>
+          <t>200128</t>
         </is>
       </c>
       <c r="B65" s="5" t="inlineStr">
         <is>
-          <t>انجى عبد الرءوف على عبد الرؤف علام</t>
+          <t>ايات محمود مأمون رضوان</t>
         </is>
       </c>
       <c r="C65" s="5" t="inlineStr">
@@ -15124,7 +15130,7 @@
       </c>
       <c r="E65" s="5" t="inlineStr">
         <is>
-          <t>200122@med.asu.edu.eg</t>
+          <t>200128@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F65" s="6" t="inlineStr">
@@ -15329,12 +15335,12 @@
     <row r="66" ht="20" customHeight="1">
       <c r="A66" s="5" t="inlineStr">
         <is>
-          <t>200128</t>
+          <t>200132</t>
         </is>
       </c>
       <c r="B66" s="5" t="inlineStr">
         <is>
-          <t>ايات محمود مأمون رضوان</t>
+          <t>ايمان ابراهيم السيد السيد الجدى</t>
         </is>
       </c>
       <c r="C66" s="5" t="inlineStr">
@@ -15349,7 +15355,7 @@
       </c>
       <c r="E66" s="5" t="inlineStr">
         <is>
-          <t>200128@med.asu.edu.eg</t>
+          <t>200132@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F66" s="6" t="inlineStr">
@@ -15554,12 +15560,12 @@
     <row r="67" ht="20" customHeight="1">
       <c r="A67" s="5" t="inlineStr">
         <is>
-          <t>200132</t>
+          <t>200137</t>
         </is>
       </c>
       <c r="B67" s="5" t="inlineStr">
         <is>
-          <t>ايمان ابراهيم السيد السيد الجدى</t>
+          <t>ايمان رضا عبد الرؤف ابو الوفا محمد</t>
         </is>
       </c>
       <c r="C67" s="5" t="inlineStr">
@@ -15574,7 +15580,7 @@
       </c>
       <c r="E67" s="5" t="inlineStr">
         <is>
-          <t>200132@med.asu.edu.eg</t>
+          <t>200137@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F67" s="6" t="inlineStr">
@@ -15779,12 +15785,12 @@
     <row r="68" ht="20" customHeight="1">
       <c r="A68" s="5" t="inlineStr">
         <is>
-          <t>200137</t>
+          <t>200183</t>
         </is>
       </c>
       <c r="B68" s="5" t="inlineStr">
         <is>
-          <t>ايمان رضا عبد الرؤف ابو الوفا محمد</t>
+          <t>جنا نبيل الشحات عوض</t>
         </is>
       </c>
       <c r="C68" s="5" t="inlineStr">
@@ -15799,7 +15805,7 @@
       </c>
       <c r="E68" s="5" t="inlineStr">
         <is>
-          <t>200137@med.asu.edu.eg</t>
+          <t>200183@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F68" s="6" t="inlineStr">
@@ -16004,12 +16010,12 @@
     <row r="69" ht="20" customHeight="1">
       <c r="A69" s="5" t="inlineStr">
         <is>
-          <t>200183</t>
+          <t>200197</t>
         </is>
       </c>
       <c r="B69" s="5" t="inlineStr">
         <is>
-          <t>جنا نبيل الشحات عوض</t>
+          <t>حسام نصر ابو النصر السيد ابراهيم</t>
         </is>
       </c>
       <c r="C69" s="5" t="inlineStr">
@@ -16024,7 +16030,7 @@
       </c>
       <c r="E69" s="5" t="inlineStr">
         <is>
-          <t>200183@med.asu.edu.eg</t>
+          <t>200197@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F69" s="6" t="inlineStr">
@@ -16229,12 +16235,12 @@
     <row r="70" ht="20" customHeight="1">
       <c r="A70" s="5" t="inlineStr">
         <is>
-          <t>200197</t>
+          <t>200227</t>
         </is>
       </c>
       <c r="B70" s="5" t="inlineStr">
         <is>
-          <t>حسام نصر ابو النصر السيد ابراهيم</t>
+          <t>رامى عاطف يعقوب عزيز</t>
         </is>
       </c>
       <c r="C70" s="5" t="inlineStr">
@@ -16249,7 +16255,7 @@
       </c>
       <c r="E70" s="5" t="inlineStr">
         <is>
-          <t>200197@med.asu.edu.eg</t>
+          <t>200227@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F70" s="6" t="inlineStr">
@@ -16454,12 +16460,12 @@
     <row r="71" ht="20" customHeight="1">
       <c r="A71" s="5" t="inlineStr">
         <is>
-          <t>200227</t>
+          <t>200237</t>
         </is>
       </c>
       <c r="B71" s="5" t="inlineStr">
         <is>
-          <t>رامى عاطف يعقوب عزيز</t>
+          <t>رحمة طارق احمد فوزى</t>
         </is>
       </c>
       <c r="C71" s="5" t="inlineStr">
@@ -16474,7 +16480,7 @@
       </c>
       <c r="E71" s="5" t="inlineStr">
         <is>
-          <t>200227@med.asu.edu.eg</t>
+          <t>200237@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F71" s="6" t="inlineStr">
@@ -16679,12 +16685,12 @@
     <row r="72" ht="20" customHeight="1">
       <c r="A72" s="5" t="inlineStr">
         <is>
-          <t>200237</t>
+          <t>200260</t>
         </is>
       </c>
       <c r="B72" s="5" t="inlineStr">
         <is>
-          <t>رحمة طارق احمد فوزى</t>
+          <t>روان عماد سعيد محمد</t>
         </is>
       </c>
       <c r="C72" s="5" t="inlineStr">
@@ -16699,7 +16705,7 @@
       </c>
       <c r="E72" s="5" t="inlineStr">
         <is>
-          <t>200237@med.asu.edu.eg</t>
+          <t>200260@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F72" s="6" t="inlineStr">
@@ -16904,12 +16910,12 @@
     <row r="73" ht="20" customHeight="1">
       <c r="A73" s="5" t="inlineStr">
         <is>
-          <t>200260</t>
+          <t>200274</t>
         </is>
       </c>
       <c r="B73" s="5" t="inlineStr">
         <is>
-          <t>روان عماد سعيد محمد</t>
+          <t>ريم عبد الله محمود فهمى</t>
         </is>
       </c>
       <c r="C73" s="5" t="inlineStr">
@@ -16924,7 +16930,7 @@
       </c>
       <c r="E73" s="5" t="inlineStr">
         <is>
-          <t>200260@med.asu.edu.eg</t>
+          <t>200274@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F73" s="6" t="inlineStr">
@@ -17129,12 +17135,12 @@
     <row r="74" ht="20" customHeight="1">
       <c r="A74" s="5" t="inlineStr">
         <is>
-          <t>200274</t>
+          <t>200286</t>
         </is>
       </c>
       <c r="B74" s="5" t="inlineStr">
         <is>
-          <t>ريم عبد الله محمود فهمى</t>
+          <t>زينب طه قاسم طه حسن زيدان</t>
         </is>
       </c>
       <c r="C74" s="5" t="inlineStr">
@@ -17149,7 +17155,7 @@
       </c>
       <c r="E74" s="5" t="inlineStr">
         <is>
-          <t>200274@med.asu.edu.eg</t>
+          <t>200286@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F74" s="6" t="inlineStr">
@@ -17354,12 +17360,12 @@
     <row r="75" ht="20" customHeight="1">
       <c r="A75" s="5" t="inlineStr">
         <is>
-          <t>200286</t>
+          <t>200319</t>
         </is>
       </c>
       <c r="B75" s="5" t="inlineStr">
         <is>
-          <t>زينب طه قاسم طه حسن زيدان</t>
+          <t>سما مصطفى محمد محمد محمد ابراهيم</t>
         </is>
       </c>
       <c r="C75" s="5" t="inlineStr">
@@ -17374,7 +17380,7 @@
       </c>
       <c r="E75" s="5" t="inlineStr">
         <is>
-          <t>200286@med.asu.edu.eg</t>
+          <t>200319@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F75" s="6" t="inlineStr">
@@ -17579,12 +17585,12 @@
     <row r="76" ht="20" customHeight="1">
       <c r="A76" s="5" t="inlineStr">
         <is>
-          <t>200319</t>
+          <t>200329</t>
         </is>
       </c>
       <c r="B76" s="5" t="inlineStr">
         <is>
-          <t>سما مصطفى محمد محمد محمد ابراهيم</t>
+          <t>سهيله اسامه عبد العليم الصاوى حامد</t>
         </is>
       </c>
       <c r="C76" s="5" t="inlineStr">
@@ -17599,7 +17605,7 @@
       </c>
       <c r="E76" s="5" t="inlineStr">
         <is>
-          <t>200319@med.asu.edu.eg</t>
+          <t>200329@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F76" s="6" t="inlineStr">
@@ -17804,12 +17810,12 @@
     <row r="77" ht="20" customHeight="1">
       <c r="A77" s="5" t="inlineStr">
         <is>
-          <t>200329</t>
+          <t>200372</t>
         </is>
       </c>
       <c r="B77" s="5" t="inlineStr">
         <is>
-          <t>سهيله اسامه عبد العليم الصاوى حامد</t>
+          <t>عبد الرحمن احمد فؤاد محمد</t>
         </is>
       </c>
       <c r="C77" s="5" t="inlineStr">
@@ -17824,7 +17830,7 @@
       </c>
       <c r="E77" s="5" t="inlineStr">
         <is>
-          <t>200329@med.asu.edu.eg</t>
+          <t>200372@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F77" s="6" t="inlineStr">
@@ -18029,12 +18035,12 @@
     <row r="78" ht="20" customHeight="1">
       <c r="A78" s="5" t="inlineStr">
         <is>
-          <t>200372</t>
+          <t>200374</t>
         </is>
       </c>
       <c r="B78" s="5" t="inlineStr">
         <is>
-          <t>عبد الرحمن احمد فؤاد محمد</t>
+          <t>عبد الرحمن احمد مصطفى محمد النجار</t>
         </is>
       </c>
       <c r="C78" s="5" t="inlineStr">
@@ -18049,7 +18055,7 @@
       </c>
       <c r="E78" s="5" t="inlineStr">
         <is>
-          <t>200372@med.asu.edu.eg</t>
+          <t>200374@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F78" s="6" t="inlineStr">
@@ -18254,12 +18260,12 @@
     <row r="79" ht="20" customHeight="1">
       <c r="A79" s="5" t="inlineStr">
         <is>
-          <t>200374</t>
+          <t>200379</t>
         </is>
       </c>
       <c r="B79" s="5" t="inlineStr">
         <is>
-          <t>عبد الرحمن احمد مصطفى محمد النجار</t>
+          <t>عبد الرحمن عصام عطية على النجار</t>
         </is>
       </c>
       <c r="C79" s="5" t="inlineStr">
@@ -18274,7 +18280,7 @@
       </c>
       <c r="E79" s="5" t="inlineStr">
         <is>
-          <t>200374@med.asu.edu.eg</t>
+          <t>200379@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F79" s="6" t="inlineStr">
@@ -18479,12 +18485,12 @@
     <row r="80" ht="20" customHeight="1">
       <c r="A80" s="5" t="inlineStr">
         <is>
-          <t>200379</t>
+          <t>200385</t>
         </is>
       </c>
       <c r="B80" s="5" t="inlineStr">
         <is>
-          <t>عبد الرحمن عصام عطية على النجار</t>
+          <t>عبد الرحمن محمد السيد محمد</t>
         </is>
       </c>
       <c r="C80" s="5" t="inlineStr">
@@ -18499,7 +18505,7 @@
       </c>
       <c r="E80" s="5" t="inlineStr">
         <is>
-          <t>200379@med.asu.edu.eg</t>
+          <t>200385@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F80" s="6" t="inlineStr">
@@ -18704,12 +18710,12 @@
     <row r="81" ht="20" customHeight="1">
       <c r="A81" s="5" t="inlineStr">
         <is>
-          <t>200385</t>
+          <t>200398</t>
         </is>
       </c>
       <c r="B81" s="5" t="inlineStr">
         <is>
-          <t>عبد الرحمن محمد السيد محمد</t>
+          <t>عبد الله خالد احمد السيد محمد</t>
         </is>
       </c>
       <c r="C81" s="5" t="inlineStr">
@@ -18724,7 +18730,7 @@
       </c>
       <c r="E81" s="5" t="inlineStr">
         <is>
-          <t>200385@med.asu.edu.eg</t>
+          <t>200398@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F81" s="6" t="inlineStr">
@@ -18929,12 +18935,12 @@
     <row r="82" ht="20" customHeight="1">
       <c r="A82" s="5" t="inlineStr">
         <is>
-          <t>200398</t>
+          <t>200445</t>
         </is>
       </c>
       <c r="B82" s="5" t="inlineStr">
         <is>
-          <t>عبد الله خالد احمد السيد محمد</t>
+          <t>غاده عبد الكريم عبد العليم عبد الكريم</t>
         </is>
       </c>
       <c r="C82" s="5" t="inlineStr">
@@ -18949,7 +18955,7 @@
       </c>
       <c r="E82" s="5" t="inlineStr">
         <is>
-          <t>200398@med.asu.edu.eg</t>
+          <t>200445@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F82" s="6" t="inlineStr">
@@ -19154,12 +19160,12 @@
     <row r="83" ht="20" customHeight="1">
       <c r="A83" s="5" t="inlineStr">
         <is>
-          <t>200445</t>
+          <t>200449</t>
         </is>
       </c>
       <c r="B83" s="5" t="inlineStr">
         <is>
-          <t>غاده عبد الكريم عبد العليم عبد الكريم</t>
+          <t>فارس عبدالرحيم محمد عبدالرحمن العايدى</t>
         </is>
       </c>
       <c r="C83" s="5" t="inlineStr">
@@ -19174,7 +19180,7 @@
       </c>
       <c r="E83" s="5" t="inlineStr">
         <is>
-          <t>200445@med.asu.edu.eg</t>
+          <t>200449@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F83" s="6" t="inlineStr">
@@ -19379,12 +19385,12 @@
     <row r="84" ht="20" customHeight="1">
       <c r="A84" s="5" t="inlineStr">
         <is>
-          <t>200449</t>
+          <t>200456</t>
         </is>
       </c>
       <c r="B84" s="5" t="inlineStr">
         <is>
-          <t>فارس عبدالرحيم محمد عبدالرحمن العايدى</t>
+          <t>فاطمه سليمان محمود حسن عبد الرحمن</t>
         </is>
       </c>
       <c r="C84" s="5" t="inlineStr">
@@ -19399,7 +19405,7 @@
       </c>
       <c r="E84" s="5" t="inlineStr">
         <is>
-          <t>200449@med.asu.edu.eg</t>
+          <t>200456@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F84" s="6" t="inlineStr">
@@ -19604,12 +19610,12 @@
     <row r="85" ht="20" customHeight="1">
       <c r="A85" s="5" t="inlineStr">
         <is>
-          <t>200456</t>
+          <t>200459</t>
         </is>
       </c>
       <c r="B85" s="5" t="inlineStr">
         <is>
-          <t>فاطمه سليمان محمود حسن عبد الرحمن</t>
+          <t>فاطمه محمد حسن احمد خليل</t>
         </is>
       </c>
       <c r="C85" s="5" t="inlineStr">
@@ -19624,7 +19630,7 @@
       </c>
       <c r="E85" s="5" t="inlineStr">
         <is>
-          <t>200456@med.asu.edu.eg</t>
+          <t>200459@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F85" s="6" t="inlineStr">
@@ -19829,12 +19835,12 @@
     <row r="86" ht="20" customHeight="1">
       <c r="A86" s="5" t="inlineStr">
         <is>
-          <t>200459</t>
+          <t>200461</t>
         </is>
       </c>
       <c r="B86" s="5" t="inlineStr">
         <is>
-          <t>فاطمه محمد حسن احمد خليل</t>
+          <t>فاطمه محمد عبد الفتاح عبد الهادى</t>
         </is>
       </c>
       <c r="C86" s="5" t="inlineStr">
@@ -19849,7 +19855,7 @@
       </c>
       <c r="E86" s="5" t="inlineStr">
         <is>
-          <t>200459@med.asu.edu.eg</t>
+          <t>200461@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F86" s="6" t="inlineStr">
@@ -20054,12 +20060,12 @@
     <row r="87" ht="20" customHeight="1">
       <c r="A87" s="5" t="inlineStr">
         <is>
-          <t>200461</t>
+          <t>200469</t>
         </is>
       </c>
       <c r="B87" s="5" t="inlineStr">
         <is>
-          <t>فاطمه محمد عبد الفتاح عبد الهادى</t>
+          <t>فريده فاروق محمد رشدى محمود</t>
         </is>
       </c>
       <c r="C87" s="5" t="inlineStr">
@@ -20074,7 +20080,7 @@
       </c>
       <c r="E87" s="5" t="inlineStr">
         <is>
-          <t>200461@med.asu.edu.eg</t>
+          <t>200469@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F87" s="6" t="inlineStr">
@@ -20279,12 +20285,12 @@
     <row r="88" ht="20" customHeight="1">
       <c r="A88" s="5" t="inlineStr">
         <is>
-          <t>200469</t>
+          <t>200477</t>
         </is>
       </c>
       <c r="B88" s="5" t="inlineStr">
         <is>
-          <t>فريده فاروق محمد رشدى محمود</t>
+          <t>كريم احمد محمد ايوب حسن</t>
         </is>
       </c>
       <c r="C88" s="5" t="inlineStr">
@@ -20299,7 +20305,7 @@
       </c>
       <c r="E88" s="5" t="inlineStr">
         <is>
-          <t>200469@med.asu.edu.eg</t>
+          <t>200477@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F88" s="6" t="inlineStr">
@@ -20504,12 +20510,12 @@
     <row r="89" ht="20" customHeight="1">
       <c r="A89" s="5" t="inlineStr">
         <is>
-          <t>200477</t>
+          <t>200531</t>
         </is>
       </c>
       <c r="B89" s="5" t="inlineStr">
         <is>
-          <t>كريم احمد محمد ايوب حسن</t>
+          <t>محمد حامد محمد حامد البريدى</t>
         </is>
       </c>
       <c r="C89" s="5" t="inlineStr">
@@ -20524,7 +20530,7 @@
       </c>
       <c r="E89" s="5" t="inlineStr">
         <is>
-          <t>200477@med.asu.edu.eg</t>
+          <t>200531@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F89" s="6" t="inlineStr">
@@ -20729,12 +20735,12 @@
     <row r="90" ht="20" customHeight="1">
       <c r="A90" s="5" t="inlineStr">
         <is>
-          <t>200531</t>
+          <t>200536</t>
         </is>
       </c>
       <c r="B90" s="5" t="inlineStr">
         <is>
-          <t>محمد حامد محمد حامد البريدى</t>
+          <t>محمد رضا جمعه ابراهيم عوض</t>
         </is>
       </c>
       <c r="C90" s="5" t="inlineStr">
@@ -20744,12 +20750,12 @@
       </c>
       <c r="D90" s="5" t="inlineStr">
         <is>
-          <t>B2B1</t>
+          <t>B2B2</t>
         </is>
       </c>
       <c r="E90" s="5" t="inlineStr">
         <is>
-          <t>200531@med.asu.edu.eg</t>
+          <t>200536@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F90" s="6" t="inlineStr">
@@ -20954,12 +20960,12 @@
     <row r="91" ht="20" customHeight="1">
       <c r="A91" s="5" t="inlineStr">
         <is>
-          <t>200536</t>
+          <t>200554</t>
         </is>
       </c>
       <c r="B91" s="5" t="inlineStr">
         <is>
-          <t>محمد رضا جمعه ابراهيم عوض</t>
+          <t>محمد عبد الله محمد جاد الله</t>
         </is>
       </c>
       <c r="C91" s="5" t="inlineStr">
@@ -20974,7 +20980,7 @@
       </c>
       <c r="E91" s="5" t="inlineStr">
         <is>
-          <t>200536@med.asu.edu.eg</t>
+          <t>200554@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F91" s="6" t="inlineStr">
@@ -21179,12 +21185,12 @@
     <row r="92" ht="20" customHeight="1">
       <c r="A92" s="5" t="inlineStr">
         <is>
-          <t>200554</t>
+          <t>200555</t>
         </is>
       </c>
       <c r="B92" s="5" t="inlineStr">
         <is>
-          <t>محمد عبد الله محمد جاد الله</t>
+          <t>محمد عبد المنعم انور محمد</t>
         </is>
       </c>
       <c r="C92" s="5" t="inlineStr">
@@ -21199,7 +21205,7 @@
       </c>
       <c r="E92" s="5" t="inlineStr">
         <is>
-          <t>200554@med.asu.edu.eg</t>
+          <t>200555@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F92" s="6" t="inlineStr">
@@ -21404,12 +21410,12 @@
     <row r="93" ht="20" customHeight="1">
       <c r="A93" s="5" t="inlineStr">
         <is>
-          <t>200555</t>
+          <t>200560</t>
         </is>
       </c>
       <c r="B93" s="5" t="inlineStr">
         <is>
-          <t>محمد عبد المنعم انور محمد</t>
+          <t>محمد على محمد الحسينى حسن الوكيل</t>
         </is>
       </c>
       <c r="C93" s="5" t="inlineStr">
@@ -21424,7 +21430,7 @@
       </c>
       <c r="E93" s="5" t="inlineStr">
         <is>
-          <t>200555@med.asu.edu.eg</t>
+          <t>200560@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F93" s="6" t="inlineStr">
@@ -21629,12 +21635,12 @@
     <row r="94" ht="20" customHeight="1">
       <c r="A94" s="5" t="inlineStr">
         <is>
-          <t>200560</t>
+          <t>200603</t>
         </is>
       </c>
       <c r="B94" s="5" t="inlineStr">
         <is>
-          <t>محمد على محمد الحسينى حسن الوكيل</t>
+          <t>مريم محمد شبل عبد الفتاح فرج</t>
         </is>
       </c>
       <c r="C94" s="5" t="inlineStr">
@@ -21649,7 +21655,7 @@
       </c>
       <c r="E94" s="5" t="inlineStr">
         <is>
-          <t>200560@med.asu.edu.eg</t>
+          <t>200603@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F94" s="6" t="inlineStr">
@@ -21854,12 +21860,12 @@
     <row r="95" ht="20" customHeight="1">
       <c r="A95" s="5" t="inlineStr">
         <is>
-          <t>200603</t>
+          <t>200620</t>
         </is>
       </c>
       <c r="B95" s="5" t="inlineStr">
         <is>
-          <t>مريم محمد شبل عبد الفتاح فرج</t>
+          <t>مصطفى محمود بيومي عواد الروبي</t>
         </is>
       </c>
       <c r="C95" s="5" t="inlineStr">
@@ -21874,7 +21880,7 @@
       </c>
       <c r="E95" s="5" t="inlineStr">
         <is>
-          <t>200603@med.asu.edu.eg</t>
+          <t>200620@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F95" s="6" t="inlineStr">
@@ -22079,12 +22085,12 @@
     <row r="96" ht="20" customHeight="1">
       <c r="A96" s="5" t="inlineStr">
         <is>
-          <t>200620</t>
+          <t>200638</t>
         </is>
       </c>
       <c r="B96" s="5" t="inlineStr">
         <is>
-          <t>مصطفى محمود بيومي عواد الروبي</t>
+          <t>منة الله هانى ماهر على يوسف</t>
         </is>
       </c>
       <c r="C96" s="5" t="inlineStr">
@@ -22099,7 +22105,7 @@
       </c>
       <c r="E96" s="5" t="inlineStr">
         <is>
-          <t>200620@med.asu.edu.eg</t>
+          <t>200638@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F96" s="6" t="inlineStr">
@@ -22304,12 +22310,12 @@
     <row r="97" ht="20" customHeight="1">
       <c r="A97" s="5" t="inlineStr">
         <is>
-          <t>200638</t>
+          <t>200644</t>
         </is>
       </c>
       <c r="B97" s="5" t="inlineStr">
         <is>
-          <t>منة الله هانى ماهر على يوسف</t>
+          <t>منى عامر فرج الله عيد حجاب</t>
         </is>
       </c>
       <c r="C97" s="5" t="inlineStr">
@@ -22324,7 +22330,7 @@
       </c>
       <c r="E97" s="5" t="inlineStr">
         <is>
-          <t>200638@med.asu.edu.eg</t>
+          <t>200644@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F97" s="6" t="inlineStr">
@@ -22529,12 +22535,12 @@
     <row r="98" ht="20" customHeight="1">
       <c r="A98" s="5" t="inlineStr">
         <is>
-          <t>200644</t>
+          <t>200660</t>
         </is>
       </c>
       <c r="B98" s="5" t="inlineStr">
         <is>
-          <t>منى عامر فرج الله عيد حجاب</t>
+          <t>ميرنا رضا ربيع عبد الرازق عبد العال</t>
         </is>
       </c>
       <c r="C98" s="5" t="inlineStr">
@@ -22549,7 +22555,7 @@
       </c>
       <c r="E98" s="5" t="inlineStr">
         <is>
-          <t>200644@med.asu.edu.eg</t>
+          <t>200660@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F98" s="6" t="inlineStr">
@@ -22754,12 +22760,12 @@
     <row r="99" ht="20" customHeight="1">
       <c r="A99" s="5" t="inlineStr">
         <is>
-          <t>200660</t>
+          <t>200673</t>
         </is>
       </c>
       <c r="B99" s="5" t="inlineStr">
         <is>
-          <t>ميرنا رضا ربيع عبد الرازق عبد العال</t>
+          <t>ندى اسماعيل رياض اسماعيل</t>
         </is>
       </c>
       <c r="C99" s="5" t="inlineStr">
@@ -22774,7 +22780,7 @@
       </c>
       <c r="E99" s="5" t="inlineStr">
         <is>
-          <t>200660@med.asu.edu.eg</t>
+          <t>200673@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F99" s="6" t="inlineStr">
@@ -22979,12 +22985,12 @@
     <row r="100" ht="20" customHeight="1">
       <c r="A100" s="5" t="inlineStr">
         <is>
-          <t>200673</t>
+          <t>200719</t>
         </is>
       </c>
       <c r="B100" s="5" t="inlineStr">
         <is>
-          <t>ندى اسماعيل رياض اسماعيل</t>
+          <t>هاجر طارق صلاح محمد سليم</t>
         </is>
       </c>
       <c r="C100" s="5" t="inlineStr">
@@ -22999,7 +23005,7 @@
       </c>
       <c r="E100" s="5" t="inlineStr">
         <is>
-          <t>200673@med.asu.edu.eg</t>
+          <t>200719@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F100" s="6" t="inlineStr">
@@ -23204,12 +23210,12 @@
     <row r="101" ht="20" customHeight="1">
       <c r="A101" s="5" t="inlineStr">
         <is>
-          <t>200719</t>
+          <t>200721</t>
         </is>
       </c>
       <c r="B101" s="5" t="inlineStr">
         <is>
-          <t>هاجر طارق صلاح محمد سليم</t>
+          <t>هاجر محمد كامل فرج</t>
         </is>
       </c>
       <c r="C101" s="5" t="inlineStr">
@@ -23224,7 +23230,7 @@
       </c>
       <c r="E101" s="5" t="inlineStr">
         <is>
-          <t>200719@med.asu.edu.eg</t>
+          <t>200721@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F101" s="6" t="inlineStr">
@@ -23429,12 +23435,12 @@
     <row r="102" ht="20" customHeight="1">
       <c r="A102" s="5" t="inlineStr">
         <is>
-          <t>200721</t>
+          <t>200830</t>
         </is>
       </c>
       <c r="B102" s="5" t="inlineStr">
         <is>
-          <t>هاجر محمد كامل فرج</t>
+          <t>ديما احمد محمد النحال</t>
         </is>
       </c>
       <c r="C102" s="5" t="inlineStr">
@@ -23449,7 +23455,7 @@
       </c>
       <c r="E102" s="5" t="inlineStr">
         <is>
-          <t>200721@med.asu.edu.eg</t>
+          <t>200830@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F102" s="6" t="inlineStr">
@@ -23654,12 +23660,12 @@
     <row r="103" ht="20" customHeight="1">
       <c r="A103" s="5" t="inlineStr">
         <is>
-          <t>200830</t>
+          <t>200835</t>
         </is>
       </c>
       <c r="B103" s="5" t="inlineStr">
         <is>
-          <t>ديما احمد محمد النحال</t>
+          <t>اسامه ابراهيم محمود عواد</t>
         </is>
       </c>
       <c r="C103" s="5" t="inlineStr">
@@ -23674,7 +23680,7 @@
       </c>
       <c r="E103" s="5" t="inlineStr">
         <is>
-          <t>200830@med.asu.edu.eg</t>
+          <t>200835@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F103" s="6" t="inlineStr">
@@ -23879,12 +23885,12 @@
     <row r="104" ht="20" customHeight="1">
       <c r="A104" s="5" t="inlineStr">
         <is>
-          <t>200835</t>
+          <t>200839</t>
         </is>
       </c>
       <c r="B104" s="5" t="inlineStr">
         <is>
-          <t>اسامه ابراهيم محمود عواد</t>
+          <t>مرام محمد محمود خليل</t>
         </is>
       </c>
       <c r="C104" s="5" t="inlineStr">
@@ -23899,7 +23905,7 @@
       </c>
       <c r="E104" s="5" t="inlineStr">
         <is>
-          <t>200835@med.asu.edu.eg</t>
+          <t>200839@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F104" s="6" t="inlineStr">
@@ -24104,12 +24110,12 @@
     <row r="105" ht="20" customHeight="1">
       <c r="A105" s="5" t="inlineStr">
         <is>
-          <t>200839</t>
+          <t>200840</t>
         </is>
       </c>
       <c r="B105" s="5" t="inlineStr">
         <is>
-          <t>مرام محمد محمود خليل</t>
+          <t>ابراهيم كفاح سعيد نسمان</t>
         </is>
       </c>
       <c r="C105" s="5" t="inlineStr">
@@ -24124,7 +24130,7 @@
       </c>
       <c r="E105" s="5" t="inlineStr">
         <is>
-          <t>200839@med.asu.edu.eg</t>
+          <t>200840@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F105" s="6" t="inlineStr">
@@ -24329,12 +24335,12 @@
     <row r="106" ht="20" customHeight="1">
       <c r="A106" s="5" t="inlineStr">
         <is>
-          <t>200840</t>
+          <t>200854</t>
         </is>
       </c>
       <c r="B106" s="5" t="inlineStr">
         <is>
-          <t>ابراهيم كفاح سعيد نسمان</t>
+          <t>عبد الرحمن محمد رفيق جزر</t>
         </is>
       </c>
       <c r="C106" s="5" t="inlineStr">
@@ -24349,7 +24355,7 @@
       </c>
       <c r="E106" s="5" t="inlineStr">
         <is>
-          <t>200840@med.asu.edu.eg</t>
+          <t>200854@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F106" s="6" t="inlineStr">
@@ -24554,12 +24560,12 @@
     <row r="107" ht="20" customHeight="1">
       <c r="A107" s="5" t="inlineStr">
         <is>
-          <t>200854</t>
+          <t>200859</t>
         </is>
       </c>
       <c r="B107" s="5" t="inlineStr">
         <is>
-          <t>عبد الرحمن محمد رفيق جزر</t>
+          <t>سالى يوسف محمد ناجى</t>
         </is>
       </c>
       <c r="C107" s="5" t="inlineStr">
@@ -24574,7 +24580,7 @@
       </c>
       <c r="E107" s="5" t="inlineStr">
         <is>
-          <t>200854@med.asu.edu.eg</t>
+          <t>200859@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F107" s="6" t="inlineStr">
@@ -24779,12 +24785,12 @@
     <row r="108" ht="20" customHeight="1">
       <c r="A108" s="5" t="inlineStr">
         <is>
-          <t>200859</t>
+          <t>200860</t>
         </is>
       </c>
       <c r="B108" s="5" t="inlineStr">
         <is>
-          <t>سالى يوسف محمد ناجى</t>
+          <t>قصى محمد على المحاميد</t>
         </is>
       </c>
       <c r="C108" s="5" t="inlineStr">
@@ -24799,7 +24805,7 @@
       </c>
       <c r="E108" s="5" t="inlineStr">
         <is>
-          <t>200859@med.asu.edu.eg</t>
+          <t>200860@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F108" s="6" t="inlineStr">
@@ -25004,12 +25010,12 @@
     <row r="109" ht="20" customHeight="1">
       <c r="A109" s="5" t="inlineStr">
         <is>
-          <t>200860</t>
+          <t>200862</t>
         </is>
       </c>
       <c r="B109" s="5" t="inlineStr">
         <is>
-          <t>قصى محمد على المحاميد</t>
+          <t>محمد ابراهيم محمد خير ابو زينه</t>
         </is>
       </c>
       <c r="C109" s="5" t="inlineStr">
@@ -25024,7 +25030,7 @@
       </c>
       <c r="E109" s="5" t="inlineStr">
         <is>
-          <t>200860@med.asu.edu.eg</t>
+          <t>200862@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F109" s="6" t="inlineStr">
@@ -25229,12 +25235,12 @@
     <row r="110" ht="20" customHeight="1">
       <c r="A110" s="5" t="inlineStr">
         <is>
-          <t>200862</t>
+          <t>200879</t>
         </is>
       </c>
       <c r="B110" s="5" t="inlineStr">
         <is>
-          <t>محمد ابراهيم محمد خير ابو زينه</t>
+          <t>احمد مازن سليمان ابو عامر</t>
         </is>
       </c>
       <c r="C110" s="5" t="inlineStr">
@@ -25249,7 +25255,7 @@
       </c>
       <c r="E110" s="5" t="inlineStr">
         <is>
-          <t>200862@med.asu.edu.eg</t>
+          <t>200879@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F110" s="6" t="inlineStr">
@@ -25454,12 +25460,12 @@
     <row r="111" ht="20" customHeight="1">
       <c r="A111" s="5" t="inlineStr">
         <is>
-          <t>200879</t>
+          <t>200880</t>
         </is>
       </c>
       <c r="B111" s="5" t="inlineStr">
         <is>
-          <t>احمد مازن سليمان ابو عامر</t>
+          <t>احمد ميعاد على الميسرى</t>
         </is>
       </c>
       <c r="C111" s="5" t="inlineStr">
@@ -25474,7 +25480,7 @@
       </c>
       <c r="E111" s="5" t="inlineStr">
         <is>
-          <t>200879@med.asu.edu.eg</t>
+          <t>200880@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F111" s="6" t="inlineStr">
@@ -25679,12 +25685,12 @@
     <row r="112" ht="20" customHeight="1">
       <c r="A112" s="5" t="inlineStr">
         <is>
-          <t>200880</t>
+          <t>200888</t>
         </is>
       </c>
       <c r="B112" s="5" t="inlineStr">
         <is>
-          <t>احمد ميعاد على الميسرى</t>
+          <t>احمد خالد عبد الله البلوى</t>
         </is>
       </c>
       <c r="C112" s="5" t="inlineStr">
@@ -25699,7 +25705,7 @@
       </c>
       <c r="E112" s="5" t="inlineStr">
         <is>
-          <t>200880@med.asu.edu.eg</t>
+          <t>200888@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F112" s="6" t="inlineStr">
@@ -25904,12 +25910,12 @@
     <row r="113" ht="20" customHeight="1">
       <c r="A113" s="5" t="inlineStr">
         <is>
-          <t>200888</t>
+          <t>200899</t>
         </is>
       </c>
       <c r="B113" s="5" t="inlineStr">
         <is>
-          <t>احمد خالد عبد الله البلوى</t>
+          <t>محمد تيسير محمد ابو شماله</t>
         </is>
       </c>
       <c r="C113" s="5" t="inlineStr">
@@ -25924,7 +25930,7 @@
       </c>
       <c r="E113" s="5" t="inlineStr">
         <is>
-          <t>200888@med.asu.edu.eg</t>
+          <t>200899@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F113" s="6" t="inlineStr">
@@ -26129,12 +26135,12 @@
     <row r="114" ht="20" customHeight="1">
       <c r="A114" s="5" t="inlineStr">
         <is>
-          <t>200899</t>
+          <t>200918</t>
         </is>
       </c>
       <c r="B114" s="5" t="inlineStr">
         <is>
-          <t>محمد تيسير محمد ابو شماله</t>
+          <t>Haneen Mahfood Abodullah</t>
         </is>
       </c>
       <c r="C114" s="5" t="inlineStr">
@@ -26149,7 +26155,7 @@
       </c>
       <c r="E114" s="5" t="inlineStr">
         <is>
-          <t>200899@med.asu.edu.eg</t>
+          <t>200918@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F114" s="6" t="inlineStr">
@@ -26354,12 +26360,12 @@
     <row r="115" ht="20" customHeight="1">
       <c r="A115" s="5" t="inlineStr">
         <is>
-          <t>200918</t>
+          <t>200941</t>
         </is>
       </c>
       <c r="B115" s="5" t="inlineStr">
         <is>
-          <t>Haneen Mahfood Abodullah</t>
+          <t>عمر فاروق محمد مساعده</t>
         </is>
       </c>
       <c r="C115" s="5" t="inlineStr">
@@ -26374,7 +26380,7 @@
       </c>
       <c r="E115" s="5" t="inlineStr">
         <is>
-          <t>200918@med.asu.edu.eg</t>
+          <t>200941@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F115" s="6" t="inlineStr">
@@ -26579,12 +26585,12 @@
     <row r="116" ht="20" customHeight="1">
       <c r="A116" s="5" t="inlineStr">
         <is>
-          <t>200941</t>
+          <t>200953</t>
         </is>
       </c>
       <c r="B116" s="5" t="inlineStr">
         <is>
-          <t>عمر فاروق محمد مساعده</t>
+          <t>صبحى محمد صبحى شناعه</t>
         </is>
       </c>
       <c r="C116" s="5" t="inlineStr">
@@ -26599,7 +26605,7 @@
       </c>
       <c r="E116" s="5" t="inlineStr">
         <is>
-          <t>200941@med.asu.edu.eg</t>
+          <t>200953@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F116" s="6" t="inlineStr">
@@ -26804,12 +26810,12 @@
     <row r="117" ht="20" customHeight="1">
       <c r="A117" s="5" t="inlineStr">
         <is>
-          <t>200953</t>
+          <t>200957</t>
         </is>
       </c>
       <c r="B117" s="5" t="inlineStr">
         <is>
-          <t>صبحى محمد صبحى شناعه</t>
+          <t>رحيق صالح فائق الطراونه</t>
         </is>
       </c>
       <c r="C117" s="5" t="inlineStr">
@@ -26824,7 +26830,7 @@
       </c>
       <c r="E117" s="5" t="inlineStr">
         <is>
-          <t>200953@med.asu.edu.eg</t>
+          <t>200957@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F117" s="6" t="inlineStr">
@@ -27029,12 +27035,12 @@
     <row r="118" ht="20" customHeight="1">
       <c r="A118" s="5" t="inlineStr">
         <is>
-          <t>200957</t>
+          <t>200962</t>
         </is>
       </c>
       <c r="B118" s="5" t="inlineStr">
         <is>
-          <t>رحيق صالح فائق الطراونه</t>
+          <t>نور زكريا محمد صالح</t>
         </is>
       </c>
       <c r="C118" s="5" t="inlineStr">
@@ -27049,7 +27055,7 @@
       </c>
       <c r="E118" s="5" t="inlineStr">
         <is>
-          <t>200957@med.asu.edu.eg</t>
+          <t>200962@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F118" s="6" t="inlineStr">
@@ -27254,12 +27260,12 @@
     <row r="119" ht="20" customHeight="1">
       <c r="A119" s="5" t="inlineStr">
         <is>
-          <t>200962</t>
+          <t>200965</t>
         </is>
       </c>
       <c r="B119" s="5" t="inlineStr">
         <is>
-          <t>نور زكريا محمد صالح</t>
+          <t>عاصم رافت محمود القضاه</t>
         </is>
       </c>
       <c r="C119" s="5" t="inlineStr">
@@ -27274,7 +27280,7 @@
       </c>
       <c r="E119" s="5" t="inlineStr">
         <is>
-          <t>200962@med.asu.edu.eg</t>
+          <t>200965@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F119" s="6" t="inlineStr">
@@ -27479,12 +27485,12 @@
     <row r="120" ht="20" customHeight="1">
       <c r="A120" s="5" t="inlineStr">
         <is>
-          <t>200965</t>
+          <t>200966</t>
         </is>
       </c>
       <c r="B120" s="5" t="inlineStr">
         <is>
-          <t>عاصم رافت محمود القضاه</t>
+          <t>براءه الطاهر عبد الرازق جمعه</t>
         </is>
       </c>
       <c r="C120" s="5" t="inlineStr">
@@ -27499,7 +27505,7 @@
       </c>
       <c r="E120" s="5" t="inlineStr">
         <is>
-          <t>200965@med.asu.edu.eg</t>
+          <t>200966@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F120" s="6" t="inlineStr">
@@ -27704,12 +27710,12 @@
     <row r="121" ht="20" customHeight="1">
       <c r="A121" s="5" t="inlineStr">
         <is>
-          <t>200966</t>
+          <t>200967</t>
         </is>
       </c>
       <c r="B121" s="5" t="inlineStr">
         <is>
-          <t>براءه الطاهر عبد الرازق جمعه</t>
+          <t>محمود عطى الله حسين الازرق</t>
         </is>
       </c>
       <c r="C121" s="5" t="inlineStr">
@@ -27724,7 +27730,7 @@
       </c>
       <c r="E121" s="5" t="inlineStr">
         <is>
-          <t>200966@med.asu.edu.eg</t>
+          <t>200967@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F121" s="6" t="inlineStr">
@@ -27929,12 +27935,12 @@
     <row r="122" ht="20" customHeight="1">
       <c r="A122" s="5" t="inlineStr">
         <is>
-          <t>200967</t>
+          <t>200988</t>
         </is>
       </c>
       <c r="B122" s="5" t="inlineStr">
         <is>
-          <t>محمود عطى الله حسين الازرق</t>
+          <t>ملاك اسامه عيسى اليتيم</t>
         </is>
       </c>
       <c r="C122" s="5" t="inlineStr">
@@ -27949,7 +27955,7 @@
       </c>
       <c r="E122" s="5" t="inlineStr">
         <is>
-          <t>200967@med.asu.edu.eg</t>
+          <t>200988@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F122" s="6" t="inlineStr">
@@ -28154,12 +28160,12 @@
     <row r="123" ht="20" customHeight="1">
       <c r="A123" s="5" t="inlineStr">
         <is>
-          <t>200988</t>
+          <t>200995</t>
         </is>
       </c>
       <c r="B123" s="5" t="inlineStr">
         <is>
-          <t>ملاك اسامه عيسى اليتيم</t>
+          <t>رزان صلاح سليم المحتسب</t>
         </is>
       </c>
       <c r="C123" s="5" t="inlineStr">
@@ -28174,7 +28180,7 @@
       </c>
       <c r="E123" s="5" t="inlineStr">
         <is>
-          <t>200988@med.asu.edu.eg</t>
+          <t>200995@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F123" s="6" t="inlineStr">
@@ -28379,12 +28385,12 @@
     <row r="124" ht="20" customHeight="1">
       <c r="A124" s="5" t="inlineStr">
         <is>
-          <t>200995</t>
+          <t>200996</t>
         </is>
       </c>
       <c r="B124" s="5" t="inlineStr">
         <is>
-          <t>رزان صلاح سليم المحتسب</t>
+          <t>بلقيس محمود حسين العسولى</t>
         </is>
       </c>
       <c r="C124" s="5" t="inlineStr">
@@ -28399,7 +28405,7 @@
       </c>
       <c r="E124" s="5" t="inlineStr">
         <is>
-          <t>200995@med.asu.edu.eg</t>
+          <t>200996@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F124" s="6" t="inlineStr">
@@ -28604,12 +28610,12 @@
     <row r="125" ht="20" customHeight="1">
       <c r="A125" s="5" t="inlineStr">
         <is>
-          <t>200996</t>
+          <t>201014</t>
         </is>
       </c>
       <c r="B125" s="5" t="inlineStr">
         <is>
-          <t>بلقيس محمود حسين العسولى</t>
+          <t>بسمه احمد زكى على ابراهيم</t>
         </is>
       </c>
       <c r="C125" s="5" t="inlineStr">
@@ -28619,12 +28625,12 @@
       </c>
       <c r="D125" s="5" t="inlineStr">
         <is>
-          <t>B2B2</t>
+          <t>B2C1</t>
         </is>
       </c>
       <c r="E125" s="5" t="inlineStr">
         <is>
-          <t>200996@med.asu.edu.eg</t>
+          <t>201014@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F125" s="6" t="inlineStr">
@@ -28829,12 +28835,12 @@
     <row r="126" ht="20" customHeight="1">
       <c r="A126" s="5" t="inlineStr">
         <is>
-          <t>201014</t>
+          <t>201015</t>
         </is>
       </c>
       <c r="B126" s="5" t="inlineStr">
         <is>
-          <t>بسمه احمد زكى على ابراهيم</t>
+          <t>اسامه فايز احمد الحديدى</t>
         </is>
       </c>
       <c r="C126" s="5" t="inlineStr">
@@ -28849,7 +28855,7 @@
       </c>
       <c r="E126" s="5" t="inlineStr">
         <is>
-          <t>201014@med.asu.edu.eg</t>
+          <t>201015@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F126" s="6" t="inlineStr">
@@ -29054,12 +29060,12 @@
     <row r="127" ht="20" customHeight="1">
       <c r="A127" s="5" t="inlineStr">
         <is>
-          <t>201015</t>
+          <t>201029</t>
         </is>
       </c>
       <c r="B127" s="5" t="inlineStr">
         <is>
-          <t>اسامه فايز احمد الحديدى</t>
+          <t>عماد امين سعيد عزريل</t>
         </is>
       </c>
       <c r="C127" s="5" t="inlineStr">
@@ -29074,7 +29080,7 @@
       </c>
       <c r="E127" s="5" t="inlineStr">
         <is>
-          <t>201015@med.asu.edu.eg</t>
+          <t>201029@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F127" s="6" t="inlineStr">
@@ -29279,12 +29285,12 @@
     <row r="128" ht="20" customHeight="1">
       <c r="A128" s="5" t="inlineStr">
         <is>
-          <t>201029</t>
+          <t>201031</t>
         </is>
       </c>
       <c r="B128" s="5" t="inlineStr">
         <is>
-          <t>عماد امين سعيد عزريل</t>
+          <t>عمر محمد على السيد</t>
         </is>
       </c>
       <c r="C128" s="5" t="inlineStr">
@@ -29299,7 +29305,7 @@
       </c>
       <c r="E128" s="5" t="inlineStr">
         <is>
-          <t>201029@med.asu.edu.eg</t>
+          <t>201031@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F128" s="6" t="inlineStr">
@@ -29504,12 +29510,12 @@
     <row r="129" ht="20" customHeight="1">
       <c r="A129" s="5" t="inlineStr">
         <is>
-          <t>201031</t>
+          <t>201035</t>
         </is>
       </c>
       <c r="B129" s="5" t="inlineStr">
         <is>
-          <t>عمر محمد على السيد</t>
+          <t>نسيبه عبد الرحمن احمد محمد الرباحى</t>
         </is>
       </c>
       <c r="C129" s="5" t="inlineStr">
@@ -29524,7 +29530,7 @@
       </c>
       <c r="E129" s="5" t="inlineStr">
         <is>
-          <t>201031@med.asu.edu.eg</t>
+          <t>201035@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F129" s="6" t="inlineStr">
@@ -29729,12 +29735,12 @@
     <row r="130" ht="20" customHeight="1">
       <c r="A130" s="5" t="inlineStr">
         <is>
-          <t>201035</t>
+          <t>201061</t>
         </is>
       </c>
       <c r="B130" s="5" t="inlineStr">
         <is>
-          <t>نسيبه عبد الرحمن احمد محمد الرباحى</t>
+          <t>عبد اللطيف عدنان احمد</t>
         </is>
       </c>
       <c r="C130" s="5" t="inlineStr">
@@ -29749,7 +29755,7 @@
       </c>
       <c r="E130" s="5" t="inlineStr">
         <is>
-          <t>201035@med.asu.edu.eg</t>
+          <t>201061@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F130" s="6" t="inlineStr">
@@ -29954,12 +29960,12 @@
     <row r="131" ht="20" customHeight="1">
       <c r="A131" s="5" t="inlineStr">
         <is>
-          <t>201061</t>
+          <t>201066</t>
         </is>
       </c>
       <c r="B131" s="5" t="inlineStr">
         <is>
-          <t>عبد اللطيف عدنان احمد</t>
+          <t>راما رفعت عطا ابو شامه</t>
         </is>
       </c>
       <c r="C131" s="5" t="inlineStr">
@@ -29974,7 +29980,7 @@
       </c>
       <c r="E131" s="5" t="inlineStr">
         <is>
-          <t>201061@med.asu.edu.eg</t>
+          <t>201066@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F131" s="6" t="inlineStr">
@@ -30179,12 +30185,12 @@
     <row r="132" ht="20" customHeight="1">
       <c r="A132" s="5" t="inlineStr">
         <is>
-          <t>201066</t>
+          <t>201165</t>
         </is>
       </c>
       <c r="B132" s="5" t="inlineStr">
         <is>
-          <t>راما رفعت عطا ابو شامه</t>
+          <t>منار منصور سلامه عطيه</t>
         </is>
       </c>
       <c r="C132" s="5" t="inlineStr">
@@ -30199,7 +30205,7 @@
       </c>
       <c r="E132" s="5" t="inlineStr">
         <is>
-          <t>201066@med.asu.edu.eg</t>
+          <t>201165@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F132" s="6" t="inlineStr">
@@ -30404,12 +30410,12 @@
     <row r="133" ht="20" customHeight="1">
       <c r="A133" s="5" t="inlineStr">
         <is>
-          <t>201165</t>
+          <t>201202</t>
         </is>
       </c>
       <c r="B133" s="5" t="inlineStr">
         <is>
-          <t>منار منصور سلامه عطيه</t>
+          <t>حازم ياسر خالد صلاحات</t>
         </is>
       </c>
       <c r="C133" s="5" t="inlineStr">
@@ -30424,7 +30430,7 @@
       </c>
       <c r="E133" s="5" t="inlineStr">
         <is>
-          <t>201165@med.asu.edu.eg</t>
+          <t>201202@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F133" s="6" t="inlineStr">
@@ -30629,12 +30635,12 @@
     <row r="134" ht="20" customHeight="1">
       <c r="A134" s="5" t="inlineStr">
         <is>
-          <t>201202</t>
+          <t>201210</t>
         </is>
       </c>
       <c r="B134" s="5" t="inlineStr">
         <is>
-          <t>حازم ياسر خالد صلاحات</t>
+          <t>خالد فوزى سلمان محمد</t>
         </is>
       </c>
       <c r="C134" s="5" t="inlineStr">
@@ -30649,7 +30655,7 @@
       </c>
       <c r="E134" s="5" t="inlineStr">
         <is>
-          <t>201202@med.asu.edu.eg</t>
+          <t>201210@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F134" s="6" t="inlineStr">
@@ -30854,12 +30860,12 @@
     <row r="135" ht="20" customHeight="1">
       <c r="A135" s="5" t="inlineStr">
         <is>
-          <t>201210</t>
+          <t>201214</t>
         </is>
       </c>
       <c r="B135" s="5" t="inlineStr">
         <is>
-          <t>خالد فوزى سلمان محمد</t>
+          <t>سجاد عادل محمد عابدين محمد</t>
         </is>
       </c>
       <c r="C135" s="5" t="inlineStr">
@@ -30874,7 +30880,7 @@
       </c>
       <c r="E135" s="5" t="inlineStr">
         <is>
-          <t>201210@med.asu.edu.eg</t>
+          <t>201214@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F135" s="6" t="inlineStr">
@@ -31079,12 +31085,12 @@
     <row r="136" ht="20" customHeight="1">
       <c r="A136" s="5" t="inlineStr">
         <is>
-          <t>201214</t>
+          <t>201228</t>
         </is>
       </c>
       <c r="B136" s="5" t="inlineStr">
         <is>
-          <t>سجاد عادل محمد عابدين محمد</t>
+          <t>خلود منير علوى عبد الله العولقى</t>
         </is>
       </c>
       <c r="C136" s="5" t="inlineStr">
@@ -31099,7 +31105,7 @@
       </c>
       <c r="E136" s="5" t="inlineStr">
         <is>
-          <t>201214@med.asu.edu.eg</t>
+          <t>201228@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F136" s="6" t="inlineStr">
@@ -31304,12 +31310,12 @@
     <row r="137" ht="20" customHeight="1">
       <c r="A137" s="5" t="inlineStr">
         <is>
-          <t>201228</t>
+          <t>201233</t>
         </is>
       </c>
       <c r="B137" s="5" t="inlineStr">
         <is>
-          <t>خلود منير علوى عبد الله العولقى</t>
+          <t>حنين سليمان منصور اجباره</t>
         </is>
       </c>
       <c r="C137" s="5" t="inlineStr">
@@ -31324,7 +31330,7 @@
       </c>
       <c r="E137" s="5" t="inlineStr">
         <is>
-          <t>201228@med.asu.edu.eg</t>
+          <t>201233@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F137" s="6" t="inlineStr">
@@ -31529,12 +31535,12 @@
     <row r="138" ht="20" customHeight="1">
       <c r="A138" s="5" t="inlineStr">
         <is>
-          <t>201233</t>
+          <t>201234</t>
         </is>
       </c>
       <c r="B138" s="5" t="inlineStr">
         <is>
-          <t>حنين سليمان منصور اجباره</t>
+          <t>فادى عمر رمضان سلمان</t>
         </is>
       </c>
       <c r="C138" s="5" t="inlineStr">
@@ -31549,7 +31555,7 @@
       </c>
       <c r="E138" s="5" t="inlineStr">
         <is>
-          <t>201233@med.asu.edu.eg</t>
+          <t>201234@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F138" s="6" t="inlineStr">
@@ -31754,12 +31760,12 @@
     <row r="139" ht="20" customHeight="1">
       <c r="A139" s="5" t="inlineStr">
         <is>
-          <t>201234</t>
+          <t>201239</t>
         </is>
       </c>
       <c r="B139" s="5" t="inlineStr">
         <is>
-          <t>فادى عمر رمضان سلمان</t>
+          <t>احمد جواد توفيق صوافطه</t>
         </is>
       </c>
       <c r="C139" s="5" t="inlineStr">
@@ -31774,7 +31780,7 @@
       </c>
       <c r="E139" s="5" t="inlineStr">
         <is>
-          <t>201234@med.asu.edu.eg</t>
+          <t>201239@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F139" s="6" t="inlineStr">
@@ -31979,12 +31985,12 @@
     <row r="140" ht="20" customHeight="1">
       <c r="A140" s="5" t="inlineStr">
         <is>
-          <t>201239</t>
+          <t>201243</t>
         </is>
       </c>
       <c r="B140" s="5" t="inlineStr">
         <is>
-          <t>احمد جواد توفيق صوافطه</t>
+          <t>ساره محسن نصار العلاونه</t>
         </is>
       </c>
       <c r="C140" s="5" t="inlineStr">
@@ -31999,7 +32005,7 @@
       </c>
       <c r="E140" s="5" t="inlineStr">
         <is>
-          <t>201239@med.asu.edu.eg</t>
+          <t>201243@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F140" s="6" t="inlineStr">
@@ -32204,12 +32210,12 @@
     <row r="141" ht="20" customHeight="1">
       <c r="A141" s="5" t="inlineStr">
         <is>
-          <t>201243</t>
+          <t>201246</t>
         </is>
       </c>
       <c r="B141" s="5" t="inlineStr">
         <is>
-          <t>ساره محسن نصار العلاونه</t>
+          <t>عباده عز الدين ضيف الله الشواشره</t>
         </is>
       </c>
       <c r="C141" s="5" t="inlineStr">
@@ -32224,7 +32230,7 @@
       </c>
       <c r="E141" s="5" t="inlineStr">
         <is>
-          <t>201243@med.asu.edu.eg</t>
+          <t>201246@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F141" s="6" t="inlineStr">
@@ -32429,12 +32435,12 @@
     <row r="142" ht="20" customHeight="1">
       <c r="A142" s="5" t="inlineStr">
         <is>
-          <t>201246</t>
+          <t>201247</t>
         </is>
       </c>
       <c r="B142" s="5" t="inlineStr">
         <is>
-          <t>عباده عز الدين ضيف الله الشواشره</t>
+          <t>جمانه ابراهيم محمد كلوش</t>
         </is>
       </c>
       <c r="C142" s="5" t="inlineStr">
@@ -32449,7 +32455,7 @@
       </c>
       <c r="E142" s="5" t="inlineStr">
         <is>
-          <t>201246@med.asu.edu.eg</t>
+          <t>201247@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F142" s="6" t="inlineStr">
@@ -32654,12 +32660,12 @@
     <row r="143" ht="20" customHeight="1">
       <c r="A143" s="5" t="inlineStr">
         <is>
-          <t>201247</t>
+          <t>201265</t>
         </is>
       </c>
       <c r="B143" s="5" t="inlineStr">
         <is>
-          <t>جمانه ابراهيم محمد كلوش</t>
+          <t>عبدالله علي طه</t>
         </is>
       </c>
       <c r="C143" s="5" t="inlineStr">
@@ -32674,7 +32680,7 @@
       </c>
       <c r="E143" s="5" t="inlineStr">
         <is>
-          <t>201247@med.asu.edu.eg</t>
+          <t>201265@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F143" s="6" t="inlineStr">
@@ -32879,12 +32885,12 @@
     <row r="144" ht="20" customHeight="1">
       <c r="A144" s="5" t="inlineStr">
         <is>
-          <t>201265</t>
+          <t>201274</t>
         </is>
       </c>
       <c r="B144" s="5" t="inlineStr">
         <is>
-          <t>عبدالله علي طه</t>
+          <t>احمد رضا عبد النبى محمد جبر الزينى</t>
         </is>
       </c>
       <c r="C144" s="5" t="inlineStr">
@@ -32899,7 +32905,7 @@
       </c>
       <c r="E144" s="5" t="inlineStr">
         <is>
-          <t>201265@med.asu.edu.eg</t>
+          <t>201274@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F144" s="6" t="inlineStr">
@@ -33104,12 +33110,12 @@
     <row r="145" ht="20" customHeight="1">
       <c r="A145" s="5" t="inlineStr">
         <is>
-          <t>201274</t>
+          <t>201290</t>
         </is>
       </c>
       <c r="B145" s="5" t="inlineStr">
         <is>
-          <t>احمد رضا عبد النبى محمد جبر الزينى</t>
+          <t>اريج يوسف عثمان عمر</t>
         </is>
       </c>
       <c r="C145" s="5" t="inlineStr">
@@ -33124,7 +33130,7 @@
       </c>
       <c r="E145" s="5" t="inlineStr">
         <is>
-          <t>201274@med.asu.edu.eg</t>
+          <t>201290@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F145" s="6" t="inlineStr">
@@ -33329,12 +33335,12 @@
     <row r="146" ht="20" customHeight="1">
       <c r="A146" s="5" t="inlineStr">
         <is>
-          <t>201290</t>
+          <t>201301</t>
         </is>
       </c>
       <c r="B146" s="5" t="inlineStr">
         <is>
-          <t>اريج يوسف عثمان عمر</t>
+          <t>بشار يوسف محمد على الذمارى</t>
         </is>
       </c>
       <c r="C146" s="5" t="inlineStr">
@@ -33349,7 +33355,7 @@
       </c>
       <c r="E146" s="5" t="inlineStr">
         <is>
-          <t>201290@med.asu.edu.eg</t>
+          <t>201301@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F146" s="6" t="inlineStr">
@@ -33554,12 +33560,12 @@
     <row r="147" ht="20" customHeight="1">
       <c r="A147" s="5" t="inlineStr">
         <is>
-          <t>201301</t>
+          <t>201312</t>
         </is>
       </c>
       <c r="B147" s="5" t="inlineStr">
         <is>
-          <t>بشار يوسف محمد على الذمارى</t>
+          <t>اياس برجس ياسين الزعبى</t>
         </is>
       </c>
       <c r="C147" s="5" t="inlineStr">
@@ -33574,7 +33580,7 @@
       </c>
       <c r="E147" s="5" t="inlineStr">
         <is>
-          <t>201301@med.asu.edu.eg</t>
+          <t>201312@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F147" s="6" t="inlineStr">
@@ -33779,12 +33785,12 @@
     <row r="148" ht="20" customHeight="1">
       <c r="A148" s="5" t="inlineStr">
         <is>
-          <t>201312</t>
+          <t>201322</t>
         </is>
       </c>
       <c r="B148" s="5" t="inlineStr">
         <is>
-          <t>اياس برجس ياسين الزعبى</t>
+          <t>سيف الاسلام بسام محمد فاتح ابو زيتون</t>
         </is>
       </c>
       <c r="C148" s="5" t="inlineStr">
@@ -33799,7 +33805,7 @@
       </c>
       <c r="E148" s="5" t="inlineStr">
         <is>
-          <t>201312@med.asu.edu.eg</t>
+          <t>201322@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F148" s="6" t="inlineStr">
@@ -34004,12 +34010,12 @@
     <row r="149" ht="20" customHeight="1">
       <c r="A149" s="5" t="inlineStr">
         <is>
-          <t>201322</t>
+          <t>201329</t>
         </is>
       </c>
       <c r="B149" s="5" t="inlineStr">
         <is>
-          <t>سيف الاسلام بسام محمد فاتح ابو زيتون</t>
+          <t>احمد مصطفى محمد رحال</t>
         </is>
       </c>
       <c r="C149" s="5" t="inlineStr">
@@ -34024,7 +34030,7 @@
       </c>
       <c r="E149" s="5" t="inlineStr">
         <is>
-          <t>201322@med.asu.edu.eg</t>
+          <t>201329@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F149" s="6" t="inlineStr">
@@ -34229,12 +34235,12 @@
     <row r="150" ht="20" customHeight="1">
       <c r="A150" s="5" t="inlineStr">
         <is>
-          <t>201329</t>
+          <t>201331</t>
         </is>
       </c>
       <c r="B150" s="5" t="inlineStr">
         <is>
-          <t>احمد مصطفى محمد رحال</t>
+          <t>ندى مسعد حسن توفيق</t>
         </is>
       </c>
       <c r="C150" s="5" t="inlineStr">
@@ -34249,7 +34255,7 @@
       </c>
       <c r="E150" s="5" t="inlineStr">
         <is>
-          <t>201329@med.asu.edu.eg</t>
+          <t>201331@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F150" s="6" t="inlineStr">
@@ -34454,12 +34460,12 @@
     <row r="151" ht="20" customHeight="1">
       <c r="A151" s="5" t="inlineStr">
         <is>
-          <t>201331</t>
+          <t>201336</t>
         </is>
       </c>
       <c r="B151" s="5" t="inlineStr">
         <is>
-          <t>ندى مسعد حسن توفيق</t>
+          <t>رولا رائد عطا عليان</t>
         </is>
       </c>
       <c r="C151" s="5" t="inlineStr">
@@ -34474,7 +34480,7 @@
       </c>
       <c r="E151" s="5" t="inlineStr">
         <is>
-          <t>201331@med.asu.edu.eg</t>
+          <t>201336@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F151" s="6" t="inlineStr">
@@ -34679,12 +34685,12 @@
     <row r="152" ht="20" customHeight="1">
       <c r="A152" s="5" t="inlineStr">
         <is>
-          <t>201336</t>
+          <t>201360</t>
         </is>
       </c>
       <c r="B152" s="5" t="inlineStr">
         <is>
-          <t>رولا رائد عطا عليان</t>
+          <t>سجى وائل محمد</t>
         </is>
       </c>
       <c r="C152" s="5" t="inlineStr">
@@ -34699,7 +34705,7 @@
       </c>
       <c r="E152" s="5" t="inlineStr">
         <is>
-          <t>201336@med.asu.edu.eg</t>
+          <t>201360@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F152" s="6" t="inlineStr">
@@ -34904,12 +34910,12 @@
     <row r="153" ht="20" customHeight="1">
       <c r="A153" s="5" t="inlineStr">
         <is>
-          <t>201360</t>
+          <t>201364</t>
         </is>
       </c>
       <c r="B153" s="5" t="inlineStr">
         <is>
-          <t>سجى وائل محمد</t>
+          <t>احمد طلال محمد البطران</t>
         </is>
       </c>
       <c r="C153" s="5" t="inlineStr">
@@ -34924,7 +34930,7 @@
       </c>
       <c r="E153" s="5" t="inlineStr">
         <is>
-          <t>201360@med.asu.edu.eg</t>
+          <t>201364@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F153" s="6" t="inlineStr">
@@ -35129,12 +35135,12 @@
     <row r="154" ht="20" customHeight="1">
       <c r="A154" s="5" t="inlineStr">
         <is>
-          <t>201364</t>
+          <t>201371</t>
         </is>
       </c>
       <c r="B154" s="5" t="inlineStr">
         <is>
-          <t>احمد طلال محمد البطران</t>
+          <t>جهاد هانى محمود احمد غالى</t>
         </is>
       </c>
       <c r="C154" s="5" t="inlineStr">
@@ -35149,7 +35155,7 @@
       </c>
       <c r="E154" s="5" t="inlineStr">
         <is>
-          <t>201364@med.asu.edu.eg</t>
+          <t>201371@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F154" s="6" t="inlineStr">
@@ -35354,12 +35360,12 @@
     <row r="155" ht="20" customHeight="1">
       <c r="A155" s="5" t="inlineStr">
         <is>
-          <t>201371</t>
+          <t>201381</t>
         </is>
       </c>
       <c r="B155" s="5" t="inlineStr">
         <is>
-          <t>جهاد هانى محمود احمد غالى</t>
+          <t>لينا احمد على بن يمين</t>
         </is>
       </c>
       <c r="C155" s="5" t="inlineStr">
@@ -35374,7 +35380,7 @@
       </c>
       <c r="E155" s="5" t="inlineStr">
         <is>
-          <t>201371@med.asu.edu.eg</t>
+          <t>201381@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F155" s="6" t="inlineStr">
@@ -35579,12 +35585,12 @@
     <row r="156" ht="20" customHeight="1">
       <c r="A156" s="5" t="inlineStr">
         <is>
-          <t>201381</t>
+          <t>201416</t>
         </is>
       </c>
       <c r="B156" s="5" t="inlineStr">
         <is>
-          <t>لينا احمد على بن يمين</t>
+          <t>كرم رفيق على عبد النبي</t>
         </is>
       </c>
       <c r="C156" s="5" t="inlineStr">
@@ -35599,7 +35605,7 @@
       </c>
       <c r="E156" s="5" t="inlineStr">
         <is>
-          <t>201381@med.asu.edu.eg</t>
+          <t>201416@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F156" s="6" t="inlineStr">
@@ -35804,12 +35810,12 @@
     <row r="157" ht="20" customHeight="1">
       <c r="A157" s="5" t="inlineStr">
         <is>
-          <t>201416</t>
+          <t>201451</t>
         </is>
       </c>
       <c r="B157" s="5" t="inlineStr">
         <is>
-          <t>كرم رفيق على عبد النبي</t>
+          <t>حسين محمد عبد الله عجينه</t>
         </is>
       </c>
       <c r="C157" s="5" t="inlineStr">
@@ -35824,7 +35830,7 @@
       </c>
       <c r="E157" s="5" t="inlineStr">
         <is>
-          <t>201416@med.asu.edu.eg</t>
+          <t>201451@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F157" s="6" t="inlineStr">
@@ -36029,12 +36035,12 @@
     <row r="158" ht="20" customHeight="1">
       <c r="A158" s="5" t="inlineStr">
         <is>
-          <t>201451</t>
+          <t>201458</t>
         </is>
       </c>
       <c r="B158" s="5" t="inlineStr">
         <is>
-          <t>حسين محمد عبد الله عجينه</t>
+          <t>يونس رافد جاسم</t>
         </is>
       </c>
       <c r="C158" s="5" t="inlineStr">
@@ -36049,7 +36055,7 @@
       </c>
       <c r="E158" s="5" t="inlineStr">
         <is>
-          <t>201451@med.asu.edu.eg</t>
+          <t>201458@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F158" s="6" t="inlineStr">
@@ -36254,12 +36260,12 @@
     <row r="159" ht="20" customHeight="1">
       <c r="A159" s="5" t="inlineStr">
         <is>
-          <t>201458</t>
+          <t>201460</t>
         </is>
       </c>
       <c r="B159" s="5" t="inlineStr">
         <is>
-          <t>يونس رافد جاسم</t>
+          <t>يحيى عادل داود ابو رياله</t>
         </is>
       </c>
       <c r="C159" s="5" t="inlineStr">
@@ -36274,7 +36280,7 @@
       </c>
       <c r="E159" s="5" t="inlineStr">
         <is>
-          <t>201458@med.asu.edu.eg</t>
+          <t>201460@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F159" s="6" t="inlineStr">
@@ -36479,12 +36485,12 @@
     <row r="160" ht="20" customHeight="1">
       <c r="A160" s="5" t="inlineStr">
         <is>
-          <t>201460</t>
+          <t>201479</t>
         </is>
       </c>
       <c r="B160" s="5" t="inlineStr">
         <is>
-          <t>يحيى عادل داود ابو رياله</t>
+          <t>شروق محمد عبد الله المهر</t>
         </is>
       </c>
       <c r="C160" s="5" t="inlineStr">
@@ -36499,7 +36505,7 @@
       </c>
       <c r="E160" s="5" t="inlineStr">
         <is>
-          <t>201460@med.asu.edu.eg</t>
+          <t>201479@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F160" s="6" t="inlineStr">
@@ -36704,12 +36710,12 @@
     <row r="161" ht="20" customHeight="1">
       <c r="A161" s="5" t="inlineStr">
         <is>
-          <t>201479</t>
+          <t>201480</t>
         </is>
       </c>
       <c r="B161" s="5" t="inlineStr">
         <is>
-          <t>شروق محمد عبد الله المهر</t>
+          <t>لقاء ابراهيم الهاشمى عتوسى</t>
         </is>
       </c>
       <c r="C161" s="5" t="inlineStr">
@@ -36724,7 +36730,7 @@
       </c>
       <c r="E161" s="5" t="inlineStr">
         <is>
-          <t>201479@med.asu.edu.eg</t>
+          <t>201480@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F161" s="6" t="inlineStr">
@@ -36929,12 +36935,12 @@
     <row r="162" ht="20" customHeight="1">
       <c r="A162" s="5" t="inlineStr">
         <is>
-          <t>201480</t>
+          <t>201485</t>
         </is>
       </c>
       <c r="B162" s="5" t="inlineStr">
         <is>
-          <t>لقاء ابراهيم الهاشمى عتوسى</t>
+          <t>غزوان محمد شادى غزوان الصنيب</t>
         </is>
       </c>
       <c r="C162" s="5" t="inlineStr">
@@ -36949,7 +36955,7 @@
       </c>
       <c r="E162" s="5" t="inlineStr">
         <is>
-          <t>201480@med.asu.edu.eg</t>
+          <t>201485@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F162" s="6" t="inlineStr">
@@ -37154,12 +37160,12 @@
     <row r="163" ht="20" customHeight="1">
       <c r="A163" s="5" t="inlineStr">
         <is>
-          <t>201485</t>
+          <t>201488</t>
         </is>
       </c>
       <c r="B163" s="5" t="inlineStr">
         <is>
-          <t>غزوان محمد شادى غزوان الصنيب</t>
+          <t>طه محمود ذوقان المطر</t>
         </is>
       </c>
       <c r="C163" s="5" t="inlineStr">
@@ -37174,7 +37180,7 @@
       </c>
       <c r="E163" s="5" t="inlineStr">
         <is>
-          <t>201485@med.asu.edu.eg</t>
+          <t>201488@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F163" s="6" t="inlineStr">
@@ -37379,12 +37385,12 @@
     <row r="164" ht="20" customHeight="1">
       <c r="A164" s="5" t="inlineStr">
         <is>
-          <t>201488</t>
+          <t>201498</t>
         </is>
       </c>
       <c r="B164" s="5" t="inlineStr">
         <is>
-          <t>طه محمود ذوقان المطر</t>
+          <t>اياد اسماعيل عبد الله الشعيبى</t>
         </is>
       </c>
       <c r="C164" s="5" t="inlineStr">
@@ -37399,7 +37405,7 @@
       </c>
       <c r="E164" s="5" t="inlineStr">
         <is>
-          <t>201488@med.asu.edu.eg</t>
+          <t>201498@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F164" s="6" t="inlineStr">
@@ -37604,12 +37610,12 @@
     <row r="165" ht="20" customHeight="1">
       <c r="A165" s="5" t="inlineStr">
         <is>
-          <t>201498</t>
+          <t>201507</t>
         </is>
       </c>
       <c r="B165" s="5" t="inlineStr">
         <is>
-          <t>اياد اسماعيل عبد الله الشعيبى</t>
+          <t>عبد الله احمد سامى</t>
         </is>
       </c>
       <c r="C165" s="5" t="inlineStr">
@@ -37624,7 +37630,7 @@
       </c>
       <c r="E165" s="5" t="inlineStr">
         <is>
-          <t>201498@med.asu.edu.eg</t>
+          <t>201507@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F165" s="6" t="inlineStr">
@@ -37829,12 +37835,12 @@
     <row r="166" ht="20" customHeight="1">
       <c r="A166" s="5" t="inlineStr">
         <is>
-          <t>201507</t>
+          <t>201508</t>
         </is>
       </c>
       <c r="B166" s="5" t="inlineStr">
         <is>
-          <t>عبد الله احمد سامى</t>
+          <t>يمنى احمد خضر الفاضل</t>
         </is>
       </c>
       <c r="C166" s="5" t="inlineStr">
@@ -37849,7 +37855,7 @@
       </c>
       <c r="E166" s="5" t="inlineStr">
         <is>
-          <t>201507@med.asu.edu.eg</t>
+          <t>201508@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F166" s="6" t="inlineStr">
@@ -38054,12 +38060,12 @@
     <row r="167" ht="20" customHeight="1">
       <c r="A167" s="5" t="inlineStr">
         <is>
-          <t>201508</t>
+          <t>201517</t>
         </is>
       </c>
       <c r="B167" s="5" t="inlineStr">
         <is>
-          <t>يمنى احمد خضر الفاضل</t>
+          <t>ايمان سميح احمد عابد</t>
         </is>
       </c>
       <c r="C167" s="5" t="inlineStr">
@@ -38074,7 +38080,7 @@
       </c>
       <c r="E167" s="5" t="inlineStr">
         <is>
-          <t>201508@med.asu.edu.eg</t>
+          <t>201517@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F167" s="6" t="inlineStr">
@@ -38279,12 +38285,12 @@
     <row r="168" ht="20" customHeight="1">
       <c r="A168" s="5" t="inlineStr">
         <is>
-          <t>201517</t>
+          <t>201520</t>
         </is>
       </c>
       <c r="B168" s="5" t="inlineStr">
         <is>
-          <t>ايمان سميح احمد عابد</t>
+          <t>صلاح مازن عبيد</t>
         </is>
       </c>
       <c r="C168" s="5" t="inlineStr">
@@ -38299,7 +38305,7 @@
       </c>
       <c r="E168" s="5" t="inlineStr">
         <is>
-          <t>201517@med.asu.edu.eg</t>
+          <t>201520@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F168" s="6" t="inlineStr">
@@ -38504,12 +38510,12 @@
     <row r="169" ht="20" customHeight="1">
       <c r="A169" s="5" t="inlineStr">
         <is>
-          <t>201520</t>
+          <t>201532</t>
         </is>
       </c>
       <c r="B169" s="5" t="inlineStr">
         <is>
-          <t>صلاح مازن عبيد</t>
+          <t>فارس محمد جمال نهار</t>
         </is>
       </c>
       <c r="C169" s="5" t="inlineStr">
@@ -38524,7 +38530,7 @@
       </c>
       <c r="E169" s="5" t="inlineStr">
         <is>
-          <t>201520@med.asu.edu.eg</t>
+          <t>201532@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F169" s="6" t="inlineStr">
@@ -38729,12 +38735,12 @@
     <row r="170" ht="20" customHeight="1">
       <c r="A170" s="5" t="inlineStr">
         <is>
-          <t>201532</t>
+          <t>201542</t>
         </is>
       </c>
       <c r="B170" s="5" t="inlineStr">
         <is>
-          <t>فارس محمد جمال نهار</t>
+          <t>امل محمود عوض محمد عمر الحنفى</t>
         </is>
       </c>
       <c r="C170" s="5" t="inlineStr">
@@ -38749,7 +38755,7 @@
       </c>
       <c r="E170" s="5" t="inlineStr">
         <is>
-          <t>201532@med.asu.edu.eg</t>
+          <t>201542@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F170" s="6" t="inlineStr">
@@ -38954,12 +38960,12 @@
     <row r="171" ht="20" customHeight="1">
       <c r="A171" s="5" t="inlineStr">
         <is>
-          <t>201542</t>
+          <t>201545</t>
         </is>
       </c>
       <c r="B171" s="5" t="inlineStr">
         <is>
-          <t>امل محمود عوض محمد عمر الحنفى</t>
+          <t>سليمان محمد مجاهد البجلى</t>
         </is>
       </c>
       <c r="C171" s="5" t="inlineStr">
@@ -38974,7 +38980,7 @@
       </c>
       <c r="E171" s="5" t="inlineStr">
         <is>
-          <t>201542@med.asu.edu.eg</t>
+          <t>201545@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F171" s="6" t="inlineStr">
@@ -39179,12 +39185,12 @@
     <row r="172" ht="20" customHeight="1">
       <c r="A172" s="5" t="inlineStr">
         <is>
-          <t>201545</t>
+          <t>201558</t>
         </is>
       </c>
       <c r="B172" s="5" t="inlineStr">
         <is>
-          <t>سليمان محمد مجاهد البجلى</t>
+          <t>ماجد صلاح موسى الخرشه</t>
         </is>
       </c>
       <c r="C172" s="5" t="inlineStr">
@@ -39199,7 +39205,7 @@
       </c>
       <c r="E172" s="5" t="inlineStr">
         <is>
-          <t>201545@med.asu.edu.eg</t>
+          <t>201558@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F172" s="6" t="inlineStr">
@@ -39404,12 +39410,12 @@
     <row r="173" ht="20" customHeight="1">
       <c r="A173" s="5" t="inlineStr">
         <is>
-          <t>201558</t>
+          <t>201560</t>
         </is>
       </c>
       <c r="B173" s="5" t="inlineStr">
         <is>
-          <t>ماجد صلاح موسى الخرشه</t>
+          <t>صهيب محمد عبد الخالق طه</t>
         </is>
       </c>
       <c r="C173" s="5" t="inlineStr">
@@ -39424,7 +39430,7 @@
       </c>
       <c r="E173" s="5" t="inlineStr">
         <is>
-          <t>201558@med.asu.edu.eg</t>
+          <t>201560@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F173" s="6" t="inlineStr">
@@ -39629,12 +39635,12 @@
     <row r="174" ht="20" customHeight="1">
       <c r="A174" s="5" t="inlineStr">
         <is>
-          <t>201560</t>
+          <t>201561</t>
         </is>
       </c>
       <c r="B174" s="5" t="inlineStr">
         <is>
-          <t>صهيب محمد عبد الخالق طه</t>
+          <t>يحيى حسنين حسن زنون</t>
         </is>
       </c>
       <c r="C174" s="5" t="inlineStr">
@@ -39649,7 +39655,7 @@
       </c>
       <c r="E174" s="5" t="inlineStr">
         <is>
-          <t>201560@med.asu.edu.eg</t>
+          <t>201561@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F174" s="6" t="inlineStr">
@@ -39854,12 +39860,12 @@
     <row r="175" ht="20" customHeight="1">
       <c r="A175" s="5" t="inlineStr">
         <is>
-          <t>201561</t>
+          <t>201567</t>
         </is>
       </c>
       <c r="B175" s="5" t="inlineStr">
         <is>
-          <t>يحيى حسنين حسن زنون</t>
+          <t>مها عبد النبى النوبى ابراهيم</t>
         </is>
       </c>
       <c r="C175" s="5" t="inlineStr">
@@ -39874,7 +39880,7 @@
       </c>
       <c r="E175" s="5" t="inlineStr">
         <is>
-          <t>201561@med.asu.edu.eg</t>
+          <t>201567@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F175" s="6" t="inlineStr">
@@ -40079,12 +40085,12 @@
     <row r="176" ht="20" customHeight="1">
       <c r="A176" s="5" t="inlineStr">
         <is>
-          <t>201567</t>
+          <t>201601</t>
         </is>
       </c>
       <c r="B176" s="5" t="inlineStr">
         <is>
-          <t>مها عبد النبى النوبى ابراهيم</t>
+          <t>شوق حزام على حزام</t>
         </is>
       </c>
       <c r="C176" s="5" t="inlineStr">
@@ -40099,7 +40105,7 @@
       </c>
       <c r="E176" s="5" t="inlineStr">
         <is>
-          <t>201567@med.asu.edu.eg</t>
+          <t>201601@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F176" s="6" t="inlineStr">
@@ -40304,12 +40310,12 @@
     <row r="177" ht="20" customHeight="1">
       <c r="A177" s="5" t="inlineStr">
         <is>
-          <t>201601</t>
+          <t>201607</t>
         </is>
       </c>
       <c r="B177" s="5" t="inlineStr">
         <is>
-          <t>شوق حزام على حزام</t>
+          <t>حسام سيف سعيد محمد غالب</t>
         </is>
       </c>
       <c r="C177" s="5" t="inlineStr">
@@ -40319,12 +40325,12 @@
       </c>
       <c r="D177" s="5" t="inlineStr">
         <is>
-          <t>B2C1</t>
+          <t>B2C2</t>
         </is>
       </c>
       <c r="E177" s="5" t="inlineStr">
         <is>
-          <t>201601@med.asu.edu.eg</t>
+          <t>201607@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F177" s="6" t="inlineStr">
@@ -40529,12 +40535,12 @@
     <row r="178" ht="20" customHeight="1">
       <c r="A178" s="5" t="inlineStr">
         <is>
-          <t>201607</t>
+          <t>201616</t>
         </is>
       </c>
       <c r="B178" s="5" t="inlineStr">
         <is>
-          <t>حسام سيف سعيد محمد غالب</t>
+          <t>مجده ابراهيم عبد اللطيف احمد جاد</t>
         </is>
       </c>
       <c r="C178" s="5" t="inlineStr">
@@ -40549,7 +40555,7 @@
       </c>
       <c r="E178" s="5" t="inlineStr">
         <is>
-          <t>201607@med.asu.edu.eg</t>
+          <t>201616@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F178" s="6" t="inlineStr">
@@ -40754,12 +40760,12 @@
     <row r="179" ht="20" customHeight="1">
       <c r="A179" s="5" t="inlineStr">
         <is>
-          <t>201616</t>
+          <t>201617</t>
         </is>
       </c>
       <c r="B179" s="5" t="inlineStr">
         <is>
-          <t>مجده ابراهيم عبد اللطيف احمد جاد</t>
+          <t>رويدا محمود السيد عزب حسانين</t>
         </is>
       </c>
       <c r="C179" s="5" t="inlineStr">
@@ -40774,7 +40780,7 @@
       </c>
       <c r="E179" s="5" t="inlineStr">
         <is>
-          <t>201616@med.asu.edu.eg</t>
+          <t>201617@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F179" s="6" t="inlineStr">
@@ -40979,12 +40985,12 @@
     <row r="180" ht="20" customHeight="1">
       <c r="A180" s="5" t="inlineStr">
         <is>
-          <t>201617</t>
+          <t>201618</t>
         </is>
       </c>
       <c r="B180" s="5" t="inlineStr">
         <is>
-          <t>رويدا محمود السيد عزب حسانين</t>
+          <t>دارين حسام محمد الرفاعى حسنين الشيخ</t>
         </is>
       </c>
       <c r="C180" s="5" t="inlineStr">
@@ -40999,7 +41005,7 @@
       </c>
       <c r="E180" s="5" t="inlineStr">
         <is>
-          <t>201617@med.asu.edu.eg</t>
+          <t>201618@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F180" s="6" t="inlineStr">
@@ -41204,12 +41210,12 @@
     <row r="181" ht="20" customHeight="1">
       <c r="A181" s="5" t="inlineStr">
         <is>
-          <t>201618</t>
+          <t>201619</t>
         </is>
       </c>
       <c r="B181" s="5" t="inlineStr">
         <is>
-          <t>دارين حسام محمد الرفاعى حسنين الشيخ</t>
+          <t>ايمان عطا عبد الحليم مصطفى اسماعيل</t>
         </is>
       </c>
       <c r="C181" s="5" t="inlineStr">
@@ -41224,7 +41230,7 @@
       </c>
       <c r="E181" s="5" t="inlineStr">
         <is>
-          <t>201618@med.asu.edu.eg</t>
+          <t>201619@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F181" s="6" t="inlineStr">
@@ -41429,12 +41435,12 @@
     <row r="182" ht="20" customHeight="1">
       <c r="A182" s="5" t="inlineStr">
         <is>
-          <t>201619</t>
+          <t>201621</t>
         </is>
       </c>
       <c r="B182" s="5" t="inlineStr">
         <is>
-          <t>ايمان عطا عبد الحليم مصطفى اسماعيل</t>
+          <t>خلود كارم محمد سليمان مصطفى</t>
         </is>
       </c>
       <c r="C182" s="5" t="inlineStr">
@@ -41449,7 +41455,7 @@
       </c>
       <c r="E182" s="5" t="inlineStr">
         <is>
-          <t>201619@med.asu.edu.eg</t>
+          <t>201621@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F182" s="6" t="inlineStr">
@@ -41654,12 +41660,12 @@
     <row r="183" ht="20" customHeight="1">
       <c r="A183" s="5" t="inlineStr">
         <is>
-          <t>201621</t>
+          <t>201627</t>
         </is>
       </c>
       <c r="B183" s="5" t="inlineStr">
         <is>
-          <t>خلود كارم محمد سليمان مصطفى</t>
+          <t>محمد محمود رضا السيد حميده</t>
         </is>
       </c>
       <c r="C183" s="5" t="inlineStr">
@@ -41674,7 +41680,7 @@
       </c>
       <c r="E183" s="5" t="inlineStr">
         <is>
-          <t>201621@med.asu.edu.eg</t>
+          <t>201627@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F183" s="6" t="inlineStr">
@@ -41879,12 +41885,12 @@
     <row r="184" ht="20" customHeight="1">
       <c r="A184" s="5" t="inlineStr">
         <is>
-          <t>201627</t>
+          <t>201631</t>
         </is>
       </c>
       <c r="B184" s="5" t="inlineStr">
         <is>
-          <t>محمد محمود رضا السيد حميده</t>
+          <t>محمد ايمن شهدى محمود اسماعيل</t>
         </is>
       </c>
       <c r="C184" s="5" t="inlineStr">
@@ -41899,7 +41905,7 @@
       </c>
       <c r="E184" s="5" t="inlineStr">
         <is>
-          <t>201627@med.asu.edu.eg</t>
+          <t>201631@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F184" s="6" t="inlineStr">
@@ -42104,12 +42110,12 @@
     <row r="185" ht="20" customHeight="1">
       <c r="A185" s="5" t="inlineStr">
         <is>
-          <t>201631</t>
+          <t>201634</t>
         </is>
       </c>
       <c r="B185" s="5" t="inlineStr">
         <is>
-          <t>محمد ايمن شهدى محمود اسماعيل</t>
+          <t>خالد احمد عبد الفتاح عبد القادر البدوى</t>
         </is>
       </c>
       <c r="C185" s="5" t="inlineStr">
@@ -42124,7 +42130,7 @@
       </c>
       <c r="E185" s="5" t="inlineStr">
         <is>
-          <t>201631@med.asu.edu.eg</t>
+          <t>201634@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F185" s="6" t="inlineStr">
@@ -42329,12 +42335,12 @@
     <row r="186" ht="20" customHeight="1">
       <c r="A186" s="5" t="inlineStr">
         <is>
-          <t>201634</t>
+          <t>201640</t>
         </is>
       </c>
       <c r="B186" s="5" t="inlineStr">
         <is>
-          <t>خالد احمد عبد الفتاح عبد القادر البدوى</t>
+          <t>ساره رضا محمد سالم ريان</t>
         </is>
       </c>
       <c r="C186" s="5" t="inlineStr">
@@ -42349,7 +42355,7 @@
       </c>
       <c r="E186" s="5" t="inlineStr">
         <is>
-          <t>201634@med.asu.edu.eg</t>
+          <t>201640@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F186" s="6" t="inlineStr">
@@ -42554,12 +42560,12 @@
     <row r="187" ht="20" customHeight="1">
       <c r="A187" s="5" t="inlineStr">
         <is>
-          <t>201640</t>
+          <t>201642</t>
         </is>
       </c>
       <c r="B187" s="5" t="inlineStr">
         <is>
-          <t>ساره رضا محمد سالم ريان</t>
+          <t>عفاف محسن امين عبد المجيد عبد العال</t>
         </is>
       </c>
       <c r="C187" s="5" t="inlineStr">
@@ -42574,7 +42580,7 @@
       </c>
       <c r="E187" s="5" t="inlineStr">
         <is>
-          <t>201640@med.asu.edu.eg</t>
+          <t>201642@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F187" s="6" t="inlineStr">
@@ -42779,12 +42785,12 @@
     <row r="188" ht="20" customHeight="1">
       <c r="A188" s="5" t="inlineStr">
         <is>
-          <t>201642</t>
+          <t>201645</t>
         </is>
       </c>
       <c r="B188" s="5" t="inlineStr">
         <is>
-          <t>عفاف محسن امين عبد المجيد عبد العال</t>
+          <t>معاذ حسان محمود قاسم</t>
         </is>
       </c>
       <c r="C188" s="5" t="inlineStr">
@@ -42799,7 +42805,7 @@
       </c>
       <c r="E188" s="5" t="inlineStr">
         <is>
-          <t>201642@med.asu.edu.eg</t>
+          <t>201645@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F188" s="6" t="inlineStr">
@@ -43004,12 +43010,12 @@
     <row r="189" ht="20" customHeight="1">
       <c r="A189" s="5" t="inlineStr">
         <is>
-          <t>201645</t>
+          <t>201649</t>
         </is>
       </c>
       <c r="B189" s="5" t="inlineStr">
         <is>
-          <t>معاذ حسان محمود قاسم</t>
+          <t>احمد عبد العاطى فتحى سليمان محمد خالد</t>
         </is>
       </c>
       <c r="C189" s="5" t="inlineStr">
@@ -43024,7 +43030,7 @@
       </c>
       <c r="E189" s="5" t="inlineStr">
         <is>
-          <t>201645@med.asu.edu.eg</t>
+          <t>201649@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F189" s="6" t="inlineStr">
@@ -43229,12 +43235,12 @@
     <row r="190" ht="20" customHeight="1">
       <c r="A190" s="5" t="inlineStr">
         <is>
-          <t>201649</t>
+          <t>201653</t>
         </is>
       </c>
       <c r="B190" s="5" t="inlineStr">
         <is>
-          <t>احمد عبد العاطى فتحى سليمان محمد خالد</t>
+          <t>فارس هانى محمد السيد</t>
         </is>
       </c>
       <c r="C190" s="5" t="inlineStr">
@@ -43249,7 +43255,7 @@
       </c>
       <c r="E190" s="5" t="inlineStr">
         <is>
-          <t>201649@med.asu.edu.eg</t>
+          <t>201653@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F190" s="6" t="inlineStr">
@@ -43454,12 +43460,12 @@
     <row r="191" ht="20" customHeight="1">
       <c r="A191" s="5" t="inlineStr">
         <is>
-          <t>201653</t>
+          <t>201661</t>
         </is>
       </c>
       <c r="B191" s="5" t="inlineStr">
         <is>
-          <t>فارس هانى محمد السيد</t>
+          <t>ايه محمود البهى محمود جمعه</t>
         </is>
       </c>
       <c r="C191" s="5" t="inlineStr">
@@ -43474,7 +43480,7 @@
       </c>
       <c r="E191" s="5" t="inlineStr">
         <is>
-          <t>201653@med.asu.edu.eg</t>
+          <t>201661@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F191" s="6" t="inlineStr">
@@ -43679,12 +43685,12 @@
     <row r="192" ht="20" customHeight="1">
       <c r="A192" s="5" t="inlineStr">
         <is>
-          <t>201661</t>
+          <t>201666</t>
         </is>
       </c>
       <c r="B192" s="5" t="inlineStr">
         <is>
-          <t>ايه محمود البهى محمود جمعه</t>
+          <t>رانيا ياسر عبدالجواد عبد العاطى</t>
         </is>
       </c>
       <c r="C192" s="5" t="inlineStr">
@@ -43699,7 +43705,7 @@
       </c>
       <c r="E192" s="5" t="inlineStr">
         <is>
-          <t>201661@med.asu.edu.eg</t>
+          <t>201666@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F192" s="6" t="inlineStr">
@@ -43904,12 +43910,12 @@
     <row r="193" ht="20" customHeight="1">
       <c r="A193" s="5" t="inlineStr">
         <is>
-          <t>201666</t>
+          <t>201667</t>
         </is>
       </c>
       <c r="B193" s="5" t="inlineStr">
         <is>
-          <t>رانيا ياسر عبدالجواد عبد العاطى</t>
+          <t>ايات اديب سيد احمد دويدار بدره</t>
         </is>
       </c>
       <c r="C193" s="5" t="inlineStr">
@@ -43924,7 +43930,7 @@
       </c>
       <c r="E193" s="5" t="inlineStr">
         <is>
-          <t>201666@med.asu.edu.eg</t>
+          <t>201667@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F193" s="6" t="inlineStr">
@@ -44129,12 +44135,12 @@
     <row r="194" ht="20" customHeight="1">
       <c r="A194" s="5" t="inlineStr">
         <is>
-          <t>201667</t>
+          <t>201668</t>
         </is>
       </c>
       <c r="B194" s="5" t="inlineStr">
         <is>
-          <t>ايات اديب سيد احمد دويدار بدره</t>
+          <t>حنان مجدى عماد ابراهيم الزميتى</t>
         </is>
       </c>
       <c r="C194" s="5" t="inlineStr">
@@ -44149,7 +44155,7 @@
       </c>
       <c r="E194" s="5" t="inlineStr">
         <is>
-          <t>201667@med.asu.edu.eg</t>
+          <t>201668@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F194" s="6" t="inlineStr">
@@ -44354,12 +44360,12 @@
     <row r="195" ht="20" customHeight="1">
       <c r="A195" s="5" t="inlineStr">
         <is>
-          <t>201668</t>
+          <t>201675</t>
         </is>
       </c>
       <c r="B195" s="5" t="inlineStr">
         <is>
-          <t>حنان مجدى عماد ابراهيم الزميتى</t>
+          <t>فداء مصطفى السيد محمد الحداد</t>
         </is>
       </c>
       <c r="C195" s="5" t="inlineStr">
@@ -44374,7 +44380,7 @@
       </c>
       <c r="E195" s="5" t="inlineStr">
         <is>
-          <t>201668@med.asu.edu.eg</t>
+          <t>201675@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F195" s="6" t="inlineStr">
@@ -44579,12 +44585,12 @@
     <row r="196" ht="20" customHeight="1">
       <c r="A196" s="5" t="inlineStr">
         <is>
-          <t>201675</t>
+          <t>201676</t>
         </is>
       </c>
       <c r="B196" s="5" t="inlineStr">
         <is>
-          <t>فداء مصطفى السيد محمد الحداد</t>
+          <t>ساره الحسين محمد محمد السيد</t>
         </is>
       </c>
       <c r="C196" s="5" t="inlineStr">
@@ -44599,7 +44605,7 @@
       </c>
       <c r="E196" s="5" t="inlineStr">
         <is>
-          <t>201675@med.asu.edu.eg</t>
+          <t>201676@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F196" s="6" t="inlineStr">
@@ -44804,12 +44810,12 @@
     <row r="197" ht="20" customHeight="1">
       <c r="A197" s="5" t="inlineStr">
         <is>
-          <t>201676</t>
+          <t>201677</t>
         </is>
       </c>
       <c r="B197" s="5" t="inlineStr">
         <is>
-          <t>ساره الحسين محمد محمد السيد</t>
+          <t>اسماء عبد الحميد رضوان راشد رضوان</t>
         </is>
       </c>
       <c r="C197" s="5" t="inlineStr">
@@ -44824,7 +44830,7 @@
       </c>
       <c r="E197" s="5" t="inlineStr">
         <is>
-          <t>201676@med.asu.edu.eg</t>
+          <t>201677@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F197" s="6" t="inlineStr">
@@ -45029,12 +45035,12 @@
     <row r="198" ht="20" customHeight="1">
       <c r="A198" s="5" t="inlineStr">
         <is>
-          <t>201677</t>
+          <t>201678</t>
         </is>
       </c>
       <c r="B198" s="5" t="inlineStr">
         <is>
-          <t>اسماء عبد الحميد رضوان راشد رضوان</t>
+          <t>دعاء ايمن محمد العيسوى على</t>
         </is>
       </c>
       <c r="C198" s="5" t="inlineStr">
@@ -45049,7 +45055,7 @@
       </c>
       <c r="E198" s="5" t="inlineStr">
         <is>
-          <t>201677@med.asu.edu.eg</t>
+          <t>201678@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F198" s="6" t="inlineStr">
@@ -45254,12 +45260,12 @@
     <row r="199" ht="20" customHeight="1">
       <c r="A199" s="5" t="inlineStr">
         <is>
-          <t>201678</t>
+          <t>201679</t>
         </is>
       </c>
       <c r="B199" s="5" t="inlineStr">
         <is>
-          <t>دعاء ايمن محمد العيسوى على</t>
+          <t>افنان السعيد محمد السيد البرناوى</t>
         </is>
       </c>
       <c r="C199" s="5" t="inlineStr">
@@ -45274,7 +45280,7 @@
       </c>
       <c r="E199" s="5" t="inlineStr">
         <is>
-          <t>201678@med.asu.edu.eg</t>
+          <t>201679@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F199" s="6" t="inlineStr">
@@ -45479,12 +45485,12 @@
     <row r="200" ht="20" customHeight="1">
       <c r="A200" s="5" t="inlineStr">
         <is>
-          <t>201679</t>
+          <t>201680</t>
         </is>
       </c>
       <c r="B200" s="5" t="inlineStr">
         <is>
-          <t>افنان السعيد محمد السيد البرناوى</t>
+          <t>جهاد سلطان على نصر</t>
         </is>
       </c>
       <c r="C200" s="5" t="inlineStr">
@@ -45499,7 +45505,7 @@
       </c>
       <c r="E200" s="5" t="inlineStr">
         <is>
-          <t>201679@med.asu.edu.eg</t>
+          <t>201680@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F200" s="6" t="inlineStr">
@@ -45704,12 +45710,12 @@
     <row r="201" ht="20" customHeight="1">
       <c r="A201" s="5" t="inlineStr">
         <is>
-          <t>201680</t>
+          <t>201681</t>
         </is>
       </c>
       <c r="B201" s="5" t="inlineStr">
         <is>
-          <t>جهاد سلطان على نصر</t>
+          <t>ندى عطيه اسماعيا محمد سليم</t>
         </is>
       </c>
       <c r="C201" s="5" t="inlineStr">
@@ -45724,7 +45730,7 @@
       </c>
       <c r="E201" s="5" t="inlineStr">
         <is>
-          <t>201680@med.asu.edu.eg</t>
+          <t>201681@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F201" s="6" t="inlineStr">
@@ -45929,12 +45935,12 @@
     <row r="202" ht="20" customHeight="1">
       <c r="A202" s="5" t="inlineStr">
         <is>
-          <t>201681</t>
+          <t>201683</t>
         </is>
       </c>
       <c r="B202" s="5" t="inlineStr">
         <is>
-          <t>ندى عطيه اسماعيا محمد سليم</t>
+          <t>فوزيه شعبان محمد احمد خاطر</t>
         </is>
       </c>
       <c r="C202" s="5" t="inlineStr">
@@ -45949,7 +45955,7 @@
       </c>
       <c r="E202" s="5" t="inlineStr">
         <is>
-          <t>201681@med.asu.edu.eg</t>
+          <t>201683@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F202" s="6" t="inlineStr">
@@ -46154,12 +46160,12 @@
     <row r="203" ht="20" customHeight="1">
       <c r="A203" s="5" t="inlineStr">
         <is>
-          <t>201683</t>
+          <t>201686</t>
         </is>
       </c>
       <c r="B203" s="5" t="inlineStr">
         <is>
-          <t>فوزيه شعبان محمد احمد خاطر</t>
+          <t>محمد هانى لطفى سلامه عوده</t>
         </is>
       </c>
       <c r="C203" s="5" t="inlineStr">
@@ -46174,7 +46180,7 @@
       </c>
       <c r="E203" s="5" t="inlineStr">
         <is>
-          <t>201683@med.asu.edu.eg</t>
+          <t>201686@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F203" s="6" t="inlineStr">
@@ -46379,12 +46385,12 @@
     <row r="204" ht="20" customHeight="1">
       <c r="A204" s="5" t="inlineStr">
         <is>
-          <t>201686</t>
+          <t>201690</t>
         </is>
       </c>
       <c r="B204" s="5" t="inlineStr">
         <is>
-          <t>محمد هانى لطفى سلامه عوده</t>
+          <t>علاء السيد الدسوقى السيد الزينى</t>
         </is>
       </c>
       <c r="C204" s="5" t="inlineStr">
@@ -46399,7 +46405,7 @@
       </c>
       <c r="E204" s="5" t="inlineStr">
         <is>
-          <t>201686@med.asu.edu.eg</t>
+          <t>201690@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F204" s="6" t="inlineStr">
@@ -46604,12 +46610,12 @@
     <row r="205" ht="20" customHeight="1">
       <c r="A205" s="5" t="inlineStr">
         <is>
-          <t>201690</t>
+          <t>201694</t>
         </is>
       </c>
       <c r="B205" s="5" t="inlineStr">
         <is>
-          <t>علاء السيد الدسوقى السيد الزينى</t>
+          <t>عامر حسام محمد جاروشه</t>
         </is>
       </c>
       <c r="C205" s="5" t="inlineStr">
@@ -46624,7 +46630,7 @@
       </c>
       <c r="E205" s="5" t="inlineStr">
         <is>
-          <t>201690@med.asu.edu.eg</t>
+          <t>201694@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F205" s="6" t="inlineStr">
@@ -46829,12 +46835,12 @@
     <row r="206" ht="20" customHeight="1">
       <c r="A206" s="5" t="inlineStr">
         <is>
-          <t>201694</t>
+          <t>201715</t>
         </is>
       </c>
       <c r="B206" s="5" t="inlineStr">
         <is>
-          <t>عامر حسام محمد جاروشه</t>
+          <t>محمد المبارك ابراهيم محمد ابراهيم</t>
         </is>
       </c>
       <c r="C206" s="5" t="inlineStr">
@@ -46849,7 +46855,7 @@
       </c>
       <c r="E206" s="5" t="inlineStr">
         <is>
-          <t>201694@med.asu.edu.eg</t>
+          <t>201715@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F206" s="6" t="inlineStr">
@@ -47054,12 +47060,12 @@
     <row r="207" ht="20" customHeight="1">
       <c r="A207" s="5" t="inlineStr">
         <is>
-          <t>201715</t>
+          <t>201763</t>
         </is>
       </c>
       <c r="B207" s="5" t="inlineStr">
         <is>
-          <t>محمد المبارك ابراهيم محمد ابراهيم</t>
+          <t>يوسف مهنى سهيل</t>
         </is>
       </c>
       <c r="C207" s="5" t="inlineStr">
@@ -47074,7 +47080,7 @@
       </c>
       <c r="E207" s="5" t="inlineStr">
         <is>
-          <t>201715@med.asu.edu.eg</t>
+          <t>201763@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F207" s="6" t="inlineStr">
@@ -47279,12 +47285,12 @@
     <row r="208" ht="20" customHeight="1">
       <c r="A208" s="5" t="inlineStr">
         <is>
-          <t>201763</t>
+          <t>201790</t>
         </is>
       </c>
       <c r="B208" s="5" t="inlineStr">
         <is>
-          <t>يوسف مهنى سهيل</t>
+          <t>على عماد حمدى</t>
         </is>
       </c>
       <c r="C208" s="5" t="inlineStr">
@@ -47299,7 +47305,7 @@
       </c>
       <c r="E208" s="5" t="inlineStr">
         <is>
-          <t>201763@med.asu.edu.eg</t>
+          <t>201790@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F208" s="6" t="inlineStr">
@@ -47504,12 +47510,12 @@
     <row r="209" ht="20" customHeight="1">
       <c r="A209" s="5" t="inlineStr">
         <is>
-          <t>201790</t>
+          <t>201796</t>
         </is>
       </c>
       <c r="B209" s="5" t="inlineStr">
         <is>
-          <t>على عماد حمدى</t>
+          <t>سر الختم عبد الرؤوف حسب الرسول محمد</t>
         </is>
       </c>
       <c r="C209" s="5" t="inlineStr">
@@ -47524,7 +47530,7 @@
       </c>
       <c r="E209" s="5" t="inlineStr">
         <is>
-          <t>201790@med.asu.edu.eg</t>
+          <t>201796@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F209" s="6" t="inlineStr">
@@ -47729,12 +47735,12 @@
     <row r="210" ht="20" customHeight="1">
       <c r="A210" s="5" t="inlineStr">
         <is>
-          <t>201796</t>
+          <t>201798</t>
         </is>
       </c>
       <c r="B210" s="5" t="inlineStr">
         <is>
-          <t>سر الختم عبد الرؤوف حسب الرسول محمد</t>
+          <t>عبد الله محمد حسنى قعدان</t>
         </is>
       </c>
       <c r="C210" s="5" t="inlineStr">
@@ -47749,7 +47755,7 @@
       </c>
       <c r="E210" s="5" t="inlineStr">
         <is>
-          <t>201796@med.asu.edu.eg</t>
+          <t>201798@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F210" s="6" t="inlineStr">
@@ -47954,12 +47960,12 @@
     <row r="211" ht="20" customHeight="1">
       <c r="A211" s="5" t="inlineStr">
         <is>
-          <t>201798</t>
+          <t>201814</t>
         </is>
       </c>
       <c r="B211" s="5" t="inlineStr">
         <is>
-          <t>عبد الله محمد حسنى قعدان</t>
+          <t>محمد عبد الحسن سعدون مزهر</t>
         </is>
       </c>
       <c r="C211" s="5" t="inlineStr">
@@ -47974,7 +47980,7 @@
       </c>
       <c r="E211" s="5" t="inlineStr">
         <is>
-          <t>201798@med.asu.edu.eg</t>
+          <t>201814@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F211" s="6" t="inlineStr">
@@ -48179,12 +48185,12 @@
     <row r="212" ht="20" customHeight="1">
       <c r="A212" s="5" t="inlineStr">
         <is>
-          <t>201814</t>
+          <t>201846</t>
         </is>
       </c>
       <c r="B212" s="5" t="inlineStr">
         <is>
-          <t>محمد عبد الحسن سعدون مزهر</t>
+          <t>احمد فرج ابراهيم الساعدي</t>
         </is>
       </c>
       <c r="C212" s="5" t="inlineStr">
@@ -48199,7 +48205,7 @@
       </c>
       <c r="E212" s="5" t="inlineStr">
         <is>
-          <t>201814@med.asu.edu.eg</t>
+          <t>201846@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F212" s="6" t="inlineStr">
@@ -48404,12 +48410,12 @@
     <row r="213" ht="20" customHeight="1">
       <c r="A213" s="5" t="inlineStr">
         <is>
-          <t>201846</t>
+          <t>201847</t>
         </is>
       </c>
       <c r="B213" s="5" t="inlineStr">
         <is>
-          <t>احمد فرج ابراهيم الساعدي</t>
+          <t>على قاسم محمد</t>
         </is>
       </c>
       <c r="C213" s="5" t="inlineStr">
@@ -48424,7 +48430,7 @@
       </c>
       <c r="E213" s="5" t="inlineStr">
         <is>
-          <t>201846@med.asu.edu.eg</t>
+          <t>201847@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F213" s="6" t="inlineStr">
@@ -48629,12 +48635,12 @@
     <row r="214" ht="20" customHeight="1">
       <c r="A214" s="5" t="inlineStr">
         <is>
-          <t>201847</t>
+          <t>201850</t>
         </is>
       </c>
       <c r="B214" s="5" t="inlineStr">
         <is>
-          <t>على قاسم محمد</t>
+          <t>خطاب طالب صالح</t>
         </is>
       </c>
       <c r="C214" s="5" t="inlineStr">
@@ -48649,7 +48655,7 @@
       </c>
       <c r="E214" s="5" t="inlineStr">
         <is>
-          <t>201847@med.asu.edu.eg</t>
+          <t>201850@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F214" s="6" t="inlineStr">
@@ -48854,12 +48860,12 @@
     <row r="215" ht="20" customHeight="1">
       <c r="A215" s="5" t="inlineStr">
         <is>
-          <t>201850</t>
+          <t>201852</t>
         </is>
       </c>
       <c r="B215" s="5" t="inlineStr">
         <is>
-          <t>خطاب طالب صالح</t>
+          <t>عبد العزيز حمود على العقاب الشمرى</t>
         </is>
       </c>
       <c r="C215" s="5" t="inlineStr">
@@ -48874,7 +48880,7 @@
       </c>
       <c r="E215" s="5" t="inlineStr">
         <is>
-          <t>201850@med.asu.edu.eg</t>
+          <t>201852@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F215" s="6" t="inlineStr">
@@ -49079,12 +49085,12 @@
     <row r="216" ht="20" customHeight="1">
       <c r="A216" s="5" t="inlineStr">
         <is>
-          <t>201852</t>
+          <t>201869</t>
         </is>
       </c>
       <c r="B216" s="5" t="inlineStr">
         <is>
-          <t>عبد العزيز حمود على العقاب الشمرى</t>
+          <t>ادهم هشام احمد جاب الله الغزالى</t>
         </is>
       </c>
       <c r="C216" s="5" t="inlineStr">
@@ -49099,7 +49105,7 @@
       </c>
       <c r="E216" s="5" t="inlineStr">
         <is>
-          <t>201852@med.asu.edu.eg</t>
+          <t>201869@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F216" s="6" t="inlineStr">
@@ -49304,12 +49310,12 @@
     <row r="217" ht="20" customHeight="1">
       <c r="A217" s="5" t="inlineStr">
         <is>
-          <t>201869</t>
+          <t>201874</t>
         </is>
       </c>
       <c r="B217" s="5" t="inlineStr">
         <is>
-          <t>ادهم هشام احمد جاب الله الغزالى</t>
+          <t>تهانى محمد طاهر</t>
         </is>
       </c>
       <c r="C217" s="5" t="inlineStr">
@@ -49324,7 +49330,7 @@
       </c>
       <c r="E217" s="5" t="inlineStr">
         <is>
-          <t>201869@med.asu.edu.eg</t>
+          <t>201874@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F217" s="6" t="inlineStr">
@@ -49529,12 +49535,12 @@
     <row r="218" ht="20" customHeight="1">
       <c r="A218" s="5" t="inlineStr">
         <is>
-          <t>201874</t>
+          <t>201882</t>
         </is>
       </c>
       <c r="B218" s="5" t="inlineStr">
         <is>
-          <t>تهانى محمد طاهر</t>
+          <t>على صالح محمد صالح</t>
         </is>
       </c>
       <c r="C218" s="5" t="inlineStr">
@@ -49549,7 +49555,7 @@
       </c>
       <c r="E218" s="5" t="inlineStr">
         <is>
-          <t>201874@med.asu.edu.eg</t>
+          <t>201882@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F218" s="6" t="inlineStr">
@@ -49754,12 +49760,12 @@
     <row r="219" ht="20" customHeight="1">
       <c r="A219" s="5" t="inlineStr">
         <is>
-          <t>201882</t>
+          <t>201885</t>
         </is>
       </c>
       <c r="B219" s="5" t="inlineStr">
         <is>
-          <t>على صالح محمد صالح</t>
+          <t>بشار حمير اجود</t>
         </is>
       </c>
       <c r="C219" s="5" t="inlineStr">
@@ -49774,7 +49780,7 @@
       </c>
       <c r="E219" s="5" t="inlineStr">
         <is>
-          <t>201882@med.asu.edu.eg</t>
+          <t>201885@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F219" s="6" t="inlineStr">
@@ -49979,12 +49985,12 @@
     <row r="220" ht="20" customHeight="1">
       <c r="A220" s="5" t="inlineStr">
         <is>
-          <t>201885</t>
+          <t>201888</t>
         </is>
       </c>
       <c r="B220" s="5" t="inlineStr">
         <is>
-          <t>بشار حمير اجود</t>
+          <t>محمد زهير حمدى زهير زيات</t>
         </is>
       </c>
       <c r="C220" s="5" t="inlineStr">
@@ -49999,7 +50005,7 @@
       </c>
       <c r="E220" s="5" t="inlineStr">
         <is>
-          <t>201885@med.asu.edu.eg</t>
+          <t>201888@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F220" s="6" t="inlineStr">
@@ -50204,12 +50210,12 @@
     <row r="221" ht="20" customHeight="1">
       <c r="A221" s="5" t="inlineStr">
         <is>
-          <t>201888</t>
+          <t>201899</t>
         </is>
       </c>
       <c r="B221" s="5" t="inlineStr">
         <is>
-          <t>محمد زهير حمدى زهير زيات</t>
+          <t>مراد رياض مراد</t>
         </is>
       </c>
       <c r="C221" s="5" t="inlineStr">
@@ -50224,7 +50230,7 @@
       </c>
       <c r="E221" s="5" t="inlineStr">
         <is>
-          <t>201888@med.asu.edu.eg</t>
+          <t>201899@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F221" s="6" t="inlineStr">
@@ -50429,12 +50435,12 @@
     <row r="222" ht="20" customHeight="1">
       <c r="A222" s="5" t="inlineStr">
         <is>
-          <t>201899</t>
+          <t>201902</t>
         </is>
       </c>
       <c r="B222" s="5" t="inlineStr">
         <is>
-          <t>مراد رياض مراد</t>
+          <t>هاديه محمد عثمان سلطان</t>
         </is>
       </c>
       <c r="C222" s="5" t="inlineStr">
@@ -50449,7 +50455,7 @@
       </c>
       <c r="E222" s="5" t="inlineStr">
         <is>
-          <t>201899@med.asu.edu.eg</t>
+          <t>201902@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F222" s="6" t="inlineStr">
@@ -50654,12 +50660,12 @@
     <row r="223" ht="20" customHeight="1">
       <c r="A223" s="5" t="inlineStr">
         <is>
-          <t>201902</t>
+          <t>201921</t>
         </is>
       </c>
       <c r="B223" s="5" t="inlineStr">
         <is>
-          <t>هاديه محمد عثمان سلطان</t>
+          <t>مصطفى زهير حمزه العمشاوي</t>
         </is>
       </c>
       <c r="C223" s="5" t="inlineStr">
@@ -50674,7 +50680,7 @@
       </c>
       <c r="E223" s="5" t="inlineStr">
         <is>
-          <t>201902@med.asu.edu.eg</t>
+          <t>201921@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F223" s="6" t="inlineStr">
@@ -50879,12 +50885,12 @@
     <row r="224" ht="20" customHeight="1">
       <c r="A224" s="5" t="inlineStr">
         <is>
-          <t>201921</t>
+          <t>201942</t>
         </is>
       </c>
       <c r="B224" s="5" t="inlineStr">
         <is>
-          <t>مصطفى زهير حمزه العمشاوي</t>
+          <t>بتول عطا جبر البسيونى</t>
         </is>
       </c>
       <c r="C224" s="5" t="inlineStr">
@@ -50899,7 +50905,7 @@
       </c>
       <c r="E224" s="5" t="inlineStr">
         <is>
-          <t>201921@med.asu.edu.eg</t>
+          <t>201942@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F224" s="6" t="inlineStr">
@@ -51104,12 +51110,12 @@
     <row r="225" ht="20" customHeight="1">
       <c r="A225" s="5" t="inlineStr">
         <is>
-          <t>201942</t>
+          <t>201986</t>
         </is>
       </c>
       <c r="B225" s="5" t="inlineStr">
         <is>
-          <t>بتول عطا جبر البسيونى</t>
+          <t>بنين عادل محمد محمد</t>
         </is>
       </c>
       <c r="C225" s="5" t="inlineStr">
@@ -51124,7 +51130,7 @@
       </c>
       <c r="E225" s="5" t="inlineStr">
         <is>
-          <t>201942@med.asu.edu.eg</t>
+          <t>201986@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F225" s="6" t="inlineStr">
@@ -51329,12 +51335,12 @@
     <row r="226" ht="20" customHeight="1">
       <c r="A226" s="5" t="inlineStr">
         <is>
-          <t>201986</t>
+          <t>201987</t>
         </is>
       </c>
       <c r="B226" s="5" t="inlineStr">
         <is>
-          <t>بنين عادل محمد محمد</t>
+          <t>ذود مظفر محسن بنى عكبه</t>
         </is>
       </c>
       <c r="C226" s="5" t="inlineStr">
@@ -51349,7 +51355,7 @@
       </c>
       <c r="E226" s="5" t="inlineStr">
         <is>
-          <t>201986@med.asu.edu.eg</t>
+          <t>201987@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F226" s="6" t="inlineStr">
@@ -51554,12 +51560,12 @@
     <row r="227" ht="20" customHeight="1">
       <c r="A227" s="5" t="inlineStr">
         <is>
-          <t>201987</t>
+          <t>201993</t>
         </is>
       </c>
       <c r="B227" s="5" t="inlineStr">
         <is>
-          <t>ذود مظفر محسن بنى عكبه</t>
+          <t>على جاسم محمد</t>
         </is>
       </c>
       <c r="C227" s="5" t="inlineStr">
@@ -51574,7 +51580,7 @@
       </c>
       <c r="E227" s="5" t="inlineStr">
         <is>
-          <t>201987@med.asu.edu.eg</t>
+          <t>201993@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F227" s="6" t="inlineStr">
@@ -51779,12 +51785,12 @@
     <row r="228" ht="20" customHeight="1">
       <c r="A228" s="5" t="inlineStr">
         <is>
-          <t>201993</t>
+          <t>180422</t>
         </is>
       </c>
       <c r="B228" s="5" t="inlineStr">
         <is>
-          <t>على جاسم محمد</t>
+          <t>محمود رضا محمود توفيق عبد الصمد</t>
         </is>
       </c>
       <c r="C228" s="5" t="inlineStr">
@@ -51794,12 +51800,12 @@
       </c>
       <c r="D228" s="5" t="inlineStr">
         <is>
-          <t>B2C2</t>
+          <t>B2D1</t>
         </is>
       </c>
       <c r="E228" s="5" t="inlineStr">
         <is>
-          <t>201993@med.asu.edu.eg</t>
+          <t>180422@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F228" s="6" t="inlineStr">
@@ -52004,12 +52010,12 @@
     <row r="229" ht="20" customHeight="1">
       <c r="A229" s="5" t="inlineStr">
         <is>
-          <t>180422</t>
+          <t>180530</t>
         </is>
       </c>
       <c r="B229" s="5" t="inlineStr">
         <is>
-          <t>محمود رضا محمود توفيق عبد الصمد</t>
+          <t>نورا وليد احمد محمد الشنهابى</t>
         </is>
       </c>
       <c r="C229" s="5" t="inlineStr">
@@ -52024,7 +52030,7 @@
       </c>
       <c r="E229" s="5" t="inlineStr">
         <is>
-          <t>180422@med.asu.edu.eg</t>
+          <t>180530@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F229" s="6" t="inlineStr">
@@ -52229,12 +52235,12 @@
     <row r="230" ht="20" customHeight="1">
       <c r="A230" s="5" t="inlineStr">
         <is>
-          <t>180530</t>
+          <t>180653</t>
         </is>
       </c>
       <c r="B230" s="5" t="inlineStr">
         <is>
-          <t>نورا وليد احمد محمد الشنهابى</t>
+          <t>عبد الرحمن خالد احمد عبد الحميد راشد</t>
         </is>
       </c>
       <c r="C230" s="5" t="inlineStr">
@@ -52249,7 +52255,7 @@
       </c>
       <c r="E230" s="5" t="inlineStr">
         <is>
-          <t>180530@med.asu.edu.eg</t>
+          <t>180653@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F230" s="6" t="inlineStr">
@@ -52454,12 +52460,12 @@
     <row r="231" ht="20" customHeight="1">
       <c r="A231" s="5" t="inlineStr">
         <is>
-          <t>180653</t>
+          <t>180752</t>
         </is>
       </c>
       <c r="B231" s="5" t="inlineStr">
         <is>
-          <t>عبد الرحمن خالد احمد عبد الحميد راشد</t>
+          <t>محمد خالد محمد جبريل اسبيتان</t>
         </is>
       </c>
       <c r="C231" s="5" t="inlineStr">
@@ -52474,7 +52480,7 @@
       </c>
       <c r="E231" s="5" t="inlineStr">
         <is>
-          <t>180653@med.asu.edu.eg</t>
+          <t>180752@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F231" s="6" t="inlineStr">
@@ -52679,12 +52685,12 @@
     <row r="232" ht="20" customHeight="1">
       <c r="A232" s="5" t="inlineStr">
         <is>
-          <t>180752</t>
+          <t>180863</t>
         </is>
       </c>
       <c r="B232" s="5" t="inlineStr">
         <is>
-          <t>محمد خالد محمد جبريل اسبيتان</t>
+          <t>محمد احمد عبد العزيز رمضان ابو ضياء</t>
         </is>
       </c>
       <c r="C232" s="5" t="inlineStr">
@@ -52699,7 +52705,7 @@
       </c>
       <c r="E232" s="5" t="inlineStr">
         <is>
-          <t>180752@med.asu.edu.eg</t>
+          <t>180863@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F232" s="6" t="inlineStr">
@@ -52904,12 +52910,12 @@
     <row r="233" ht="20" customHeight="1">
       <c r="A233" s="5" t="inlineStr">
         <is>
-          <t>180863</t>
+          <t>180893</t>
         </is>
       </c>
       <c r="B233" s="5" t="inlineStr">
         <is>
-          <t>محمد احمد عبد العزيز رمضان ابو ضياء</t>
+          <t>دانا فواز رجا الجبور</t>
         </is>
       </c>
       <c r="C233" s="5" t="inlineStr">
@@ -52924,7 +52930,7 @@
       </c>
       <c r="E233" s="5" t="inlineStr">
         <is>
-          <t>180863@med.asu.edu.eg</t>
+          <t>180893@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F233" s="6" t="inlineStr">
@@ -53129,12 +53135,12 @@
     <row r="234" ht="20" customHeight="1">
       <c r="A234" s="5" t="inlineStr">
         <is>
-          <t>180893</t>
+          <t>181006</t>
         </is>
       </c>
       <c r="B234" s="5" t="inlineStr">
         <is>
-          <t>دانا فواز رجا الجبور</t>
+          <t>منصور منصور سالم بواعنه</t>
         </is>
       </c>
       <c r="C234" s="5" t="inlineStr">
@@ -53149,7 +53155,7 @@
       </c>
       <c r="E234" s="5" t="inlineStr">
         <is>
-          <t>180893@med.asu.edu.eg</t>
+          <t>181006@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F234" s="6" t="inlineStr">
@@ -53354,12 +53360,12 @@
     <row r="235" ht="20" customHeight="1">
       <c r="A235" s="5" t="inlineStr">
         <is>
-          <t>181006</t>
+          <t>202024</t>
         </is>
       </c>
       <c r="B235" s="5" t="inlineStr">
         <is>
-          <t>منصور منصور سالم بواعنه</t>
+          <t>محمد عدنان احمد</t>
         </is>
       </c>
       <c r="C235" s="5" t="inlineStr">
@@ -53374,7 +53380,7 @@
       </c>
       <c r="E235" s="5" t="inlineStr">
         <is>
-          <t>181006@med.asu.edu.eg</t>
+          <t>202024@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F235" s="6" t="inlineStr">
@@ -53579,12 +53585,12 @@
     <row r="236" ht="20" customHeight="1">
       <c r="A236" s="5" t="inlineStr">
         <is>
-          <t>202024</t>
+          <t>202029</t>
         </is>
       </c>
       <c r="B236" s="5" t="inlineStr">
         <is>
-          <t>محمد عدنان احمد</t>
+          <t>محمد قيس عبد الساده</t>
         </is>
       </c>
       <c r="C236" s="5" t="inlineStr">
@@ -53599,7 +53605,7 @@
       </c>
       <c r="E236" s="5" t="inlineStr">
         <is>
-          <t>202024@med.asu.edu.eg</t>
+          <t>202029@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F236" s="6" t="inlineStr">
@@ -53804,12 +53810,12 @@
     <row r="237" ht="20" customHeight="1">
       <c r="A237" s="5" t="inlineStr">
         <is>
-          <t>202029</t>
+          <t>202032</t>
         </is>
       </c>
       <c r="B237" s="5" t="inlineStr">
         <is>
-          <t>محمد قيس عبد الساده</t>
+          <t>امجد محمد سالم عتال</t>
         </is>
       </c>
       <c r="C237" s="5" t="inlineStr">
@@ -53824,7 +53830,7 @@
       </c>
       <c r="E237" s="5" t="inlineStr">
         <is>
-          <t>202029@med.asu.edu.eg</t>
+          <t>202032@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F237" s="6" t="inlineStr">
@@ -54029,12 +54035,12 @@
     <row r="238" ht="20" customHeight="1">
       <c r="A238" s="5" t="inlineStr">
         <is>
-          <t>202032</t>
+          <t>202046</t>
         </is>
       </c>
       <c r="B238" s="5" t="inlineStr">
         <is>
-          <t>امجد محمد سالم عتال</t>
+          <t>مريم عبد الرحمن البار</t>
         </is>
       </c>
       <c r="C238" s="5" t="inlineStr">
@@ -54049,7 +54055,7 @@
       </c>
       <c r="E238" s="5" t="inlineStr">
         <is>
-          <t>202032@med.asu.edu.eg</t>
+          <t>202046@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F238" s="6" t="inlineStr">
@@ -54254,12 +54260,12 @@
     <row r="239" ht="20" customHeight="1">
       <c r="A239" s="5" t="inlineStr">
         <is>
-          <t>202046</t>
+          <t>202048</t>
         </is>
       </c>
       <c r="B239" s="5" t="inlineStr">
         <is>
-          <t>مريم عبد الرحمن البار</t>
+          <t>زهراء اسامه يونس</t>
         </is>
       </c>
       <c r="C239" s="5" t="inlineStr">
@@ -54274,7 +54280,7 @@
       </c>
       <c r="E239" s="5" t="inlineStr">
         <is>
-          <t>202046@med.asu.edu.eg</t>
+          <t>202048@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F239" s="6" t="inlineStr">
@@ -54479,12 +54485,12 @@
     <row r="240" ht="20" customHeight="1">
       <c r="A240" s="5" t="inlineStr">
         <is>
-          <t>202048</t>
+          <t>202050</t>
         </is>
       </c>
       <c r="B240" s="5" t="inlineStr">
         <is>
-          <t>زهراء اسامه يونس</t>
+          <t>صالح بسام طليع طليع</t>
         </is>
       </c>
       <c r="C240" s="5" t="inlineStr">
@@ -54499,7 +54505,7 @@
       </c>
       <c r="E240" s="5" t="inlineStr">
         <is>
-          <t>202048@med.asu.edu.eg</t>
+          <t>202050@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F240" s="6" t="inlineStr">
@@ -54704,12 +54710,12 @@
     <row r="241" ht="20" customHeight="1">
       <c r="A241" s="5" t="inlineStr">
         <is>
-          <t>202050</t>
+          <t>202051</t>
         </is>
       </c>
       <c r="B241" s="5" t="inlineStr">
         <is>
-          <t>صالح بسام طليع طليع</t>
+          <t>على باسل اكرم</t>
         </is>
       </c>
       <c r="C241" s="5" t="inlineStr">
@@ -54724,7 +54730,7 @@
       </c>
       <c r="E241" s="5" t="inlineStr">
         <is>
-          <t>202050@med.asu.edu.eg</t>
+          <t>202051@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F241" s="6" t="inlineStr">
@@ -54929,12 +54935,12 @@
     <row r="242" ht="20" customHeight="1">
       <c r="A242" s="5" t="inlineStr">
         <is>
-          <t>202051</t>
+          <t>202054</t>
         </is>
       </c>
       <c r="B242" s="5" t="inlineStr">
         <is>
-          <t>على باسل اكرم</t>
+          <t>صفا كاظم ثامر</t>
         </is>
       </c>
       <c r="C242" s="5" t="inlineStr">
@@ -54949,7 +54955,7 @@
       </c>
       <c r="E242" s="5" t="inlineStr">
         <is>
-          <t>202051@med.asu.edu.eg</t>
+          <t>202054@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F242" s="6" t="inlineStr">
@@ -55154,12 +55160,12 @@
     <row r="243" ht="20" customHeight="1">
       <c r="A243" s="5" t="inlineStr">
         <is>
-          <t>202054</t>
+          <t>202055</t>
         </is>
       </c>
       <c r="B243" s="5" t="inlineStr">
         <is>
-          <t>صفا كاظم ثامر</t>
+          <t>مصطفى داود سلمان</t>
         </is>
       </c>
       <c r="C243" s="5" t="inlineStr">
@@ -55174,7 +55180,7 @@
       </c>
       <c r="E243" s="5" t="inlineStr">
         <is>
-          <t>202054@med.asu.edu.eg</t>
+          <t>202055@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F243" s="6" t="inlineStr">
@@ -55379,12 +55385,12 @@
     <row r="244" ht="20" customHeight="1">
       <c r="A244" s="5" t="inlineStr">
         <is>
-          <t>202055</t>
+          <t>202056</t>
         </is>
       </c>
       <c r="B244" s="5" t="inlineStr">
         <is>
-          <t>مصطفى داود سلمان</t>
+          <t>على صلاح على الجبوري</t>
         </is>
       </c>
       <c r="C244" s="5" t="inlineStr">
@@ -55399,7 +55405,7 @@
       </c>
       <c r="E244" s="5" t="inlineStr">
         <is>
-          <t>202055@med.asu.edu.eg</t>
+          <t>202056@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F244" s="6" t="inlineStr">
@@ -55604,12 +55610,12 @@
     <row r="245" ht="20" customHeight="1">
       <c r="A245" s="5" t="inlineStr">
         <is>
-          <t>202056</t>
+          <t>202064</t>
         </is>
       </c>
       <c r="B245" s="5" t="inlineStr">
         <is>
-          <t>على صلاح على الجبوري</t>
+          <t>سلمى الماحى با بكر الجاك</t>
         </is>
       </c>
       <c r="C245" s="5" t="inlineStr">
@@ -55624,7 +55630,7 @@
       </c>
       <c r="E245" s="5" t="inlineStr">
         <is>
-          <t>202056@med.asu.edu.eg</t>
+          <t>202064@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F245" s="6" t="inlineStr">
@@ -55829,12 +55835,12 @@
     <row r="246" ht="20" customHeight="1">
       <c r="A246" s="5" t="inlineStr">
         <is>
-          <t>202064</t>
+          <t>202115</t>
         </is>
       </c>
       <c r="B246" s="5" t="inlineStr">
         <is>
-          <t>سلمى الماحى با بكر الجاك</t>
+          <t>محمد عبد الناصر المغربي</t>
         </is>
       </c>
       <c r="C246" s="5" t="inlineStr">
@@ -55849,7 +55855,7 @@
       </c>
       <c r="E246" s="5" t="inlineStr">
         <is>
-          <t>202064@med.asu.edu.eg</t>
+          <t>202115@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F246" s="6" t="inlineStr">
@@ -56054,12 +56060,12 @@
     <row r="247" ht="20" customHeight="1">
       <c r="A247" s="5" t="inlineStr">
         <is>
-          <t>202115</t>
+          <t>202196</t>
         </is>
       </c>
       <c r="B247" s="5" t="inlineStr">
         <is>
-          <t>محمد عبد الناصر المغربي</t>
+          <t>ساره حسن عبده عبد الحليم حسن</t>
         </is>
       </c>
       <c r="C247" s="5" t="inlineStr">
@@ -56074,7 +56080,7 @@
       </c>
       <c r="E247" s="5" t="inlineStr">
         <is>
-          <t>202115@med.asu.edu.eg</t>
+          <t>202196@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F247" s="6" t="inlineStr">
@@ -56279,12 +56285,12 @@
     <row r="248" ht="20" customHeight="1">
       <c r="A248" s="5" t="inlineStr">
         <is>
-          <t>202196</t>
+          <t>210339</t>
         </is>
       </c>
       <c r="B248" s="5" t="inlineStr">
         <is>
-          <t>ساره حسن عبده عبد الحليم حسن</t>
+          <t>احمد محمود محمود عبداللطيف الشايب</t>
         </is>
       </c>
       <c r="C248" s="5" t="inlineStr">
@@ -56299,7 +56305,7 @@
       </c>
       <c r="E248" s="5" t="inlineStr">
         <is>
-          <t>202196@med.asu.edu.eg</t>
+          <t>210339@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F248" s="6" t="inlineStr">
@@ -56504,12 +56510,12 @@
     <row r="249" ht="20" customHeight="1">
       <c r="A249" s="5" t="inlineStr">
         <is>
-          <t>210339</t>
+          <t>210452</t>
         </is>
       </c>
       <c r="B249" s="5" t="inlineStr">
         <is>
-          <t>احمد محمود محمود عبداللطيف الشايب</t>
+          <t>رحمه محمد عبد الفتاح حسن</t>
         </is>
       </c>
       <c r="C249" s="5" t="inlineStr">
@@ -56524,7 +56530,7 @@
       </c>
       <c r="E249" s="5" t="inlineStr">
         <is>
-          <t>210339@med.asu.edu.eg</t>
+          <t>210452@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F249" s="6" t="inlineStr">
@@ -56729,12 +56735,12 @@
     <row r="250" ht="20" customHeight="1">
       <c r="A250" s="5" t="inlineStr">
         <is>
-          <t>210452</t>
+          <t>210728</t>
         </is>
       </c>
       <c r="B250" s="5" t="inlineStr">
         <is>
-          <t>رحمه محمد عبد الفتاح حسن</t>
+          <t>ندى احمد عقل على</t>
         </is>
       </c>
       <c r="C250" s="5" t="inlineStr">
@@ -56749,7 +56755,7 @@
       </c>
       <c r="E250" s="5" t="inlineStr">
         <is>
-          <t>210452@med.asu.edu.eg</t>
+          <t>210728@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F250" s="6" t="inlineStr">
@@ -56954,12 +56960,12 @@
     <row r="251" ht="20" customHeight="1">
       <c r="A251" s="5" t="inlineStr">
         <is>
-          <t>210728</t>
+          <t>211290</t>
         </is>
       </c>
       <c r="B251" s="5" t="inlineStr">
         <is>
-          <t>ندى احمد عقل على</t>
+          <t>اروى سر الختم ادم محى الدين</t>
         </is>
       </c>
       <c r="C251" s="5" t="inlineStr">
@@ -56974,7 +56980,7 @@
       </c>
       <c r="E251" s="5" t="inlineStr">
         <is>
-          <t>210728@med.asu.edu.eg</t>
+          <t>211290@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F251" s="6" t="inlineStr">
@@ -57179,12 +57185,12 @@
     <row r="252" ht="20" customHeight="1">
       <c r="A252" s="5" t="inlineStr">
         <is>
-          <t>211290</t>
+          <t>212024</t>
         </is>
       </c>
       <c r="B252" s="5" t="inlineStr">
         <is>
-          <t>اروى سر الختم ادم محى الدين</t>
+          <t>مرح كمال احمد المصرى</t>
         </is>
       </c>
       <c r="C252" s="5" t="inlineStr">
@@ -57199,7 +57205,7 @@
       </c>
       <c r="E252" s="5" t="inlineStr">
         <is>
-          <t>211290@med.asu.edu.eg</t>
+          <t>212024@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F252" s="6" t="inlineStr">
@@ -57404,12 +57410,12 @@
     <row r="253" ht="20" customHeight="1">
       <c r="A253" s="5" t="inlineStr">
         <is>
-          <t>212024</t>
+          <t>212048</t>
         </is>
       </c>
       <c r="B253" s="5" t="inlineStr">
         <is>
-          <t>مرح كمال احمد المصرى</t>
+          <t>اسماء عبد القادر عثمان</t>
         </is>
       </c>
       <c r="C253" s="5" t="inlineStr">
@@ -57424,7 +57430,7 @@
       </c>
       <c r="E253" s="5" t="inlineStr">
         <is>
-          <t>212024@med.asu.edu.eg</t>
+          <t>212048@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F253" s="6" t="inlineStr">
@@ -57629,12 +57635,12 @@
     <row r="254" ht="20" customHeight="1">
       <c r="A254" s="5" t="inlineStr">
         <is>
-          <t>212048</t>
+          <t>212056</t>
         </is>
       </c>
       <c r="B254" s="5" t="inlineStr">
         <is>
-          <t>اسماء عبد القادر عثمان</t>
+          <t>سنا احمد ضائع</t>
         </is>
       </c>
       <c r="C254" s="5" t="inlineStr">
@@ -57649,7 +57655,7 @@
       </c>
       <c r="E254" s="5" t="inlineStr">
         <is>
-          <t>212048@med.asu.edu.eg</t>
+          <t>212056@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F254" s="6" t="inlineStr">
@@ -57854,12 +57860,12 @@
     <row r="255" ht="20" customHeight="1">
       <c r="A255" s="5" t="inlineStr">
         <is>
-          <t>212056</t>
+          <t>212075</t>
         </is>
       </c>
       <c r="B255" s="5" t="inlineStr">
         <is>
-          <t>سنا احمد ضائع</t>
+          <t>دانه حابس علي محمد سعيد الطيري</t>
         </is>
       </c>
       <c r="C255" s="5" t="inlineStr">
@@ -57874,7 +57880,7 @@
       </c>
       <c r="E255" s="5" t="inlineStr">
         <is>
-          <t>212056@med.asu.edu.eg</t>
+          <t>212075@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F255" s="6" t="inlineStr">
@@ -58079,12 +58085,12 @@
     <row r="256" ht="20" customHeight="1">
       <c r="A256" s="5" t="inlineStr">
         <is>
-          <t>212075</t>
+          <t>180047</t>
         </is>
       </c>
       <c r="B256" s="5" t="inlineStr">
         <is>
-          <t>دانه حابس علي محمد سعيد الطيري</t>
+          <t>اجمد محمد علي العساسي</t>
         </is>
       </c>
       <c r="C256" s="5" t="inlineStr">
@@ -58094,12 +58100,12 @@
       </c>
       <c r="D256" s="5" t="inlineStr">
         <is>
-          <t>B2D1</t>
+          <t>B2D2</t>
         </is>
       </c>
       <c r="E256" s="5" t="inlineStr">
         <is>
-          <t>212075@med.asu.edu.eg</t>
+          <t>180047@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F256" s="6" t="inlineStr">
@@ -58304,12 +58310,12 @@
     <row r="257" ht="20" customHeight="1">
       <c r="A257" s="5" t="inlineStr">
         <is>
-          <t>180047</t>
+          <t>181002</t>
         </is>
       </c>
       <c r="B257" s="5" t="inlineStr">
         <is>
-          <t>محمد عصام محمد احمد</t>
+          <t>سعد سلطان سعد الخدام</t>
         </is>
       </c>
       <c r="C257" s="5" t="inlineStr">
@@ -58324,7 +58330,7 @@
       </c>
       <c r="E257" s="5" t="inlineStr">
         <is>
-          <t>180047@med.asu.edu.eg</t>
+          <t>181002@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F257" s="6" t="inlineStr">
@@ -58529,12 +58535,12 @@
     <row r="258" ht="20" customHeight="1">
       <c r="A258" s="5" t="inlineStr">
         <is>
-          <t>181002</t>
+          <t>190007</t>
         </is>
       </c>
       <c r="B258" s="5" t="inlineStr">
         <is>
-          <t>ود عبدالله فحيمان البلوي</t>
+          <t>احمد احمد سيد احمد سيد الشحرى</t>
         </is>
       </c>
       <c r="C258" s="5" t="inlineStr">
@@ -58549,7 +58555,7 @@
       </c>
       <c r="E258" s="5" t="inlineStr">
         <is>
-          <t>181002@med.asu.edu.eg</t>
+          <t>190007@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F258" s="6" t="inlineStr">
@@ -58754,12 +58760,12 @@
     <row r="259" ht="20" customHeight="1">
       <c r="A259" s="5" t="inlineStr">
         <is>
-          <t>190007</t>
+          <t>190043</t>
         </is>
       </c>
       <c r="B259" s="5" t="inlineStr">
         <is>
-          <t>احمد احمد سيد احمد سيد الشحرى</t>
+          <t>احمد ياسر مصلح ابراهيم العطارى</t>
         </is>
       </c>
       <c r="C259" s="5" t="inlineStr">
@@ -58774,7 +58780,7 @@
       </c>
       <c r="E259" s="5" t="inlineStr">
         <is>
-          <t>190007@med.asu.edu.eg</t>
+          <t>190043@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F259" s="6" t="inlineStr">
@@ -58979,12 +58985,12 @@
     <row r="260" ht="20" customHeight="1">
       <c r="A260" s="5" t="inlineStr">
         <is>
-          <t>190043</t>
+          <t>190066</t>
         </is>
       </c>
       <c r="B260" s="5" t="inlineStr">
         <is>
-          <t>احمد ياسر مصلح ابراهيم العطارى</t>
+          <t>الاء عبد المعز الدسوقى محمد</t>
         </is>
       </c>
       <c r="C260" s="5" t="inlineStr">
@@ -58999,7 +59005,7 @@
       </c>
       <c r="E260" s="5" t="inlineStr">
         <is>
-          <t>190043@med.asu.edu.eg</t>
+          <t>190066@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F260" s="6" t="inlineStr">
@@ -59204,12 +59210,12 @@
     <row r="261" ht="20" customHeight="1">
       <c r="A261" s="5" t="inlineStr">
         <is>
-          <t>190066</t>
+          <t>190212</t>
         </is>
       </c>
       <c r="B261" s="5" t="inlineStr">
         <is>
-          <t>الاء عبد المعز الدسوقى محمد</t>
+          <t>سلمى عبد الحميد محمد عبد الحميد سليمان</t>
         </is>
       </c>
       <c r="C261" s="5" t="inlineStr">
@@ -59224,7 +59230,7 @@
       </c>
       <c r="E261" s="5" t="inlineStr">
         <is>
-          <t>190066@med.asu.edu.eg</t>
+          <t>190212@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F261" s="6" t="inlineStr">
@@ -59429,12 +59435,12 @@
     <row r="262" ht="20" customHeight="1">
       <c r="A262" s="5" t="inlineStr">
         <is>
-          <t>190212</t>
+          <t>190218</t>
         </is>
       </c>
       <c r="B262" s="5" t="inlineStr">
         <is>
-          <t>سلمى عبد الحميد محمد عبد الحميد سليمان</t>
+          <t>سما عصام عبد الرحمن محمد مصطفى باشا</t>
         </is>
       </c>
       <c r="C262" s="5" t="inlineStr">
@@ -59449,7 +59455,7 @@
       </c>
       <c r="E262" s="5" t="inlineStr">
         <is>
-          <t>190212@med.asu.edu.eg</t>
+          <t>190218@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F262" s="6" t="inlineStr">
@@ -59654,12 +59660,12 @@
     <row r="263" ht="20" customHeight="1">
       <c r="A263" s="5" t="inlineStr">
         <is>
-          <t>190218</t>
+          <t>190219</t>
         </is>
       </c>
       <c r="B263" s="5" t="inlineStr">
         <is>
-          <t>سما عصام عبد الرحمن محمد مصطفى باشا</t>
+          <t>سماء محمود متولى رجب</t>
         </is>
       </c>
       <c r="C263" s="5" t="inlineStr">
@@ -59674,7 +59680,7 @@
       </c>
       <c r="E263" s="5" t="inlineStr">
         <is>
-          <t>190218@med.asu.edu.eg</t>
+          <t>190219@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F263" s="6" t="inlineStr">
@@ -59879,12 +59885,12 @@
     <row r="264" ht="20" customHeight="1">
       <c r="A264" s="5" t="inlineStr">
         <is>
-          <t>190219</t>
+          <t>190250</t>
         </is>
       </c>
       <c r="B264" s="5" t="inlineStr">
         <is>
-          <t>سماء محمود متولى رجب</t>
+          <t>عبد الله سمير عاشور ابراهيم</t>
         </is>
       </c>
       <c r="C264" s="5" t="inlineStr">
@@ -59899,7 +59905,7 @@
       </c>
       <c r="E264" s="5" t="inlineStr">
         <is>
-          <t>190219@med.asu.edu.eg</t>
+          <t>190250@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F264" s="6" t="inlineStr">
@@ -60104,12 +60110,12 @@
     <row r="265" ht="20" customHeight="1">
       <c r="A265" s="5" t="inlineStr">
         <is>
-          <t>190250</t>
+          <t>190303</t>
         </is>
       </c>
       <c r="B265" s="5" t="inlineStr">
         <is>
-          <t>عبد الله سمير عاشور ابراهيم</t>
+          <t>لارا علاء محمد السيد سليمان القاضى</t>
         </is>
       </c>
       <c r="C265" s="5" t="inlineStr">
@@ -60124,7 +60130,7 @@
       </c>
       <c r="E265" s="5" t="inlineStr">
         <is>
-          <t>190250@med.asu.edu.eg</t>
+          <t>190303@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F265" s="6" t="inlineStr">
@@ -60329,12 +60335,12 @@
     <row r="266" ht="20" customHeight="1">
       <c r="A266" s="5" t="inlineStr">
         <is>
-          <t>190303</t>
+          <t>190333</t>
         </is>
       </c>
       <c r="B266" s="5" t="inlineStr">
         <is>
-          <t>لارا علاء محمد السيد سليمان القاضى</t>
+          <t>محمد خالد سيد منصور حسن</t>
         </is>
       </c>
       <c r="C266" s="5" t="inlineStr">
@@ -60349,7 +60355,7 @@
       </c>
       <c r="E266" s="5" t="inlineStr">
         <is>
-          <t>190303@med.asu.edu.eg</t>
+          <t>190333@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F266" s="6" t="inlineStr">
@@ -60554,12 +60560,12 @@
     <row r="267" ht="20" customHeight="1">
       <c r="A267" s="5" t="inlineStr">
         <is>
-          <t>190333</t>
+          <t>190342</t>
         </is>
       </c>
       <c r="B267" s="5" t="inlineStr">
         <is>
-          <t>محمد خالد سيد منصور حسن</t>
+          <t>محمد عصام محمد احمد</t>
         </is>
       </c>
       <c r="C267" s="5" t="inlineStr">
@@ -60574,7 +60580,7 @@
       </c>
       <c r="E267" s="5" t="inlineStr">
         <is>
-          <t>190333@med.asu.edu.eg</t>
+          <t>190342@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F267" s="6" t="inlineStr">
@@ -60779,12 +60785,12 @@
     <row r="268" ht="20" customHeight="1">
       <c r="A268" s="5" t="inlineStr">
         <is>
-          <t>190342</t>
+          <t>190356</t>
         </is>
       </c>
       <c r="B268" s="5" t="inlineStr">
         <is>
-          <t>محمد امجد برجاس</t>
+          <t>محمد هشام محمد كامل عبد الحميد</t>
         </is>
       </c>
       <c r="C268" s="5" t="inlineStr">
@@ -60799,7 +60805,7 @@
       </c>
       <c r="E268" s="5" t="inlineStr">
         <is>
-          <t>190342@med.asu.edu.eg</t>
+          <t>190356@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F268" s="6" t="inlineStr">
@@ -61004,12 +61010,12 @@
     <row r="269" ht="20" customHeight="1">
       <c r="A269" s="5" t="inlineStr">
         <is>
-          <t>190356</t>
+          <t>190387</t>
         </is>
       </c>
       <c r="B269" s="5" t="inlineStr">
         <is>
-          <t>محمد هشام محمد كامل عبد الحميد</t>
+          <t>مريم شعبان سيد شعبان محمد</t>
         </is>
       </c>
       <c r="C269" s="5" t="inlineStr">
@@ -61024,7 +61030,7 @@
       </c>
       <c r="E269" s="5" t="inlineStr">
         <is>
-          <t>190356@med.asu.edu.eg</t>
+          <t>190387@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F269" s="6" t="inlineStr">
@@ -61229,12 +61235,12 @@
     <row r="270" ht="20" customHeight="1">
       <c r="A270" s="5" t="inlineStr">
         <is>
-          <t>190387</t>
+          <t>190427</t>
         </is>
       </c>
       <c r="B270" s="5" t="inlineStr">
         <is>
-          <t>مريم شعبان سيد شعبان محمد</t>
+          <t>منى رمضان محمد عبد الوهاب السيد</t>
         </is>
       </c>
       <c r="C270" s="5" t="inlineStr">
@@ -61249,7 +61255,7 @@
       </c>
       <c r="E270" s="5" t="inlineStr">
         <is>
-          <t>190387@med.asu.edu.eg</t>
+          <t>190427@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F270" s="6" t="inlineStr">
@@ -61454,12 +61460,12 @@
     <row r="271" ht="20" customHeight="1">
       <c r="A271" s="5" t="inlineStr">
         <is>
-          <t>190427</t>
+          <t>190530</t>
         </is>
       </c>
       <c r="B271" s="5" t="inlineStr">
         <is>
-          <t>منى رمضان محمد عبد الوهاب السيد</t>
+          <t>خالد محمد ابراهيم الدسوقى غنيم</t>
         </is>
       </c>
       <c r="C271" s="5" t="inlineStr">
@@ -61474,7 +61480,7 @@
       </c>
       <c r="E271" s="5" t="inlineStr">
         <is>
-          <t>190427@med.asu.edu.eg</t>
+          <t>190530@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F271" s="6" t="inlineStr">
@@ -61679,12 +61685,12 @@
     <row r="272" ht="20" customHeight="1">
       <c r="A272" s="5" t="inlineStr">
         <is>
-          <t>190530</t>
+          <t>190561</t>
         </is>
       </c>
       <c r="B272" s="5" t="inlineStr">
         <is>
-          <t>خالد محمد ابراهيم الدسوقى غنيم</t>
+          <t>رنا ممدوح محمد المصرى</t>
         </is>
       </c>
       <c r="C272" s="5" t="inlineStr">
@@ -61699,7 +61705,7 @@
       </c>
       <c r="E272" s="5" t="inlineStr">
         <is>
-          <t>190530@med.asu.edu.eg</t>
+          <t>190561@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F272" s="6" t="inlineStr">
@@ -61904,12 +61910,12 @@
     <row r="273" ht="20" customHeight="1">
       <c r="A273" s="5" t="inlineStr">
         <is>
-          <t>190561</t>
+          <t>190722</t>
         </is>
       </c>
       <c r="B273" s="5" t="inlineStr">
         <is>
-          <t>رنا ممدوح محمد المصرى</t>
+          <t>عمر عادل عيسى المحاميد</t>
         </is>
       </c>
       <c r="C273" s="5" t="inlineStr">
@@ -61924,7 +61930,7 @@
       </c>
       <c r="E273" s="5" t="inlineStr">
         <is>
-          <t>190561@med.asu.edu.eg</t>
+          <t>190722@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F273" s="6" t="inlineStr">
@@ -62129,12 +62135,12 @@
     <row r="274" ht="20" customHeight="1">
       <c r="A274" s="5" t="inlineStr">
         <is>
-          <t>190722</t>
+          <t>190759</t>
         </is>
       </c>
       <c r="B274" s="5" t="inlineStr">
         <is>
-          <t>عمر عادل عيسى المحاميد</t>
+          <t>عبد الرحمن ابراهيم حماد عنيزات</t>
         </is>
       </c>
       <c r="C274" s="5" t="inlineStr">
@@ -62149,7 +62155,7 @@
       </c>
       <c r="E274" s="5" t="inlineStr">
         <is>
-          <t>190722@med.asu.edu.eg</t>
+          <t>190759@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F274" s="6" t="inlineStr">
@@ -62354,12 +62360,12 @@
     <row r="275" ht="20" customHeight="1">
       <c r="A275" s="5" t="inlineStr">
         <is>
-          <t>190759</t>
+          <t>190779</t>
         </is>
       </c>
       <c r="B275" s="5" t="inlineStr">
         <is>
-          <t>عبد الرحمن ابراهيم حماد عنيزات</t>
+          <t>منار عزو عبد العزيز شراونه</t>
         </is>
       </c>
       <c r="C275" s="5" t="inlineStr">
@@ -62374,7 +62380,7 @@
       </c>
       <c r="E275" s="5" t="inlineStr">
         <is>
-          <t>190759@med.asu.edu.eg</t>
+          <t>190779@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F275" s="6" t="inlineStr">
@@ -62579,12 +62585,12 @@
     <row r="276" ht="20" customHeight="1">
       <c r="A276" s="5" t="inlineStr">
         <is>
-          <t>190779</t>
+          <t>190785</t>
         </is>
       </c>
       <c r="B276" s="5" t="inlineStr">
         <is>
-          <t>منار عزو عبد العزيز شراونه</t>
+          <t>ود عبدالله فحيمان البلوي</t>
         </is>
       </c>
       <c r="C276" s="5" t="inlineStr">
@@ -62599,7 +62605,7 @@
       </c>
       <c r="E276" s="5" t="inlineStr">
         <is>
-          <t>190779@med.asu.edu.eg</t>
+          <t>190785@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F276" s="6" t="inlineStr">
@@ -62804,12 +62810,12 @@
     <row r="277" ht="20" customHeight="1">
       <c r="A277" s="5" t="inlineStr">
         <is>
-          <t>190785</t>
+          <t>190795</t>
         </is>
       </c>
       <c r="B277" s="5" t="inlineStr">
         <is>
-          <t>محمد مصطفى عبداللطيف</t>
+          <t>رنيم محى الدين محمد طه كحيل</t>
         </is>
       </c>
       <c r="C277" s="5" t="inlineStr">
@@ -62824,7 +62830,7 @@
       </c>
       <c r="E277" s="5" t="inlineStr">
         <is>
-          <t>190785@med.asu.edu.eg</t>
+          <t>190795@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F277" s="6" t="inlineStr">
@@ -63029,12 +63035,12 @@
     <row r="278" ht="20" customHeight="1">
       <c r="A278" s="5" t="inlineStr">
         <is>
-          <t>190795</t>
+          <t>190799</t>
         </is>
       </c>
       <c r="B278" s="5" t="inlineStr">
         <is>
-          <t>رنيم محى الدين محمد طه كحيل</t>
+          <t>لونا محمد فراس شراباتى</t>
         </is>
       </c>
       <c r="C278" s="5" t="inlineStr">
@@ -63049,7 +63055,7 @@
       </c>
       <c r="E278" s="5" t="inlineStr">
         <is>
-          <t>190795@med.asu.edu.eg</t>
+          <t>190799@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F278" s="6" t="inlineStr">
@@ -63254,12 +63260,12 @@
     <row r="279" ht="20" customHeight="1">
       <c r="A279" s="5" t="inlineStr">
         <is>
-          <t>190799</t>
+          <t>190825</t>
         </is>
       </c>
       <c r="B279" s="5" t="inlineStr">
         <is>
-          <t>لونا محمد فراس شراباتى</t>
+          <t>انيسه عبد الله محمد</t>
         </is>
       </c>
       <c r="C279" s="5" t="inlineStr">
@@ -63274,7 +63280,7 @@
       </c>
       <c r="E279" s="5" t="inlineStr">
         <is>
-          <t>190799@med.asu.edu.eg</t>
+          <t>190825@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F279" s="6" t="inlineStr">
@@ -63479,12 +63485,12 @@
     <row r="280" ht="20" customHeight="1">
       <c r="A280" s="5" t="inlineStr">
         <is>
-          <t>190825</t>
+          <t>190860</t>
         </is>
       </c>
       <c r="B280" s="5" t="inlineStr">
         <is>
-          <t>انيسه عبد الله محمد</t>
+          <t>راما محمد موسى مطر</t>
         </is>
       </c>
       <c r="C280" s="5" t="inlineStr">
@@ -63499,7 +63505,7 @@
       </c>
       <c r="E280" s="5" t="inlineStr">
         <is>
-          <t>190825@med.asu.edu.eg</t>
+          <t>190860@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F280" s="6" t="inlineStr">
@@ -63704,12 +63710,12 @@
     <row r="281" ht="20" customHeight="1">
       <c r="A281" s="5" t="inlineStr">
         <is>
-          <t>190860</t>
+          <t>190862</t>
         </is>
       </c>
       <c r="B281" s="5" t="inlineStr">
         <is>
-          <t>راما محمد موسى مطر</t>
+          <t>محمد امجد برجاس</t>
         </is>
       </c>
       <c r="C281" s="5" t="inlineStr">
@@ -63724,7 +63730,7 @@
       </c>
       <c r="E281" s="5" t="inlineStr">
         <is>
-          <t>190860@med.asu.edu.eg</t>
+          <t>190862@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F281" s="6" t="inlineStr">
@@ -63929,12 +63935,12 @@
     <row r="282" ht="20" customHeight="1">
       <c r="A282" s="5" t="inlineStr">
         <is>
-          <t>190862</t>
+          <t>190930</t>
         </is>
       </c>
       <c r="B282" s="5" t="inlineStr">
         <is>
-          <t>احمد ابراهيم محمد ابو نحل</t>
+          <t>محمود زكريا محمود الملكاوى</t>
         </is>
       </c>
       <c r="C282" s="5" t="inlineStr">
@@ -63949,7 +63955,7 @@
       </c>
       <c r="E282" s="5" t="inlineStr">
         <is>
-          <t>190862@med.asu.edu.eg</t>
+          <t>190930@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F282" s="6" t="inlineStr">
@@ -64154,12 +64160,12 @@
     <row r="283" ht="20" customHeight="1">
       <c r="A283" s="5" t="inlineStr">
         <is>
-          <t>190930</t>
+          <t>190940</t>
         </is>
       </c>
       <c r="B283" s="5" t="inlineStr">
         <is>
-          <t>محمود زكريا محمود الملكاوى</t>
+          <t>تيماء على محمد الدويرى</t>
         </is>
       </c>
       <c r="C283" s="5" t="inlineStr">
@@ -64174,7 +64180,7 @@
       </c>
       <c r="E283" s="5" t="inlineStr">
         <is>
-          <t>190930@med.asu.edu.eg</t>
+          <t>190940@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F283" s="6" t="inlineStr">
@@ -64379,12 +64385,12 @@
     <row r="284" ht="20" customHeight="1">
       <c r="A284" s="5" t="inlineStr">
         <is>
-          <t>190940</t>
+          <t>190943</t>
         </is>
       </c>
       <c r="B284" s="5" t="inlineStr">
         <is>
-          <t>تيماء على محمد الدويرى</t>
+          <t>حسام فراس عباس القطيشات</t>
         </is>
       </c>
       <c r="C284" s="5" t="inlineStr">
@@ -64399,7 +64405,7 @@
       </c>
       <c r="E284" s="5" t="inlineStr">
         <is>
-          <t>190940@med.asu.edu.eg</t>
+          <t>190943@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F284" s="6" t="inlineStr">
@@ -64604,12 +64610,12 @@
     <row r="285" ht="20" customHeight="1">
       <c r="A285" s="5" t="inlineStr">
         <is>
-          <t>190943</t>
+          <t>190955</t>
         </is>
       </c>
       <c r="B285" s="5" t="inlineStr">
         <is>
-          <t>حسام فراس عباس القطيشات</t>
+          <t>عمر محمد جمال</t>
         </is>
       </c>
       <c r="C285" s="5" t="inlineStr">
@@ -64624,7 +64630,7 @@
       </c>
       <c r="E285" s="5" t="inlineStr">
         <is>
-          <t>190943@med.asu.edu.eg</t>
+          <t>190955@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F285" s="6" t="inlineStr">
@@ -64829,12 +64835,12 @@
     <row r="286" ht="20" customHeight="1">
       <c r="A286" s="5" t="inlineStr">
         <is>
-          <t>190955</t>
+          <t>190964</t>
         </is>
       </c>
       <c r="B286" s="5" t="inlineStr">
         <is>
-          <t>عمر محمد جمال</t>
+          <t>نور اسماعيل عبد القادر جبر</t>
         </is>
       </c>
       <c r="C286" s="5" t="inlineStr">
@@ -64849,7 +64855,7 @@
       </c>
       <c r="E286" s="5" t="inlineStr">
         <is>
-          <t>190955@med.asu.edu.eg</t>
+          <t>190964@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F286" s="6" t="inlineStr">
@@ -65054,12 +65060,12 @@
     <row r="287" ht="20" customHeight="1">
       <c r="A287" s="5" t="inlineStr">
         <is>
-          <t>190964</t>
+          <t>190966</t>
         </is>
       </c>
       <c r="B287" s="5" t="inlineStr">
         <is>
-          <t>نور اسماعيل عبد القادر جبر</t>
+          <t>محمد نورس منجد القاسم</t>
         </is>
       </c>
       <c r="C287" s="5" t="inlineStr">
@@ -65074,7 +65080,7 @@
       </c>
       <c r="E287" s="5" t="inlineStr">
         <is>
-          <t>190964@med.asu.edu.eg</t>
+          <t>190966@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F287" s="6" t="inlineStr">
@@ -65279,12 +65285,12 @@
     <row r="288" ht="20" customHeight="1">
       <c r="A288" s="5" t="inlineStr">
         <is>
-          <t>190966</t>
+          <t>190988</t>
         </is>
       </c>
       <c r="B288" s="5" t="inlineStr">
         <is>
-          <t>محمد نورس منجد القاسم</t>
+          <t>رهف سليمان داود سليمان السبع</t>
         </is>
       </c>
       <c r="C288" s="5" t="inlineStr">
@@ -65299,7 +65305,7 @@
       </c>
       <c r="E288" s="5" t="inlineStr">
         <is>
-          <t>190966@med.asu.edu.eg</t>
+          <t>190988@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F288" s="6" t="inlineStr">
@@ -65504,12 +65510,12 @@
     <row r="289" ht="20" customHeight="1">
       <c r="A289" s="5" t="inlineStr">
         <is>
-          <t>190988</t>
+          <t>191007</t>
         </is>
       </c>
       <c r="B289" s="5" t="inlineStr">
         <is>
-          <t>رهف سليمان داود سليمان السبع</t>
+          <t>عبد القادر سعيد على</t>
         </is>
       </c>
       <c r="C289" s="5" t="inlineStr">
@@ -65524,7 +65530,7 @@
       </c>
       <c r="E289" s="5" t="inlineStr">
         <is>
-          <t>190988@med.asu.edu.eg</t>
+          <t>191007@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F289" s="6" t="inlineStr">
@@ -65729,12 +65735,12 @@
     <row r="290" ht="20" customHeight="1">
       <c r="A290" s="5" t="inlineStr">
         <is>
-          <t>191007</t>
+          <t>191010</t>
         </is>
       </c>
       <c r="B290" s="5" t="inlineStr">
         <is>
-          <t>عبد القادر سعيد على</t>
+          <t>مريم فتحى سعيد على</t>
         </is>
       </c>
       <c r="C290" s="5" t="inlineStr">
@@ -65749,7 +65755,7 @@
       </c>
       <c r="E290" s="5" t="inlineStr">
         <is>
-          <t>191007@med.asu.edu.eg</t>
+          <t>191010@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F290" s="6" t="inlineStr">
@@ -65954,12 +65960,12 @@
     <row r="291" ht="20" customHeight="1">
       <c r="A291" s="5" t="inlineStr">
         <is>
-          <t>191010</t>
+          <t>191019</t>
         </is>
       </c>
       <c r="B291" s="5" t="inlineStr">
         <is>
-          <t>مريم فتحى سعيد على</t>
+          <t>ايمان كمال محمد ابو زهرى</t>
         </is>
       </c>
       <c r="C291" s="5" t="inlineStr">
@@ -65974,7 +65980,7 @@
       </c>
       <c r="E291" s="5" t="inlineStr">
         <is>
-          <t>191010@med.asu.edu.eg</t>
+          <t>191019@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F291" s="6" t="inlineStr">
@@ -66179,12 +66185,12 @@
     <row r="292" ht="20" customHeight="1">
       <c r="A292" s="5" t="inlineStr">
         <is>
-          <t>191019</t>
+          <t>191043</t>
         </is>
       </c>
       <c r="B292" s="5" t="inlineStr">
         <is>
-          <t>ايمان كمال محمد ابو زهرى</t>
+          <t>سالى حسين مهدى</t>
         </is>
       </c>
       <c r="C292" s="5" t="inlineStr">
@@ -66199,7 +66205,7 @@
       </c>
       <c r="E292" s="5" t="inlineStr">
         <is>
-          <t>191019@med.asu.edu.eg</t>
+          <t>191043@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F292" s="6" t="inlineStr">
@@ -66404,12 +66410,12 @@
     <row r="293" ht="20" customHeight="1">
       <c r="A293" s="5" t="inlineStr">
         <is>
-          <t>191043</t>
+          <t>191060</t>
         </is>
       </c>
       <c r="B293" s="5" t="inlineStr">
         <is>
-          <t>سالى حسين مهدى</t>
+          <t>محمد حسين ادم عبد الله</t>
         </is>
       </c>
       <c r="C293" s="5" t="inlineStr">
@@ -66424,7 +66430,7 @@
       </c>
       <c r="E293" s="5" t="inlineStr">
         <is>
-          <t>191043@med.asu.edu.eg</t>
+          <t>191060@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F293" s="6" t="inlineStr">
@@ -66629,12 +66635,12 @@
     <row r="294" ht="20" customHeight="1">
       <c r="A294" s="5" t="inlineStr">
         <is>
-          <t>191060</t>
+          <t>191064</t>
         </is>
       </c>
       <c r="B294" s="5" t="inlineStr">
         <is>
-          <t>محمد حسين ادم عبد الله</t>
+          <t>سجى السيد احمد عمر</t>
         </is>
       </c>
       <c r="C294" s="5" t="inlineStr">
@@ -66649,7 +66655,7 @@
       </c>
       <c r="E294" s="5" t="inlineStr">
         <is>
-          <t>191060@med.asu.edu.eg</t>
+          <t>191064@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F294" s="6" t="inlineStr">
@@ -66854,12 +66860,12 @@
     <row r="295" ht="20" customHeight="1">
       <c r="A295" s="5" t="inlineStr">
         <is>
-          <t>191064</t>
+          <t>191076</t>
         </is>
       </c>
       <c r="B295" s="5" t="inlineStr">
         <is>
-          <t>سجى السيد احمد عمر</t>
+          <t>امل الفاتح جابر محمد عثمان</t>
         </is>
       </c>
       <c r="C295" s="5" t="inlineStr">
@@ -66874,7 +66880,7 @@
       </c>
       <c r="E295" s="5" t="inlineStr">
         <is>
-          <t>191064@med.asu.edu.eg</t>
+          <t>191076@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F295" s="6" t="inlineStr">
@@ -67079,12 +67085,12 @@
     <row r="296" ht="20" customHeight="1">
       <c r="A296" s="5" t="inlineStr">
         <is>
-          <t>191076</t>
+          <t>191092</t>
         </is>
       </c>
       <c r="B296" s="5" t="inlineStr">
         <is>
-          <t>امل الفاتح جابر محمد عثمان</t>
+          <t>ابراهيم احمد عبد</t>
         </is>
       </c>
       <c r="C296" s="5" t="inlineStr">
@@ -67099,7 +67105,7 @@
       </c>
       <c r="E296" s="5" t="inlineStr">
         <is>
-          <t>191076@med.asu.edu.eg</t>
+          <t>191092@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F296" s="6" t="inlineStr">
@@ -67304,12 +67310,12 @@
     <row r="297" ht="20" customHeight="1">
       <c r="A297" s="5" t="inlineStr">
         <is>
-          <t>191092</t>
+          <t>191182</t>
         </is>
       </c>
       <c r="B297" s="5" t="inlineStr">
         <is>
-          <t>ابراهيم احمد عبد</t>
+          <t>فاروق جميل ابراهيم</t>
         </is>
       </c>
       <c r="C297" s="5" t="inlineStr">
@@ -67324,7 +67330,7 @@
       </c>
       <c r="E297" s="5" t="inlineStr">
         <is>
-          <t>191092@med.asu.edu.eg</t>
+          <t>191182@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F297" s="6" t="inlineStr">
@@ -67529,12 +67535,12 @@
     <row r="298" ht="20" customHeight="1">
       <c r="A298" s="5" t="inlineStr">
         <is>
-          <t>191182</t>
+          <t>191185</t>
         </is>
       </c>
       <c r="B298" s="5" t="inlineStr">
         <is>
-          <t>فاروق جميل ابراهيم</t>
+          <t>رسل عبد الجبار اسماعيل</t>
         </is>
       </c>
       <c r="C298" s="5" t="inlineStr">
@@ -67549,7 +67555,7 @@
       </c>
       <c r="E298" s="5" t="inlineStr">
         <is>
-          <t>191182@med.asu.edu.eg</t>
+          <t>191185@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F298" s="6" t="inlineStr">
@@ -67754,12 +67760,12 @@
     <row r="299" ht="20" customHeight="1">
       <c r="A299" s="5" t="inlineStr">
         <is>
-          <t>191185</t>
+          <t>191193</t>
         </is>
       </c>
       <c r="B299" s="5" t="inlineStr">
         <is>
-          <t>رسل عبد الجبار اسماعيل</t>
+          <t>سالى احمد محمد اغرير</t>
         </is>
       </c>
       <c r="C299" s="5" t="inlineStr">
@@ -67774,7 +67780,7 @@
       </c>
       <c r="E299" s="5" t="inlineStr">
         <is>
-          <t>191185@med.asu.edu.eg</t>
+          <t>191193@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F299" s="6" t="inlineStr">
@@ -67979,12 +67985,12 @@
     <row r="300" ht="20" customHeight="1">
       <c r="A300" s="5" t="inlineStr">
         <is>
-          <t>191193</t>
+          <t>191203</t>
         </is>
       </c>
       <c r="B300" s="5" t="inlineStr">
         <is>
-          <t>سالى احمد محمد اغرير</t>
+          <t>محمد باقر عادل حاتم</t>
         </is>
       </c>
       <c r="C300" s="5" t="inlineStr">
@@ -67999,7 +68005,7 @@
       </c>
       <c r="E300" s="5" t="inlineStr">
         <is>
-          <t>191193@med.asu.edu.eg</t>
+          <t>191203@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F300" s="6" t="inlineStr">
@@ -68204,12 +68210,12 @@
     <row r="301" ht="20" customHeight="1">
       <c r="A301" s="5" t="inlineStr">
         <is>
-          <t>191203</t>
+          <t>191205</t>
         </is>
       </c>
       <c r="B301" s="5" t="inlineStr">
         <is>
-          <t>محمد باقر عادل حاتم</t>
+          <t>سحر خالد السماعيل</t>
         </is>
       </c>
       <c r="C301" s="5" t="inlineStr">
@@ -68224,7 +68230,7 @@
       </c>
       <c r="E301" s="5" t="inlineStr">
         <is>
-          <t>191203@med.asu.edu.eg</t>
+          <t>191205@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F301" s="6" t="inlineStr">
@@ -68429,12 +68435,12 @@
     <row r="302" ht="20" customHeight="1">
       <c r="A302" s="5" t="inlineStr">
         <is>
-          <t>191205</t>
+          <t>191248</t>
         </is>
       </c>
       <c r="B302" s="5" t="inlineStr">
         <is>
-          <t>سحر خالد السماعيل</t>
+          <t>عبدالله احمد حسين</t>
         </is>
       </c>
       <c r="C302" s="5" t="inlineStr">
@@ -68449,7 +68455,7 @@
       </c>
       <c r="E302" s="5" t="inlineStr">
         <is>
-          <t>191205@med.asu.edu.eg</t>
+          <t>191248@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F302" s="6" t="inlineStr">
@@ -68654,12 +68660,12 @@
     <row r="303" ht="20" customHeight="1">
       <c r="A303" s="5" t="inlineStr">
         <is>
-          <t>191248</t>
+          <t>191249</t>
         </is>
       </c>
       <c r="B303" s="5" t="inlineStr">
         <is>
-          <t>عبدالله احمد حسين</t>
+          <t>شهد ناصر عبد الله ابو العطا</t>
         </is>
       </c>
       <c r="C303" s="5" t="inlineStr">
@@ -68674,7 +68680,7 @@
       </c>
       <c r="E303" s="5" t="inlineStr">
         <is>
-          <t>191248@med.asu.edu.eg</t>
+          <t>191249@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F303" s="6" t="inlineStr">
@@ -68879,12 +68885,12 @@
     <row r="304" ht="20" customHeight="1">
       <c r="A304" s="5" t="inlineStr">
         <is>
-          <t>191249</t>
+          <t>191392</t>
         </is>
       </c>
       <c r="B304" s="5" t="inlineStr">
         <is>
-          <t>شهد ناصر عبد الله ابو العطا</t>
+          <t>عبد الله ابكر عبد الله سليمان</t>
         </is>
       </c>
       <c r="C304" s="5" t="inlineStr">
@@ -68899,7 +68905,7 @@
       </c>
       <c r="E304" s="5" t="inlineStr">
         <is>
-          <t>191249@med.asu.edu.eg</t>
+          <t>191392@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F304" s="6" t="inlineStr">
@@ -69104,12 +69110,12 @@
     <row r="305" ht="20" customHeight="1">
       <c r="A305" s="5" t="inlineStr">
         <is>
-          <t>191392</t>
+          <t>191410</t>
         </is>
       </c>
       <c r="B305" s="5" t="inlineStr">
         <is>
-          <t>عبد الله ابكر عبد الله سليمان</t>
+          <t>محمد ياسر محمد مهدي</t>
         </is>
       </c>
       <c r="C305" s="5" t="inlineStr">
@@ -69124,7 +69130,7 @@
       </c>
       <c r="E305" s="5" t="inlineStr">
         <is>
-          <t>191392@med.asu.edu.eg</t>
+          <t>191410@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F305" s="6" t="inlineStr">
@@ -69329,12 +69335,12 @@
     <row r="306" ht="20" customHeight="1">
       <c r="A306" s="5" t="inlineStr">
         <is>
-          <t>191410</t>
+          <t>191413</t>
         </is>
       </c>
       <c r="B306" s="5" t="inlineStr">
         <is>
-          <t>محمد ياسر محمد مهدي</t>
+          <t>يوسف على ادريس</t>
         </is>
       </c>
       <c r="C306" s="5" t="inlineStr">
@@ -69349,7 +69355,7 @@
       </c>
       <c r="E306" s="5" t="inlineStr">
         <is>
-          <t>191410@med.asu.edu.eg</t>
+          <t>191413@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F306" s="6" t="inlineStr">
@@ -69554,12 +69560,12 @@
     <row r="307" ht="20" customHeight="1">
       <c r="A307" s="5" t="inlineStr">
         <is>
-          <t>191413</t>
+          <t>191454</t>
         </is>
       </c>
       <c r="B307" s="5" t="inlineStr">
         <is>
-          <t>يوسف على ادريس</t>
+          <t>حسين العوام قسم السيد محمد</t>
         </is>
       </c>
       <c r="C307" s="5" t="inlineStr">
@@ -69574,7 +69580,7 @@
       </c>
       <c r="E307" s="5" t="inlineStr">
         <is>
-          <t>191413@med.asu.edu.eg</t>
+          <t>191454@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F307" s="6" t="inlineStr">
@@ -69779,12 +69785,12 @@
     <row r="308" ht="20" customHeight="1">
       <c r="A308" s="5" t="inlineStr">
         <is>
-          <t>191454</t>
+          <t>191470</t>
         </is>
       </c>
       <c r="B308" s="5" t="inlineStr">
         <is>
-          <t>اجمد محمد علي العساسي</t>
+          <t>ابراهيم موسى اسماعيل محمد</t>
         </is>
       </c>
       <c r="C308" s="5" t="inlineStr">
@@ -69799,7 +69805,7 @@
       </c>
       <c r="E308" s="5" t="inlineStr">
         <is>
-          <t>191454@med.asu.edu.eg</t>
+          <t>191470@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F308" s="6" t="inlineStr">
@@ -70004,12 +70010,12 @@
     <row r="309" ht="20" customHeight="1">
       <c r="A309" s="5" t="inlineStr">
         <is>
-          <t>191470</t>
+          <t>200770</t>
         </is>
       </c>
       <c r="B309" s="5" t="inlineStr">
         <is>
-          <t>ابراهيم موسى اسماعيل محمد</t>
+          <t>امنيه محمد عبدالحميد</t>
         </is>
       </c>
       <c r="C309" s="5" t="inlineStr">
@@ -70024,7 +70030,7 @@
       </c>
       <c r="E309" s="5" t="inlineStr">
         <is>
-          <t>191470@med.asu.edu.eg</t>
+          <t>200770@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F309" s="6" t="inlineStr">
@@ -70229,12 +70235,12 @@
     <row r="310" ht="20" customHeight="1">
       <c r="A310" s="5" t="inlineStr">
         <is>
-          <t>200770</t>
+          <t>200913</t>
         </is>
       </c>
       <c r="B310" s="5" t="inlineStr">
         <is>
-          <t>عمرو عادل شاهين</t>
+          <t>زيد غسان الدويك</t>
         </is>
       </c>
       <c r="C310" s="5" t="inlineStr">
@@ -70249,7 +70255,7 @@
       </c>
       <c r="E310" s="5" t="inlineStr">
         <is>
-          <t>200770@med.asu.edu.eg</t>
+          <t>200913@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F310" s="6" t="inlineStr">
@@ -70459,7 +70465,7 @@
       </c>
       <c r="B311" s="5" t="inlineStr">
         <is>
-          <t>امنيه محمد عبدالحميد</t>
+          <t>محمود أحمد محمد محمد</t>
         </is>
       </c>
       <c r="C311" s="5" t="inlineStr">
@@ -70684,7 +70690,7 @@
       </c>
       <c r="B312" s="5" t="inlineStr">
         <is>
-          <t>حسين العوام قسم السيد محمد</t>
+          <t>بكر عثمان مندب</t>
         </is>
       </c>
       <c r="C312" s="5" t="inlineStr">
@@ -70909,7 +70915,7 @@
       </c>
       <c r="B313" s="5" t="inlineStr">
         <is>
-          <t>سعد سلطان سعد الخدام</t>
+          <t>تذكار سليمان عيسى</t>
         </is>
       </c>
       <c r="C313" s="5" t="inlineStr">
@@ -71134,7 +71140,7 @@
       </c>
       <c r="B314" s="5" t="inlineStr">
         <is>
-          <t>محمود أحمد محمد محمد</t>
+          <t>احمد ابراهيم محمد ابو نحل</t>
         </is>
       </c>
       <c r="C314" s="5" t="inlineStr">
@@ -71359,7 +71365,7 @@
       </c>
       <c r="B315" s="5" t="inlineStr">
         <is>
-          <t>تذكار سليمان عيسى</t>
+          <t>عمرو عادل محمود</t>
         </is>
       </c>
       <c r="C315" s="5" t="inlineStr">
@@ -71584,7 +71590,7 @@
       </c>
       <c r="B316" s="5" t="inlineStr">
         <is>
-          <t>بكر عثمان مندب</t>
+          <t>محمد مصطفى عبداللطيف</t>
         </is>
       </c>
       <c r="C316" s="5" t="inlineStr">
@@ -71898,4 +71904,105 @@
   <autoFilter ref="A1:K1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1">
+      <c r="A1" s="12" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="12" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="D1" s="12" t="inlineStr">
+        <is>
+          <t>Group Before</t>
+        </is>
+      </c>
+      <c r="E1" s="12" t="inlineStr">
+        <is>
+          <t>Group After</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Transfer Date</t>
+        </is>
+      </c>
+      <c r="G1" s="12" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>200913</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>زيد غسان الدويك</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>B2D2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>New Transfer</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/attendance_reports/Y5_B2526_General_&_Special_Internal_2_B2_attendance.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Internal_2_B2_attendance.xlsx
@@ -71929,7 +71929,7 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
@@ -71997,7 +71997,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
